--- a/Data/Chickens data/DataCycleCleaning.xlsx
+++ b/Data/Chickens data/DataCycleCleaning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\DASA---Project\Data\Chickens data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306E9DBD-2883-4BD1-9DA9-8A681FA1D691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520D06DF-0A5B-4CD2-8779-122BF6D0EC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="24">
   <si>
     <t>0</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>% Laied</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>81</t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,7 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{083FC1B2-5308-4547-84EE-63CA1355256D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="12">
+  <queryTableRefresh nextId="13">
     <queryTableFields count="11">
       <queryTableField id="1" name="Arrival Chickens Date" tableColumnId="1"/>
       <queryTableField id="2" name="Chickens Death Per Day" tableColumnId="2"/>
@@ -489,8 +495,8 @@
     <tableColumn id="4" xr3:uid="{72D4A305-E74B-4615-ACDB-FC7D1D6F6C9C}" uniqueName="4" name="Date of Laid" queryTableFieldId="4" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{746848B6-AC03-4441-AAEC-8DDCAF50017F}" uniqueName="5" name="# of Eggs" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{30BEACEB-89ED-4A38-A712-9891E7B9BB33}" uniqueName="6" name="% Laied" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{804961DD-9E55-4DC6-A2A0-56A3C2D4B2F1}" uniqueName="7" name="Water Consuption (gr)" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{AB5CC4E1-6980-4355-AE08-DC973B4DCF84}" uniqueName="8" name="Feed Consuption (gr)" queryTableFieldId="8"/>
+    <tableColumn id="7" xr3:uid="{804961DD-9E55-4DC6-A2A0-56A3C2D4B2F1}" uniqueName="7" name="110" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{AB5CC4E1-6980-4355-AE08-DC973B4DCF84}" uniqueName="8" name="81" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{0F69B336-B6B4-4143-990E-311D456FFED1}" uniqueName="9" name="Date of Selling" queryTableFieldId="9" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{430D5CF3-96DE-42D6-BA3A-BFC4D225CC61}" uniqueName="10" name="# Eggs sold (First quality)" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{7911ED45-984D-4D6B-99F7-37BCB9B15E85}" uniqueName="11" name="# Eggs sold (Second quality)" queryTableFieldId="11"/>
@@ -46216,8 +46222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5EA9C8-6BC4-46E4-A994-8BF275A33EF4}">
   <dimension ref="A1:K607"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="H606" sqref="H606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46255,10 +46261,10 @@
         <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
         <v>10</v>
@@ -46291,10 +46297,10 @@
         <v>3.4821745824943739E-2</v>
       </c>
       <c r="G2">
-        <v>1100</v>
+        <v>109</v>
       </c>
       <c r="H2">
-        <v>810</v>
+        <v>90</v>
       </c>
       <c r="I2" s="4">
         <v>44078</v>
@@ -46327,10 +46333,10 @@
         <v>0.10660728246191752</v>
       </c>
       <c r="G3">
-        <v>1090</v>
+        <v>111</v>
       </c>
       <c r="H3">
-        <v>900</v>
+        <v>86</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3">
@@ -46361,10 +46367,10 @@
         <v>0.11846376193522401</v>
       </c>
       <c r="G4">
-        <v>1110</v>
+        <v>109</v>
       </c>
       <c r="H4">
-        <v>860</v>
+        <v>94</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4">
@@ -46395,10 +46401,10 @@
         <v>0.14217672567000783</v>
       </c>
       <c r="G5">
-        <v>1090</v>
+        <v>105</v>
       </c>
       <c r="H5">
-        <v>940</v>
+        <v>94</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5">
@@ -46429,10 +46435,10 @@
         <v>0.16873237433940802</v>
       </c>
       <c r="G6">
-        <v>1050</v>
+        <v>112</v>
       </c>
       <c r="H6">
-        <v>940</v>
+        <v>90</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6">
@@ -46463,10 +46469,10 @@
         <v>0.20145999241562382</v>
       </c>
       <c r="G7">
-        <v>1120</v>
+        <v>106</v>
       </c>
       <c r="H7">
-        <v>900</v>
+        <v>83</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7">
@@ -46497,10 +46503,10 @@
         <v>0.29157283394571532</v>
       </c>
       <c r="G8">
-        <v>1060</v>
+        <v>111</v>
       </c>
       <c r="H8">
-        <v>830</v>
+        <v>91</v>
       </c>
       <c r="I8" s="4">
         <v>44084</v>
@@ -46533,10 +46539,10 @@
         <v>0.29160048363007041</v>
       </c>
       <c r="G9">
-        <v>1110</v>
+        <v>107</v>
       </c>
       <c r="H9">
-        <v>910</v>
+        <v>85</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9">
@@ -46567,10 +46573,10 @@
         <v>0.37058990895295901</v>
       </c>
       <c r="G10">
-        <v>1070</v>
+        <v>109</v>
       </c>
       <c r="H10">
-        <v>850</v>
+        <v>97</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10">
@@ -46601,10 +46607,10 @@
         <v>0.37062505928103956</v>
       </c>
       <c r="G11">
-        <v>1090</v>
+        <v>110</v>
       </c>
       <c r="H11">
-        <v>970</v>
+        <v>87</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11">
@@ -46635,10 +46641,10 @@
         <v>0.4998102736802163</v>
       </c>
       <c r="G12">
-        <v>1100</v>
+        <v>113</v>
       </c>
       <c r="H12">
-        <v>870</v>
+        <v>97</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12">
@@ -46669,10 +46675,10 @@
         <v>0.49988140417457305</v>
       </c>
       <c r="G13">
-        <v>1130</v>
+        <v>117</v>
       </c>
       <c r="H13">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13">
@@ -46703,10 +46709,10 @@
         <v>0.5615924836291164</v>
       </c>
       <c r="G14">
-        <v>1170</v>
+        <v>118</v>
       </c>
       <c r="H14">
-        <v>900</v>
+        <v>99</v>
       </c>
       <c r="I14" s="4">
         <v>44090</v>
@@ -46739,10 +46745,10 @@
         <v>0.61512174284493804</v>
       </c>
       <c r="G15">
-        <v>1180</v>
+        <v>113</v>
       </c>
       <c r="H15">
-        <v>990</v>
+        <v>94</v>
       </c>
       <c r="I15" s="4">
         <v>44091</v>
@@ -46775,10 +46781,10 @@
         <v>0.65152378239817721</v>
       </c>
       <c r="G16">
-        <v>1130</v>
+        <v>115</v>
       </c>
       <c r="H16">
-        <v>940</v>
+        <v>140</v>
       </c>
       <c r="I16" s="4">
         <v>44092</v>
@@ -46811,10 +46817,10 @@
         <v>0.69431257121154577</v>
       </c>
       <c r="G17">
-        <v>1150</v>
+        <v>120</v>
       </c>
       <c r="H17">
-        <v>1400</v>
+        <v>102</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17">
@@ -46845,10 +46851,10 @@
         <v>0.72715618545687633</v>
       </c>
       <c r="G18">
-        <v>1200</v>
+        <v>122</v>
       </c>
       <c r="H18">
-        <v>1020</v>
+        <v>105</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18">
@@ -46879,10 +46885,10 @@
         <v>0.75858302863383831</v>
       </c>
       <c r="G19">
-        <v>1220</v>
+        <v>124</v>
       </c>
       <c r="H19">
-        <v>1050</v>
+        <v>98</v>
       </c>
       <c r="I19" s="4">
         <v>44095</v>
@@ -46915,10 +46921,10 @@
         <v>0.77434521406691526</v>
       </c>
       <c r="G20">
-        <v>1240</v>
+        <v>126</v>
       </c>
       <c r="H20">
-        <v>980</v>
+        <v>113</v>
       </c>
       <c r="I20" s="4">
         <v>44096</v>
@@ -46951,10 +46957,10 @@
         <v>0.80297344796466064</v>
       </c>
       <c r="G21">
-        <v>1260</v>
+        <v>129</v>
       </c>
       <c r="H21">
-        <v>1130</v>
+        <v>102</v>
       </c>
       <c r="I21" s="4">
         <v>44097</v>
@@ -46987,10 +46993,10 @@
         <v>0.81381538315359403</v>
       </c>
       <c r="G22">
-        <v>1290</v>
+        <v>128</v>
       </c>
       <c r="H22">
-        <v>1020</v>
+        <v>101</v>
       </c>
       <c r="I22" s="4">
         <v>44098</v>
@@ -47023,10 +47029,10 @@
         <v>0.83180878614364795</v>
       </c>
       <c r="G23">
-        <v>1280</v>
+        <v>130</v>
       </c>
       <c r="H23">
-        <v>1010</v>
+        <v>113</v>
       </c>
       <c r="I23" s="4">
         <v>44099</v>
@@ -47059,10 +47065,10 @@
         <v>0.85256029464179639</v>
       </c>
       <c r="G24">
-        <v>1300</v>
+        <v>133</v>
       </c>
       <c r="H24">
-        <v>1130</v>
+        <v>112</v>
       </c>
       <c r="I24" s="4">
         <v>44100</v>
@@ -47095,10 +47101,10 @@
         <v>0.85981130730293021</v>
       </c>
       <c r="G25">
-        <v>1330</v>
+        <v>136</v>
       </c>
       <c r="H25">
-        <v>1120</v>
+        <v>117</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25">
@@ -47129,10 +47135,10 @@
         <v>0.88061226915123714</v>
       </c>
       <c r="G26">
-        <v>1360</v>
+        <v>135</v>
       </c>
       <c r="H26">
-        <v>1170</v>
+        <v>110</v>
       </c>
       <c r="I26" s="4">
         <v>44102</v>
@@ -47165,10 +47171,10 @@
         <v>0.87077449721865641</v>
       </c>
       <c r="G27">
-        <v>1350</v>
+        <v>134</v>
       </c>
       <c r="H27">
-        <v>1100</v>
+        <v>109</v>
       </c>
       <c r="I27" s="4">
         <v>44103</v>
@@ -47201,10 +47207,10 @@
         <v>0.89942938659058491</v>
       </c>
       <c r="G28">
-        <v>1340</v>
+        <v>138</v>
       </c>
       <c r="H28">
-        <v>1090</v>
+        <v>93</v>
       </c>
       <c r="I28" s="4">
         <v>44104</v>
@@ -47237,10 +47243,10 @@
         <v>0.90597802824939366</v>
       </c>
       <c r="G29">
-        <v>1380</v>
+        <v>137</v>
       </c>
       <c r="H29">
-        <v>930</v>
+        <v>109</v>
       </c>
       <c r="I29" s="4">
         <v>44105</v>
@@ -47273,10 +47279,10 @@
         <v>0.90107015457788342</v>
       </c>
       <c r="G30">
-        <v>1370</v>
+        <v>142</v>
       </c>
       <c r="H30">
-        <v>1090</v>
+        <v>105</v>
       </c>
       <c r="I30" s="4">
         <v>44106</v>
@@ -47309,10 +47315,10 @@
         <v>0.90573936208167827</v>
       </c>
       <c r="G31">
-        <v>1420</v>
+        <v>140</v>
       </c>
       <c r="H31">
-        <v>1050</v>
+        <v>81</v>
       </c>
       <c r="I31" s="4">
         <v>44107</v>
@@ -47345,10 +47351,10 @@
         <v>0.90422495004282044</v>
       </c>
       <c r="G32">
-        <v>1400</v>
+        <v>139</v>
       </c>
       <c r="H32">
-        <v>810</v>
+        <v>143</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32">
@@ -47379,10 +47385,10 @@
         <v>0.89862244533796487</v>
       </c>
       <c r="G33">
-        <v>1390</v>
+        <v>138</v>
       </c>
       <c r="H33">
-        <v>1430</v>
+        <v>101</v>
       </c>
       <c r="I33" s="4">
         <v>44109</v>
@@ -47415,10 +47421,10 @@
         <v>0.91731112433075546</v>
       </c>
       <c r="G34">
-        <v>1380</v>
+        <v>137</v>
       </c>
       <c r="H34">
-        <v>1010</v>
+        <v>102</v>
       </c>
       <c r="I34" s="4">
         <v>44110</v>
@@ -47451,10 +47457,10 @@
         <v>0.91462979270295353</v>
       </c>
       <c r="G35">
-        <v>1370</v>
+        <v>141</v>
       </c>
       <c r="H35">
-        <v>1020</v>
+        <v>100</v>
       </c>
       <c r="I35" s="4">
         <v>44111</v>
@@ -47487,10 +47493,10 @@
         <v>0.91900126151429318</v>
       </c>
       <c r="G36">
-        <v>1410</v>
+        <v>139</v>
       </c>
       <c r="H36">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I36" s="4">
         <v>44053</v>
@@ -47523,10 +47529,10 @@
         <v>0.92413169233699144</v>
       </c>
       <c r="G37">
-        <v>1390</v>
+        <v>135</v>
       </c>
       <c r="H37">
-        <v>1000</v>
+        <v>104</v>
       </c>
       <c r="I37" s="4">
         <v>44084</v>
@@ -47559,10 +47565,10 @@
         <v>0.90354991547820285</v>
       </c>
       <c r="G38">
-        <v>1350</v>
+        <v>136</v>
       </c>
       <c r="H38">
-        <v>1040</v>
+        <v>106</v>
       </c>
       <c r="I38" s="4">
         <v>44114</v>
@@ -47595,10 +47601,10 @@
         <v>0.88196775960187634</v>
       </c>
       <c r="G39">
-        <v>1360</v>
+        <v>137</v>
       </c>
       <c r="H39">
-        <v>1060</v>
+        <v>101</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39">
@@ -47629,10 +47635,10 @@
         <v>0.91593236484877349</v>
       </c>
       <c r="G40">
-        <v>1370</v>
+        <v>140</v>
       </c>
       <c r="H40">
-        <v>1010</v>
+        <v>123</v>
       </c>
       <c r="I40" s="4">
         <v>44116</v>
@@ -47665,10 +47671,10 @@
         <v>0.91677782012195119</v>
       </c>
       <c r="G41">
-        <v>1400</v>
+        <v>139</v>
       </c>
       <c r="H41">
-        <v>1230</v>
+        <v>117</v>
       </c>
       <c r="I41" s="4">
         <v>44117</v>
@@ -47701,10 +47707,10 @@
         <v>0.91619419696031257</v>
       </c>
       <c r="G42">
-        <v>1390</v>
+        <v>145</v>
       </c>
       <c r="H42">
-        <v>1170</v>
+        <v>124</v>
       </c>
       <c r="I42" s="4">
         <v>44118</v>
@@ -47737,10 +47743,10 @@
         <v>0.9212846047553247</v>
       </c>
       <c r="G43">
-        <v>1450</v>
+        <v>138</v>
       </c>
       <c r="H43">
-        <v>1240</v>
+        <v>104</v>
       </c>
       <c r="I43" s="4">
         <v>44119</v>
@@ -47773,10 +47779,10 @@
         <v>0.92923516797712646</v>
       </c>
       <c r="G44">
-        <v>1380</v>
+        <v>136</v>
       </c>
       <c r="H44">
-        <v>1040</v>
+        <v>113</v>
       </c>
       <c r="I44" s="4">
         <v>44120</v>
@@ -47809,10 +47815,10 @@
         <v>0.9207892479267944</v>
       </c>
       <c r="G45">
-        <v>1360</v>
+        <v>139</v>
       </c>
       <c r="H45">
-        <v>1130</v>
+        <v>105</v>
       </c>
       <c r="I45" s="4">
         <v>44121</v>
@@ -47845,10 +47851,10 @@
         <v>0.91015252621544329</v>
       </c>
       <c r="G46">
-        <v>1390</v>
+        <v>130</v>
       </c>
       <c r="H46">
-        <v>1050</v>
+        <v>110</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46">
@@ -47879,10 +47885,10 @@
         <v>0.92382495948136145</v>
       </c>
       <c r="G47">
-        <v>1300</v>
+        <v>135</v>
       </c>
       <c r="H47">
-        <v>1100</v>
+        <v>115</v>
       </c>
       <c r="I47" s="4">
         <v>44123</v>
@@ -47915,10 +47921,10 @@
         <v>0.92605835240274603</v>
       </c>
       <c r="G48">
-        <v>1350</v>
+        <v>139</v>
       </c>
       <c r="H48">
-        <v>1150</v>
+        <v>124</v>
       </c>
       <c r="I48" s="4">
         <v>44124</v>
@@ -47951,10 +47957,10 @@
         <v>0.89972822199971392</v>
       </c>
       <c r="G49">
-        <v>1390</v>
+        <v>130</v>
       </c>
       <c r="H49">
-        <v>1240</v>
+        <v>116</v>
       </c>
       <c r="I49" s="4">
         <v>44125</v>
@@ -47987,10 +47993,10 @@
         <v>0.89556509298998566</v>
       </c>
       <c r="G50">
-        <v>1300</v>
+        <v>142</v>
       </c>
       <c r="H50">
-        <v>1160</v>
+        <v>118</v>
       </c>
       <c r="I50" s="4">
         <v>44126</v>
@@ -48023,10 +48029,10 @@
         <v>0.88353126341393617</v>
       </c>
       <c r="G51">
-        <v>1420</v>
+        <v>140</v>
       </c>
       <c r="H51">
-        <v>1180</v>
+        <v>120</v>
       </c>
       <c r="I51" s="4">
         <v>44127</v>
@@ -48059,10 +48065,10 @@
         <v>0.88725642187611797</v>
       </c>
       <c r="G52">
-        <v>1400</v>
+        <v>145</v>
       </c>
       <c r="H52">
-        <v>1200</v>
+        <v>124</v>
       </c>
       <c r="I52" s="4">
         <v>44128</v>
@@ -48095,10 +48101,10 @@
         <v>0.89594962072420214</v>
       </c>
       <c r="G53">
-        <v>1450</v>
+        <v>135</v>
       </c>
       <c r="H53">
-        <v>1240</v>
+        <v>122</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53">
@@ -48129,10 +48135,10 @@
         <v>0.90249779325810531</v>
       </c>
       <c r="G54">
-        <v>1350</v>
+        <v>139</v>
       </c>
       <c r="H54">
-        <v>1220</v>
+        <v>120</v>
       </c>
       <c r="I54" s="4">
         <v>44130</v>
@@ -48165,10 +48171,10 @@
         <v>0.89900508195547923</v>
       </c>
       <c r="G55">
-        <v>1390</v>
+        <v>142</v>
       </c>
       <c r="H55">
-        <v>1200</v>
+        <v>118</v>
       </c>
       <c r="I55" s="4">
         <v>44131</v>
@@ -48201,10 +48207,10 @@
         <v>0.89412270026487217</v>
       </c>
       <c r="G56">
-        <v>1420</v>
+        <v>138</v>
       </c>
       <c r="H56">
-        <v>1180</v>
+        <v>124</v>
       </c>
       <c r="I56" s="4">
         <v>44132</v>
@@ -48237,10 +48243,10 @@
         <v>0.90143198090692123</v>
       </c>
       <c r="G57">
-        <v>1380</v>
+        <v>145</v>
       </c>
       <c r="H57">
-        <v>1240</v>
+        <v>118</v>
       </c>
       <c r="I57" s="4">
         <v>44133</v>
@@ -48273,10 +48279,10 @@
         <v>0.92731829573934832</v>
       </c>
       <c r="G58">
-        <v>1450</v>
+        <v>140</v>
       </c>
       <c r="H58">
-        <v>1180</v>
+        <v>117</v>
       </c>
       <c r="I58" s="4">
         <v>44134</v>
@@ -48309,10 +48315,10 @@
         <v>0.92239383161060851</v>
       </c>
       <c r="G59">
-        <v>1400</v>
+        <v>139</v>
       </c>
       <c r="H59">
-        <v>1170</v>
+        <v>122</v>
       </c>
       <c r="I59" s="4">
         <v>44135</v>
@@ -48345,10 +48351,10 @@
         <v>0.91460357628858591</v>
       </c>
       <c r="G60">
-        <v>1390</v>
+        <v>145</v>
       </c>
       <c r="H60">
-        <v>1220</v>
+        <v>123</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60">
@@ -48379,10 +48385,10 @@
         <v>0.93092662894253042</v>
       </c>
       <c r="G61">
-        <v>1450</v>
+        <v>135</v>
       </c>
       <c r="H61">
-        <v>1230</v>
+        <v>119</v>
       </c>
       <c r="I61" s="4">
         <v>44137</v>
@@ -48415,10 +48421,10 @@
         <v>0.9248292659630355</v>
       </c>
       <c r="G62">
-        <v>1350</v>
+        <v>145</v>
       </c>
       <c r="H62">
-        <v>1190</v>
+        <v>127</v>
       </c>
       <c r="I62" s="4">
         <v>44138</v>
@@ -48451,10 +48457,10 @@
         <v>0.93138776777398324</v>
       </c>
       <c r="G63">
-        <v>1450</v>
+        <v>138</v>
       </c>
       <c r="H63">
-        <v>1270</v>
+        <v>122</v>
       </c>
       <c r="I63" s="4">
         <v>44139</v>
@@ -48487,10 +48493,10 @@
         <v>0.9494124390942964</v>
       </c>
       <c r="G64">
-        <v>1380</v>
+        <v>140</v>
       </c>
       <c r="H64">
-        <v>1220</v>
+        <v>117</v>
       </c>
       <c r="I64" s="4">
         <v>44140</v>
@@ -48523,10 +48529,10 @@
         <v>0.96892095267671585</v>
       </c>
       <c r="G65">
-        <v>1400</v>
+        <v>139</v>
       </c>
       <c r="H65">
-        <v>1170</v>
+        <v>118</v>
       </c>
       <c r="I65" s="4">
         <v>44141</v>
@@ -48559,10 +48565,10 @@
         <v>0.96045872655596698</v>
       </c>
       <c r="G66">
-        <v>1390</v>
+        <v>145</v>
       </c>
       <c r="H66">
-        <v>1180</v>
+        <v>130</v>
       </c>
       <c r="I66" s="4">
         <v>44142</v>
@@ -48595,10 +48601,10 @@
         <v>0.96489760806709834</v>
       </c>
       <c r="G67">
-        <v>1450</v>
+        <v>138</v>
       </c>
       <c r="H67">
-        <v>1300</v>
+        <v>124</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67">
@@ -48629,10 +48635,10 @@
         <v>0.99390608196917196</v>
       </c>
       <c r="G68">
-        <v>1380</v>
+        <v>135</v>
       </c>
       <c r="H68">
-        <v>1240</v>
+        <v>119</v>
       </c>
       <c r="I68" s="4">
         <v>44144</v>
@@ -48665,10 +48671,10 @@
         <v>0.94579090778717911</v>
       </c>
       <c r="G69">
-        <v>1350</v>
+        <v>144</v>
       </c>
       <c r="H69">
-        <v>1190</v>
+        <v>118</v>
       </c>
       <c r="I69" s="4">
         <v>44145</v>
@@ -48701,10 +48707,10 @@
         <v>0.96818149219478378</v>
       </c>
       <c r="G70">
-        <v>1440</v>
+        <v>139</v>
       </c>
       <c r="H70">
-        <v>1180</v>
+        <v>124</v>
       </c>
       <c r="I70" s="4">
         <v>44146</v>
@@ -48737,10 +48743,10 @@
         <v>0.96760310818888229</v>
       </c>
       <c r="G71">
-        <v>1390</v>
+        <v>138</v>
       </c>
       <c r="H71">
-        <v>1240</v>
+        <v>129</v>
       </c>
       <c r="I71" s="4">
         <v>44147</v>
@@ -48773,10 +48779,10 @@
         <v>0.97271705602448533</v>
       </c>
       <c r="G72">
-        <v>1380</v>
+        <v>136</v>
       </c>
       <c r="H72">
-        <v>1290</v>
+        <v>122</v>
       </c>
       <c r="I72" s="4">
         <v>44148</v>
@@ -48809,10 +48815,10 @@
         <v>0.97001004448270911</v>
       </c>
       <c r="G73">
-        <v>1360</v>
+        <v>145</v>
       </c>
       <c r="H73">
-        <v>1220</v>
+        <v>123</v>
       </c>
       <c r="I73" s="4">
         <v>44149</v>
@@ -48845,10 +48851,10 @@
         <v>0.97225544128198993</v>
       </c>
       <c r="G74">
-        <v>1450</v>
+        <v>140</v>
       </c>
       <c r="H74">
-        <v>1230</v>
+        <v>122</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74">
@@ -48879,10 +48885,10 @@
         <v>0.96947806534947134</v>
       </c>
       <c r="G75">
-        <v>1400</v>
+        <v>140</v>
       </c>
       <c r="H75">
-        <v>1220</v>
+        <v>120</v>
       </c>
       <c r="I75" s="4">
         <v>44151</v>
@@ -48915,10 +48921,10 @@
         <v>0.97109909565050956</v>
       </c>
       <c r="G76">
-        <v>1400</v>
+        <v>138</v>
       </c>
       <c r="H76">
-        <v>1200</v>
+        <v>123</v>
       </c>
       <c r="I76" s="4">
         <v>44152</v>
@@ -48951,10 +48957,10 @@
         <v>0.96975642436713405</v>
       </c>
       <c r="G77">
-        <v>1380</v>
+        <v>145</v>
       </c>
       <c r="H77">
-        <v>1230</v>
+        <v>125</v>
       </c>
       <c r="I77" s="4">
         <v>44153</v>
@@ -48987,10 +48993,10 @@
         <v>0.97061357327462428</v>
       </c>
       <c r="G78">
-        <v>1450</v>
+        <v>135</v>
       </c>
       <c r="H78">
-        <v>1250</v>
+        <v>123</v>
       </c>
       <c r="I78" s="4">
         <v>44154</v>
@@ -49023,10 +49029,10 @@
         <v>0.97216571332838719</v>
       </c>
       <c r="G79">
-        <v>1350</v>
+        <v>139</v>
       </c>
       <c r="H79">
-        <v>1230</v>
+        <v>124</v>
       </c>
       <c r="I79" s="4">
         <v>44155</v>
@@ -49059,10 +49065,10 @@
         <v>0.9830297517891764</v>
       </c>
       <c r="G80">
-        <v>1390</v>
+        <v>145</v>
       </c>
       <c r="H80">
-        <v>1240</v>
+        <v>123</v>
       </c>
       <c r="I80" s="4">
         <v>44156</v>
@@ -49095,10 +49101,10 @@
         <v>0.9752944556162022</v>
       </c>
       <c r="G81">
-        <v>1450</v>
+        <v>138</v>
       </c>
       <c r="H81">
-        <v>1230</v>
+        <v>119</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81">
@@ -49129,10 +49135,10 @@
         <v>0.96391888332894393</v>
       </c>
       <c r="G82">
-        <v>1380</v>
+        <v>142</v>
       </c>
       <c r="H82">
-        <v>1190</v>
+        <v>119</v>
       </c>
       <c r="I82" s="4">
         <v>44158</v>
@@ -49165,10 +49171,10 @@
         <v>0.97056921861155676</v>
       </c>
       <c r="G83">
-        <v>1420</v>
+        <v>140</v>
       </c>
       <c r="H83">
-        <v>1190</v>
+        <v>116</v>
       </c>
       <c r="I83" s="4">
         <v>44159</v>
@@ -49201,10 +49207,10 @@
         <v>0.97288752634604325</v>
       </c>
       <c r="G84">
-        <v>1400</v>
+        <v>145</v>
       </c>
       <c r="H84">
-        <v>1160</v>
+        <v>121</v>
       </c>
       <c r="I84" s="4">
         <v>44160</v>
@@ -49237,10 +49243,10 @@
         <v>0.9686923611277457</v>
       </c>
       <c r="G85">
-        <v>1450</v>
+        <v>135</v>
       </c>
       <c r="H85">
-        <v>1210</v>
+        <v>118</v>
       </c>
       <c r="I85" s="4">
         <v>44161</v>
@@ -49273,10 +49279,10 @@
         <v>0.96957355055103023</v>
       </c>
       <c r="G86">
-        <v>1350</v>
+        <v>138</v>
       </c>
       <c r="H86">
-        <v>1180</v>
+        <v>122</v>
       </c>
       <c r="I86" s="4">
         <v>44162</v>
@@ -49309,10 +49315,10 @@
         <v>0.96899410552547083</v>
       </c>
       <c r="G87">
-        <v>1380</v>
+        <v>145</v>
       </c>
       <c r="H87">
-        <v>1220</v>
+        <v>124</v>
       </c>
       <c r="I87" s="4">
         <v>44163</v>
@@ -49345,10 +49351,10 @@
         <v>0.97131353799698039</v>
       </c>
       <c r="G88">
-        <v>1450</v>
+        <v>138</v>
       </c>
       <c r="H88">
-        <v>1240</v>
+        <v>122</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88">
@@ -49379,10 +49385,10 @@
         <v>0.96781151882654648</v>
       </c>
       <c r="G89">
-        <v>1380</v>
+        <v>137</v>
       </c>
       <c r="H89">
-        <v>1220</v>
+        <v>123</v>
       </c>
       <c r="I89" s="4">
         <v>44165</v>
@@ -49415,10 +49421,10 @@
         <v>0.97080396950956427</v>
       </c>
       <c r="G90">
-        <v>1370</v>
+        <v>142</v>
       </c>
       <c r="H90">
-        <v>1230</v>
+        <v>121</v>
       </c>
       <c r="I90" s="4">
         <v>44166</v>
@@ -49451,10 +49457,10 @@
         <v>0.96451690242148169</v>
       </c>
       <c r="G91">
-        <v>1420</v>
+        <v>131</v>
       </c>
       <c r="H91">
-        <v>1210</v>
+        <v>124</v>
       </c>
       <c r="I91" s="4">
         <v>44167</v>
@@ -49487,10 +49493,10 @@
         <v>0.95528114134995801</v>
       </c>
       <c r="G92">
-        <v>1310</v>
+        <v>138</v>
       </c>
       <c r="H92">
-        <v>1240</v>
+        <v>122</v>
       </c>
       <c r="I92" s="4">
         <v>44168</v>
@@ -49523,10 +49529,10 @@
         <v>0.97844072999352505</v>
       </c>
       <c r="G93">
-        <v>1380</v>
+        <v>137</v>
       </c>
       <c r="H93">
-        <v>1220</v>
+        <v>126</v>
       </c>
       <c r="I93" s="4">
         <v>44169</v>
@@ -49559,10 +49565,10 @@
         <v>0.97781508574169562</v>
       </c>
       <c r="G94">
-        <v>1370</v>
+        <v>140</v>
       </c>
       <c r="H94">
-        <v>1260</v>
+        <v>122</v>
       </c>
       <c r="I94" s="4">
         <v>44170</v>
@@ -49595,10 +49601,10 @@
         <v>0.96507220649618575</v>
       </c>
       <c r="G95">
-        <v>1400</v>
+        <v>136</v>
       </c>
       <c r="H95">
-        <v>1220</v>
+        <v>124</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95">
@@ -49629,10 +49635,10 @@
         <v>0.96667386453609727</v>
       </c>
       <c r="G96">
-        <v>1360</v>
+        <v>135</v>
       </c>
       <c r="H96">
-        <v>1240</v>
+        <v>123</v>
       </c>
       <c r="I96" s="4">
         <v>44172</v>
@@ -49665,10 +49671,10 @@
         <v>0.97038921149877622</v>
       </c>
       <c r="G97">
-        <v>1350</v>
+        <v>139</v>
       </c>
       <c r="H97">
-        <v>1230</v>
+        <v>121</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97">
@@ -49699,10 +49705,10 @@
         <v>0.98303213574291404</v>
       </c>
       <c r="G98">
-        <v>1390</v>
+        <v>140</v>
       </c>
       <c r="H98">
-        <v>1210</v>
+        <v>122</v>
       </c>
       <c r="I98" s="4">
         <v>44174</v>
@@ -49735,10 +49741,10 @@
         <v>0.96704509996879728</v>
       </c>
       <c r="G99">
-        <v>1400</v>
+        <v>135</v>
       </c>
       <c r="H99">
-        <v>1220</v>
+        <v>124</v>
       </c>
       <c r="I99" s="4">
         <v>44175</v>
@@ -49771,10 +49777,10 @@
         <v>0.98089110812367963</v>
       </c>
       <c r="G100">
-        <v>1350</v>
+        <v>140</v>
       </c>
       <c r="H100">
-        <v>1240</v>
+        <v>123</v>
       </c>
       <c r="I100" s="4">
         <v>44176</v>
@@ -49807,10 +49813,10 @@
         <v>0.97954479976951891</v>
       </c>
       <c r="G101">
-        <v>1400</v>
+        <v>137</v>
       </c>
       <c r="H101">
-        <v>1230</v>
+        <v>121</v>
       </c>
       <c r="I101" s="4">
         <v>44177</v>
@@ -49843,10 +49849,10 @@
         <v>0.97538720134469925</v>
       </c>
       <c r="G102">
-        <v>1370</v>
+        <v>144</v>
       </c>
       <c r="H102">
-        <v>1210</v>
+        <v>122</v>
       </c>
       <c r="I102" s="4"/>
       <c r="J102">
@@ -49877,10 +49883,10 @@
         <v>0.97620134002545567</v>
       </c>
       <c r="G103">
-        <v>1440</v>
+        <v>141</v>
       </c>
       <c r="H103">
-        <v>1220</v>
+        <v>123</v>
       </c>
       <c r="I103" s="4">
         <v>44179</v>
@@ -49913,10 +49919,10 @@
         <v>0.97273928185420921</v>
       </c>
       <c r="G104">
-        <v>1410</v>
+        <v>135</v>
       </c>
       <c r="H104">
-        <v>1230</v>
+        <v>124</v>
       </c>
       <c r="I104" s="4">
         <v>44180</v>
@@ -49949,10 +49955,10 @@
         <v>0.98585120949338201</v>
       </c>
       <c r="G105">
-        <v>1350</v>
+        <v>140</v>
       </c>
       <c r="H105">
-        <v>1240</v>
+        <v>126</v>
       </c>
       <c r="I105" s="4">
         <v>44181</v>
@@ -49985,10 +49991,10 @@
         <v>0.97657657657657659</v>
       </c>
       <c r="G106">
-        <v>1400</v>
+        <v>139</v>
       </c>
       <c r="H106">
-        <v>1260</v>
+        <v>122</v>
       </c>
       <c r="I106" s="4">
         <v>44182</v>
@@ -50021,10 +50027,10 @@
         <v>0.98320478627549912</v>
       </c>
       <c r="G107">
-        <v>1390</v>
+        <v>140</v>
       </c>
       <c r="H107">
-        <v>1220</v>
+        <v>124</v>
       </c>
       <c r="I107" s="4">
         <v>44183</v>
@@ -50057,10 +50063,10 @@
         <v>0.98043927524390828</v>
       </c>
       <c r="G108">
-        <v>1400</v>
+        <v>135</v>
       </c>
       <c r="H108">
-        <v>1240</v>
+        <v>123</v>
       </c>
       <c r="I108" s="4">
         <v>44184</v>
@@ -50093,10 +50099,10 @@
         <v>0.97767309956980464</v>
       </c>
       <c r="G109">
-        <v>1350</v>
+        <v>140</v>
       </c>
       <c r="H109">
-        <v>1230</v>
+        <v>124</v>
       </c>
       <c r="I109" s="4"/>
       <c r="J109">
@@ -50127,10 +50133,10 @@
         <v>0.97704602812162</v>
       </c>
       <c r="G110">
-        <v>1400</v>
+        <v>135</v>
       </c>
       <c r="H110">
-        <v>1240</v>
+        <v>126</v>
       </c>
       <c r="I110" s="4">
         <v>44186</v>
@@ -50163,10 +50169,10 @@
         <v>0.97937400836578681</v>
       </c>
       <c r="G111">
-        <v>1350</v>
+        <v>137</v>
       </c>
       <c r="H111">
-        <v>1260</v>
+        <v>116</v>
       </c>
       <c r="I111" s="4">
         <v>44187</v>
@@ -50199,10 +50205,10 @@
         <v>0.97730441890657305</v>
       </c>
       <c r="G112">
-        <v>1370</v>
+        <v>145</v>
       </c>
       <c r="H112">
-        <v>1160</v>
+        <v>124</v>
       </c>
       <c r="I112" s="4">
         <v>44188</v>
@@ -50235,10 +50241,10 @@
         <v>0.97746892057614154</v>
       </c>
       <c r="G113">
-        <v>1450</v>
+        <v>150</v>
       </c>
       <c r="H113">
-        <v>1240</v>
+        <v>122</v>
       </c>
       <c r="I113" s="4">
         <v>44189</v>
@@ -50271,10 +50277,10 @@
         <v>0.98268398268398272</v>
       </c>
       <c r="G114">
-        <v>1500</v>
+        <v>139</v>
       </c>
       <c r="H114">
-        <v>1220</v>
+        <v>116</v>
       </c>
       <c r="I114" s="4"/>
       <c r="J114">
@@ -50305,10 +50311,10 @@
         <v>0.9647856833597922</v>
       </c>
       <c r="G115">
-        <v>1390</v>
+        <v>140</v>
       </c>
       <c r="H115">
-        <v>1160</v>
+        <v>119</v>
       </c>
       <c r="I115" s="4"/>
       <c r="J115">
@@ -50339,10 +50345,10 @@
         <v>0.98590193908482893</v>
       </c>
       <c r="G116">
-        <v>1400</v>
+        <v>135</v>
       </c>
       <c r="H116">
-        <v>1190</v>
+        <v>120</v>
       </c>
       <c r="I116" s="4">
         <v>44192</v>
@@ -50375,10 +50381,10 @@
         <v>0.97663675080002887</v>
       </c>
       <c r="G117">
-        <v>1350</v>
+        <v>138</v>
       </c>
       <c r="H117">
-        <v>1200</v>
+        <v>122</v>
       </c>
       <c r="I117" s="4">
         <v>44193</v>
@@ -50411,10 +50417,10 @@
         <v>0.97826871706014007</v>
       </c>
       <c r="G118">
-        <v>1380</v>
+        <v>136</v>
       </c>
       <c r="H118">
-        <v>1220</v>
+        <v>123</v>
       </c>
       <c r="I118" s="4">
         <v>44194</v>
@@ -50447,10 +50453,10 @@
         <v>0.96685681276626467</v>
       </c>
       <c r="G119">
-        <v>1360</v>
+        <v>137</v>
       </c>
       <c r="H119">
-        <v>1230</v>
+        <v>125</v>
       </c>
       <c r="I119" s="4">
         <v>44195</v>
@@ -50483,10 +50489,10 @@
         <v>0.96913966588031386</v>
       </c>
       <c r="G120">
-        <v>1370</v>
+        <v>140</v>
       </c>
       <c r="H120">
-        <v>1250</v>
+        <v>124</v>
       </c>
       <c r="I120" s="4">
         <v>44196</v>
@@ -50519,10 +50525,10 @@
         <v>0.98013723365836047</v>
       </c>
       <c r="G121">
-        <v>1400</v>
+        <v>135</v>
       </c>
       <c r="H121">
-        <v>1240</v>
+        <v>120</v>
       </c>
       <c r="I121" s="4"/>
       <c r="J121">
@@ -50553,10 +50559,10 @@
         <v>0.96657676748218069</v>
       </c>
       <c r="G122">
-        <v>1350</v>
+        <v>140</v>
       </c>
       <c r="H122">
-        <v>1200</v>
+        <v>123</v>
       </c>
       <c r="I122" s="4">
         <v>44198</v>
@@ -50589,10 +50595,10 @@
         <v>0.97324245562486456</v>
       </c>
       <c r="G123">
-        <v>1400</v>
+        <v>135</v>
       </c>
       <c r="H123">
-        <v>1230</v>
+        <v>129</v>
       </c>
       <c r="I123" s="4"/>
       <c r="J123">
@@ -50623,10 +50629,10 @@
         <v>0.96249729026663777</v>
       </c>
       <c r="G124">
-        <v>1350</v>
+        <v>136</v>
       </c>
       <c r="H124">
-        <v>1290</v>
+        <v>131</v>
       </c>
       <c r="I124" s="4">
         <v>44200</v>
@@ -50659,10 +50665,10 @@
         <v>0.97198467949798861</v>
       </c>
       <c r="G125">
-        <v>1360</v>
+        <v>139</v>
       </c>
       <c r="H125">
-        <v>1310</v>
+        <v>129</v>
       </c>
       <c r="I125" s="4">
         <v>44201</v>
@@ -50695,10 +50701,10 @@
         <v>0.95191056714691846</v>
       </c>
       <c r="G126">
-        <v>1390</v>
+        <v>135</v>
       </c>
       <c r="H126">
-        <v>1290</v>
+        <v>124</v>
       </c>
       <c r="I126" s="4"/>
       <c r="J126">
@@ -50729,10 +50735,10 @@
         <v>0.97079658811623537</v>
       </c>
       <c r="G127">
-        <v>1350</v>
+        <v>140</v>
       </c>
       <c r="H127">
-        <v>1240</v>
+        <v>125</v>
       </c>
       <c r="I127" s="4">
         <v>44203</v>
@@ -50765,10 +50771,10 @@
         <v>0.96090812686782989</v>
       </c>
       <c r="G128">
-        <v>1400</v>
+        <v>138</v>
       </c>
       <c r="H128">
-        <v>1250</v>
+        <v>125</v>
       </c>
       <c r="I128" s="4">
         <v>44204</v>
@@ -50801,10 +50807,10 @@
         <v>0.97121781891813708</v>
       </c>
       <c r="G129">
-        <v>1380</v>
+        <v>133</v>
       </c>
       <c r="H129">
-        <v>1250</v>
+        <v>119</v>
       </c>
       <c r="I129" s="4">
         <v>44205</v>
@@ -50837,10 +50843,10 @@
         <v>0.967741935483871</v>
       </c>
       <c r="G130">
-        <v>1330</v>
+        <v>137</v>
       </c>
       <c r="H130">
-        <v>1190</v>
+        <v>123</v>
       </c>
       <c r="I130" s="4"/>
       <c r="J130">
@@ -50871,10 +50877,10 @@
         <v>0.97434537300477408</v>
       </c>
       <c r="G131">
-        <v>1370</v>
+        <v>135</v>
       </c>
       <c r="H131">
-        <v>1230</v>
+        <v>123</v>
       </c>
       <c r="I131" s="4">
         <v>44207</v>
@@ -50907,10 +50913,10 @@
         <v>0.96151063521921576</v>
       </c>
       <c r="G132">
-        <v>1350</v>
+        <v>137</v>
       </c>
       <c r="H132">
-        <v>1230</v>
+        <v>121</v>
       </c>
       <c r="I132" s="4">
         <v>44208</v>
@@ -50943,10 +50949,10 @@
         <v>0.96960926193921848</v>
       </c>
       <c r="G133">
-        <v>1370</v>
+        <v>140</v>
       </c>
       <c r="H133">
-        <v>1210</v>
+        <v>118</v>
       </c>
       <c r="I133" s="4">
         <v>44209</v>
@@ -50979,10 +50985,10 @@
         <v>0.97259745272095721</v>
       </c>
       <c r="G134">
-        <v>1400</v>
+        <v>131</v>
       </c>
       <c r="H134">
-        <v>1180</v>
+        <v>119</v>
       </c>
       <c r="I134" s="4">
         <v>44210</v>
@@ -51015,10 +51021,10 @@
         <v>0.96762520505645089</v>
       </c>
       <c r="G135">
-        <v>1310</v>
+        <v>137</v>
       </c>
       <c r="H135">
-        <v>1190</v>
+        <v>126</v>
       </c>
       <c r="I135" s="4">
         <v>44211</v>
@@ -51051,10 +51057,10 @@
         <v>0.96559378468368484</v>
       </c>
       <c r="G136">
-        <v>1370</v>
+        <v>145</v>
       </c>
       <c r="H136">
-        <v>1260</v>
+        <v>126</v>
       </c>
       <c r="I136" s="4">
         <v>44212</v>
@@ -51087,10 +51093,10 @@
         <v>0.96213711720842687</v>
       </c>
       <c r="G137">
-        <v>1450</v>
+        <v>136</v>
       </c>
       <c r="H137">
-        <v>1260</v>
+        <v>127</v>
       </c>
       <c r="I137" s="4"/>
       <c r="J137">
@@ -51121,10 +51127,10 @@
         <v>0.97164233136237477</v>
       </c>
       <c r="G138">
-        <v>1360</v>
+        <v>140</v>
       </c>
       <c r="H138">
-        <v>1270</v>
+        <v>126</v>
       </c>
       <c r="I138" s="4">
         <v>44214</v>
@@ -51157,10 +51163,10 @@
         <v>0.9645184648805214</v>
       </c>
       <c r="G139">
-        <v>1400</v>
+        <v>135</v>
       </c>
       <c r="H139">
-        <v>1260</v>
+        <v>123</v>
       </c>
       <c r="I139" s="4">
         <v>44215</v>
@@ -51193,10 +51199,10 @@
         <v>0.96977451595770359</v>
       </c>
       <c r="G140">
-        <v>1350</v>
+        <v>144</v>
       </c>
       <c r="H140">
-        <v>1230</v>
+        <v>123</v>
       </c>
       <c r="I140" s="4">
         <v>44216</v>
@@ -51229,10 +51235,10 @@
         <v>0.96269467584208623</v>
       </c>
       <c r="G141">
-        <v>1440</v>
+        <v>137</v>
       </c>
       <c r="H141">
-        <v>1230</v>
+        <v>123</v>
       </c>
       <c r="I141" s="4">
         <v>44217</v>
@@ -51265,10 +51271,10 @@
         <v>0.96430641421947449</v>
       </c>
       <c r="G142">
-        <v>1370</v>
+        <v>137</v>
       </c>
       <c r="H142">
-        <v>1230</v>
+        <v>124</v>
       </c>
       <c r="I142" s="4">
         <v>44218</v>
@@ -51301,10 +51307,10 @@
         <v>0.96947154864264318</v>
       </c>
       <c r="G143">
-        <v>1370</v>
+        <v>140</v>
       </c>
       <c r="H143">
-        <v>1240</v>
+        <v>124</v>
       </c>
       <c r="I143" s="4">
         <v>44219</v>
@@ -51337,10 +51343,10 @@
         <v>0.96386124263213835</v>
       </c>
       <c r="G144">
-        <v>1400</v>
+        <v>138</v>
       </c>
       <c r="H144">
-        <v>1240</v>
+        <v>118</v>
       </c>
       <c r="I144" s="4"/>
       <c r="J144">
@@ -51371,10 +51377,10 @@
         <v>0.96257459711517557</v>
       </c>
       <c r="G145">
-        <v>1380</v>
+        <v>139</v>
       </c>
       <c r="H145">
-        <v>1180</v>
+        <v>128</v>
       </c>
       <c r="I145" s="4">
         <v>44221</v>
@@ -51407,10 +51413,10 @@
         <v>0.96919173613628129</v>
       </c>
       <c r="G146">
-        <v>1390</v>
+        <v>144</v>
       </c>
       <c r="H146">
-        <v>1280</v>
+        <v>121</v>
       </c>
       <c r="I146" s="4">
         <v>44222</v>
@@ -51443,10 +51449,10 @@
         <v>0.95703030595968874</v>
       </c>
       <c r="G147">
-        <v>1440</v>
+        <v>140</v>
       </c>
       <c r="H147">
-        <v>1210</v>
+        <v>122</v>
       </c>
       <c r="I147" s="4">
         <v>44223</v>
@@ -51479,10 +51485,10 @@
         <v>0.95784792381688988</v>
       </c>
       <c r="G148">
-        <v>1400</v>
+        <v>141</v>
       </c>
       <c r="H148">
-        <v>1220</v>
+        <v>127</v>
       </c>
       <c r="I148" s="4">
         <v>44224</v>
@@ -51515,10 +51521,10 @@
         <v>0.96163608673580392</v>
       </c>
       <c r="G149">
-        <v>1410</v>
+        <v>144</v>
       </c>
       <c r="H149">
-        <v>1270</v>
+        <v>126</v>
       </c>
       <c r="I149" s="4">
         <v>44225</v>
@@ -51551,10 +51557,10 @@
         <v>0.96980101066273361</v>
       </c>
       <c r="G150">
-        <v>1440</v>
+        <v>139</v>
       </c>
       <c r="H150">
-        <v>1260</v>
+        <v>125</v>
       </c>
       <c r="I150" s="4">
         <v>44226</v>
@@ -51587,10 +51593,10 @@
         <v>0.95545560069645963</v>
       </c>
       <c r="G151">
-        <v>1390</v>
+        <v>140</v>
       </c>
       <c r="H151">
-        <v>1250</v>
+        <v>118</v>
       </c>
       <c r="I151" s="4"/>
       <c r="J151">
@@ -51621,10 +51627,10 @@
         <v>0.96142217922360629</v>
       </c>
       <c r="G152">
-        <v>1400</v>
+        <v>145</v>
       </c>
       <c r="H152">
-        <v>1180</v>
+        <v>123</v>
       </c>
       <c r="I152" s="4">
         <v>44228</v>
@@ -51657,10 +51663,10 @@
         <v>0.96952104499274305</v>
       </c>
       <c r="G153">
-        <v>1450</v>
+        <v>150</v>
       </c>
       <c r="H153">
-        <v>1230</v>
+        <v>121</v>
       </c>
       <c r="I153" s="4">
         <v>44229</v>
@@ -51693,10 +51699,10 @@
         <v>0.96387874095758841</v>
       </c>
       <c r="G154">
-        <v>1500</v>
+        <v>140</v>
       </c>
       <c r="H154">
-        <v>1210</v>
+        <v>117</v>
       </c>
       <c r="I154" s="4">
         <v>44230</v>
@@ -51729,10 +51735,10 @@
         <v>0.95743908635582764</v>
       </c>
       <c r="G155">
-        <v>1400</v>
+        <v>160</v>
       </c>
       <c r="H155">
-        <v>1170</v>
+        <v>123</v>
       </c>
       <c r="I155" s="4">
         <v>44231</v>
@@ -51765,10 +51771,10 @@
         <v>0.96701594753527087</v>
       </c>
       <c r="G156">
-        <v>1600</v>
+        <v>155</v>
       </c>
       <c r="H156">
-        <v>1230</v>
+        <v>124</v>
       </c>
       <c r="I156" s="4">
         <v>44232</v>
@@ -51801,10 +51807,10 @@
         <v>0.95776352414377341</v>
       </c>
       <c r="G157">
-        <v>1550</v>
+        <v>138</v>
       </c>
       <c r="H157">
-        <v>1240</v>
+        <v>111</v>
       </c>
       <c r="I157" s="4">
         <v>44233</v>
@@ -51837,10 +51843,10 @@
         <v>0.96373583809431584</v>
       </c>
       <c r="G158">
-        <v>1380</v>
+        <v>135</v>
       </c>
       <c r="H158">
-        <v>1110</v>
+        <v>105</v>
       </c>
       <c r="I158" s="4"/>
       <c r="J158">
@@ -51871,10 +51877,10 @@
         <v>0.79532248692620566</v>
       </c>
       <c r="G159">
-        <v>1350</v>
+        <v>145</v>
       </c>
       <c r="H159">
-        <v>1050</v>
+        <v>120</v>
       </c>
       <c r="I159" s="4">
         <v>44235</v>
@@ -51907,10 +51913,10 @@
         <v>1.1266616625099881</v>
       </c>
       <c r="G160">
-        <v>1450</v>
+        <v>140</v>
       </c>
       <c r="H160">
-        <v>1200</v>
+        <v>118</v>
       </c>
       <c r="I160" s="4">
         <v>44236</v>
@@ -51943,10 +51949,10 @@
         <v>0.97425713801370695</v>
       </c>
       <c r="G161">
-        <v>1400</v>
+        <v>160</v>
       </c>
       <c r="H161">
-        <v>1180</v>
+        <v>124</v>
       </c>
       <c r="I161" s="4">
         <v>44237</v>
@@ -51979,10 +51985,10 @@
         <v>0.9612729782750854</v>
       </c>
       <c r="G162">
-        <v>1600</v>
+        <v>165</v>
       </c>
       <c r="H162">
-        <v>1240</v>
+        <v>115</v>
       </c>
       <c r="I162" s="4">
         <v>44238</v>
@@ -52015,10 +52021,10 @@
         <v>0.97744725176231195</v>
       </c>
       <c r="G163">
-        <v>1650</v>
+        <v>170</v>
       </c>
       <c r="H163">
-        <v>1150</v>
+        <v>122</v>
       </c>
       <c r="I163" s="4">
         <v>44239</v>
@@ -52051,10 +52057,10 @@
         <v>0.9644829925380366</v>
       </c>
       <c r="G164">
-        <v>1700</v>
+        <v>170</v>
       </c>
       <c r="H164">
-        <v>1220</v>
+        <v>123</v>
       </c>
       <c r="I164" s="4">
         <v>44240</v>
@@ -52087,10 +52093,10 @@
         <v>0.95301558070222203</v>
       </c>
       <c r="G165">
-        <v>1700</v>
+        <v>165</v>
       </c>
       <c r="H165">
-        <v>1230</v>
+        <v>126</v>
       </c>
       <c r="I165" s="4"/>
       <c r="J165">
@@ -52121,10 +52127,10 @@
         <v>0.94954195143231057</v>
       </c>
       <c r="G166">
-        <v>1650</v>
+        <v>160</v>
       </c>
       <c r="H166">
-        <v>1260</v>
+        <v>112</v>
       </c>
       <c r="I166" s="4">
         <v>44242</v>
@@ -52157,10 +52163,10 @@
         <v>0.96351957338504424</v>
       </c>
       <c r="G167">
-        <v>1600</v>
+        <v>170</v>
       </c>
       <c r="H167">
-        <v>1120</v>
+        <v>123</v>
       </c>
       <c r="I167" s="4">
         <v>44243</v>
@@ -52193,10 +52199,10 @@
         <v>0.95272727272727276</v>
       </c>
       <c r="G168">
-        <v>1700</v>
+        <v>155</v>
       </c>
       <c r="H168">
-        <v>1230</v>
+        <v>118</v>
       </c>
       <c r="I168" s="4">
         <v>44244</v>
@@ -52229,10 +52235,10 @@
         <v>0.94481889152887555</v>
       </c>
       <c r="G169">
-        <v>1550</v>
+        <v>180</v>
       </c>
       <c r="H169">
-        <v>1180</v>
+        <v>131</v>
       </c>
       <c r="I169" s="4">
         <v>44245</v>
@@ -52265,10 +52271,10 @@
         <v>0.9362496665777541</v>
       </c>
       <c r="G170">
-        <v>1800</v>
+        <v>165</v>
       </c>
       <c r="H170">
-        <v>1310</v>
+        <v>112</v>
       </c>
       <c r="I170" s="4">
         <v>44246</v>
@@ -52301,10 +52307,10 @@
         <v>0.9494822108505323</v>
       </c>
       <c r="G171">
-        <v>1650</v>
+        <v>170</v>
       </c>
       <c r="H171">
-        <v>1120</v>
+        <v>122</v>
       </c>
       <c r="I171" s="4">
         <v>44247</v>
@@ -52337,10 +52343,10 @@
         <v>0.95539547405952119</v>
       </c>
       <c r="G172">
-        <v>1700</v>
+        <v>160</v>
       </c>
       <c r="H172">
-        <v>1220</v>
+        <v>122</v>
       </c>
       <c r="I172" s="4"/>
       <c r="J172">
@@ -52371,10 +52377,10 @@
         <v>0.94243504839531334</v>
       </c>
       <c r="G173">
-        <v>1600</v>
+        <v>180</v>
       </c>
       <c r="H173">
-        <v>1220</v>
+        <v>139</v>
       </c>
       <c r="I173" s="4">
         <v>44249</v>
@@ -52407,10 +52413,10 @@
         <v>0.95208055319665175</v>
       </c>
       <c r="G174">
-        <v>1800</v>
+        <v>140</v>
       </c>
       <c r="H174">
-        <v>1390</v>
+        <v>98</v>
       </c>
       <c r="I174" s="4">
         <v>44250</v>
@@ -52443,10 +52449,10 @@
         <v>0.96043689320388348</v>
       </c>
       <c r="G175">
-        <v>1400</v>
+        <v>150</v>
       </c>
       <c r="H175">
-        <v>980</v>
+        <v>111</v>
       </c>
       <c r="I175" s="4">
         <v>44251</v>
@@ -52479,10 +52485,10 @@
         <v>0.96351321826523928</v>
       </c>
       <c r="G176">
-        <v>1500</v>
+        <v>160</v>
       </c>
       <c r="H176">
-        <v>1110</v>
+        <v>105</v>
       </c>
       <c r="I176" s="4">
         <v>44252</v>
@@ -52515,10 +52521,10 @@
         <v>0.95413824079244458</v>
       </c>
       <c r="G177">
-        <v>1600</v>
+        <v>165</v>
       </c>
       <c r="H177">
-        <v>1050</v>
+        <v>122</v>
       </c>
       <c r="I177" s="4">
         <v>44253</v>
@@ -52551,10 +52557,10 @@
         <v>0.96379398266190719</v>
       </c>
       <c r="G178">
-        <v>1650</v>
+        <v>148</v>
       </c>
       <c r="H178">
-        <v>1220</v>
+        <v>125</v>
       </c>
       <c r="I178" s="4">
         <v>44254</v>
@@ -52587,10 +52593,10 @@
         <v>0.96398124984820144</v>
       </c>
       <c r="G179">
-        <v>1480</v>
+        <v>170</v>
       </c>
       <c r="H179">
-        <v>1250</v>
+        <v>127</v>
       </c>
       <c r="I179" s="4"/>
       <c r="J179">
@@ -52621,10 +52627,10 @@
         <v>0.95685760093280858</v>
       </c>
       <c r="G180">
-        <v>1700</v>
+        <v>180</v>
       </c>
       <c r="H180">
-        <v>1270</v>
+        <v>121</v>
       </c>
       <c r="I180" s="4">
         <v>44256</v>
@@ -52657,10 +52663,10 @@
         <v>0.95918367346938771</v>
       </c>
       <c r="G181">
-        <v>1800</v>
+        <v>190</v>
       </c>
       <c r="H181">
-        <v>1210</v>
+        <v>126</v>
       </c>
       <c r="I181" s="4">
         <v>44257</v>
@@ -52693,10 +52699,10 @@
         <v>0.96590771025198652</v>
       </c>
       <c r="G182">
-        <v>1900</v>
+        <v>165</v>
       </c>
       <c r="H182">
-        <v>1260</v>
+        <v>122</v>
       </c>
       <c r="I182" s="4">
         <v>44258</v>
@@ -52729,10 +52735,10 @@
         <v>0.9325329315121762</v>
       </c>
       <c r="G183">
-        <v>1650</v>
+        <v>150</v>
       </c>
       <c r="H183">
-        <v>1220</v>
+        <v>116</v>
       </c>
       <c r="I183" s="4">
         <v>44259</v>
@@ -52765,10 +52771,10 @@
         <v>0.97136467499635371</v>
       </c>
       <c r="G184">
-        <v>1500</v>
+        <v>148</v>
       </c>
       <c r="H184">
-        <v>1160</v>
+        <v>120</v>
       </c>
       <c r="I184" s="4">
         <v>44260</v>
@@ -52801,10 +52807,10 @@
         <v>0.94962559564329474</v>
       </c>
       <c r="G185">
-        <v>1480</v>
+        <v>170</v>
       </c>
       <c r="H185">
-        <v>1200</v>
+        <v>122</v>
       </c>
       <c r="I185" s="4">
         <v>44261</v>
@@ -52837,10 +52843,10 @@
         <v>0.95126933177706452</v>
       </c>
       <c r="G186">
-        <v>1700</v>
+        <v>160</v>
       </c>
       <c r="H186">
-        <v>1220</v>
+        <v>121</v>
       </c>
       <c r="I186" s="4"/>
       <c r="J186">
@@ -52871,10 +52877,10 @@
         <v>0.94272163443998536</v>
       </c>
       <c r="G187">
-        <v>1600</v>
+        <v>155</v>
       </c>
       <c r="H187">
-        <v>1210</v>
+        <v>122</v>
       </c>
       <c r="I187" s="4">
         <v>44263</v>
@@ -52907,10 +52913,10 @@
         <v>0.95747786318964678</v>
       </c>
       <c r="G188">
-        <v>1550</v>
+        <v>145</v>
       </c>
       <c r="H188">
-        <v>1220</v>
+        <v>124</v>
       </c>
       <c r="I188" s="4">
         <v>44264</v>
@@ -52943,10 +52949,10 @@
         <v>0.96129047955037594</v>
       </c>
       <c r="G189">
-        <v>1450</v>
+        <v>150</v>
       </c>
       <c r="H189">
-        <v>1240</v>
+        <v>118</v>
       </c>
       <c r="I189" s="4">
         <v>44265</v>
@@ -52979,10 +52985,10 @@
         <v>0.93880034067404794</v>
       </c>
       <c r="G190">
-        <v>1500</v>
+        <v>180</v>
       </c>
       <c r="H190">
-        <v>1180</v>
+        <v>125</v>
       </c>
       <c r="I190" s="4">
         <v>44266</v>
@@ -53015,10 +53021,10 @@
         <v>0.93095139581862874</v>
       </c>
       <c r="G191">
-        <v>1800</v>
+        <v>175</v>
       </c>
       <c r="H191">
-        <v>1250</v>
+        <v>126</v>
       </c>
       <c r="I191" s="4">
         <v>44267</v>
@@ -53051,10 +53057,10 @@
         <v>0.9545255367836798</v>
       </c>
       <c r="G192">
-        <v>1750</v>
+        <v>160</v>
       </c>
       <c r="H192">
-        <v>1260</v>
+        <v>127</v>
       </c>
       <c r="I192" s="4">
         <v>44268</v>
@@ -53087,10 +53093,10 @@
         <v>0.92254875703050809</v>
       </c>
       <c r="G193">
-        <v>1600</v>
+        <v>165</v>
       </c>
       <c r="H193">
-        <v>1270</v>
+        <v>125</v>
       </c>
       <c r="I193" s="4"/>
       <c r="J193">
@@ -53121,10 +53127,10 @@
         <v>0.93590180702352543</v>
       </c>
       <c r="G194">
-        <v>1650</v>
+        <v>170</v>
       </c>
       <c r="H194">
-        <v>1250</v>
+        <v>125</v>
       </c>
       <c r="I194" s="4">
         <v>44270</v>
@@ -53157,10 +53163,10 @@
         <v>0.93900716129975159</v>
       </c>
       <c r="G195">
-        <v>1700</v>
+        <v>160</v>
       </c>
       <c r="H195">
-        <v>1250</v>
+        <v>122</v>
       </c>
       <c r="I195" s="4">
         <v>44271</v>
@@ -53193,10 +53199,10 @@
         <v>0.93551294857115019</v>
       </c>
       <c r="G196">
-        <v>1600</v>
+        <v>155</v>
       </c>
       <c r="H196">
-        <v>1220</v>
+        <v>123</v>
       </c>
       <c r="I196" s="4">
         <v>44272</v>
@@ -53229,10 +53235,10 @@
         <v>0.92616959064327486</v>
       </c>
       <c r="G197">
-        <v>1550</v>
+        <v>160</v>
       </c>
       <c r="H197">
-        <v>1230</v>
+        <v>123</v>
       </c>
       <c r="I197" s="4">
         <v>44273</v>
@@ -53265,10 +53271,10 @@
         <v>0.93948772938854097</v>
       </c>
       <c r="G198">
-        <v>1600</v>
+        <v>165</v>
       </c>
       <c r="H198">
-        <v>1230</v>
+        <v>122</v>
       </c>
       <c r="I198" s="4">
         <v>44274</v>
@@ -53301,10 +53307,10 @@
         <v>0.93089579524680077</v>
       </c>
       <c r="G199">
-        <v>1650</v>
+        <v>170</v>
       </c>
       <c r="H199">
-        <v>1220</v>
+        <v>120</v>
       </c>
       <c r="I199" s="4">
         <v>44275</v>
@@ -53337,10 +53343,10 @@
         <v>0.92079280333503988</v>
       </c>
       <c r="G200">
-        <v>1700</v>
+        <v>195</v>
       </c>
       <c r="H200">
-        <v>1200</v>
+        <v>118</v>
       </c>
       <c r="I200" s="4"/>
       <c r="J200">
@@ -53371,10 +53377,10 @@
         <v>0.92527124222845303</v>
       </c>
       <c r="G201">
-        <v>1950</v>
+        <v>170</v>
       </c>
       <c r="H201">
-        <v>1180</v>
+        <v>122</v>
       </c>
       <c r="I201" s="4">
         <v>44277</v>
@@ -53407,10 +53413,10 @@
         <v>0.92250292625829111</v>
       </c>
       <c r="G202">
-        <v>1700</v>
+        <v>190</v>
       </c>
       <c r="H202">
-        <v>1220</v>
+        <v>128</v>
       </c>
       <c r="I202" s="4">
         <v>44278</v>
@@ -53443,10 +53449,10 @@
         <v>0.91166284571484313</v>
       </c>
       <c r="G203">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="H203">
-        <v>1280</v>
+        <v>117</v>
       </c>
       <c r="I203" s="4">
         <v>44279</v>
@@ -53479,10 +53485,10 @@
         <v>0.91549982924330386</v>
       </c>
       <c r="G204">
-        <v>1800</v>
+        <v>185</v>
       </c>
       <c r="H204">
-        <v>1170</v>
+        <v>124</v>
       </c>
       <c r="I204" s="4">
         <v>44280</v>
@@ -53515,10 +53521,10 @@
         <v>0.90396720831503441</v>
       </c>
       <c r="G205">
-        <v>1850</v>
+        <v>178</v>
       </c>
       <c r="H205">
-        <v>1240</v>
+        <v>125</v>
       </c>
       <c r="I205" s="4">
         <v>44281</v>
@@ -53551,10 +53557,10 @@
         <v>0.91951779003367662</v>
       </c>
       <c r="G206">
-        <v>1780</v>
+        <v>185</v>
       </c>
       <c r="H206">
-        <v>1250</v>
+        <v>124</v>
       </c>
       <c r="I206" s="4">
         <v>44282</v>
@@ -53587,10 +53593,10 @@
         <v>0.90352183144997922</v>
       </c>
       <c r="G207">
-        <v>1850</v>
+        <v>200</v>
       </c>
       <c r="H207">
-        <v>1240</v>
+        <v>131</v>
       </c>
       <c r="I207" s="4"/>
       <c r="J207">
@@ -53621,10 +53627,10 @@
         <v>0.89045108377270066</v>
       </c>
       <c r="G208">
-        <v>2000</v>
+        <v>205</v>
       </c>
       <c r="H208">
-        <v>1310</v>
+        <v>123</v>
       </c>
       <c r="I208" s="4">
         <v>44284</v>
@@ -53657,10 +53663,10 @@
         <v>0.93161788042284122</v>
       </c>
       <c r="G209">
-        <v>2050</v>
+        <v>190</v>
       </c>
       <c r="H209">
-        <v>1230</v>
+        <v>123</v>
       </c>
       <c r="I209" s="4">
         <v>44285</v>
@@ -53693,10 +53699,10 @@
         <v>0.93614943230374803</v>
       </c>
       <c r="G210">
-        <v>1900</v>
+        <v>195</v>
       </c>
       <c r="H210">
-        <v>1230</v>
+        <v>120</v>
       </c>
       <c r="I210" s="4">
         <v>44286</v>
@@ -53729,10 +53735,10 @@
         <v>0.92827313356289842</v>
       </c>
       <c r="G211">
-        <v>1950</v>
+        <v>193</v>
       </c>
       <c r="H211">
-        <v>1200</v>
+        <v>117</v>
       </c>
       <c r="I211" s="4">
         <v>44287</v>
@@ -53765,10 +53771,10 @@
         <v>0.9284772094386633</v>
       </c>
       <c r="G212">
-        <v>1930</v>
+        <v>196</v>
       </c>
       <c r="H212">
-        <v>1170</v>
+        <v>111</v>
       </c>
       <c r="I212" s="4">
         <v>44288</v>
@@ -53801,10 +53807,10 @@
         <v>0.92794839844608956</v>
       </c>
       <c r="G213">
-        <v>1960</v>
+        <v>200</v>
       </c>
       <c r="H213">
-        <v>1110</v>
+        <v>118</v>
       </c>
       <c r="I213" s="4">
         <v>44289</v>
@@ -53837,10 +53843,10 @@
         <v>0.93766036998118329</v>
       </c>
       <c r="G214">
-        <v>2000</v>
+        <v>192</v>
       </c>
       <c r="H214">
-        <v>1180</v>
+        <v>118</v>
       </c>
       <c r="I214" s="4"/>
       <c r="J214">
@@ -53871,10 +53877,10 @@
         <v>0.93564392735805246</v>
       </c>
       <c r="G215">
-        <v>1920</v>
+        <v>188</v>
       </c>
       <c r="H215">
-        <v>1180</v>
+        <v>113</v>
       </c>
       <c r="I215" s="4"/>
       <c r="J215">
@@ -53905,10 +53911,10 @@
         <v>0.92191472716604728</v>
       </c>
       <c r="G216">
-        <v>1880</v>
+        <v>190</v>
       </c>
       <c r="H216">
-        <v>1130</v>
+        <v>127</v>
       </c>
       <c r="I216" s="4">
         <v>44292</v>
@@ -53941,10 +53947,10 @@
         <v>0.95434872973567741</v>
       </c>
       <c r="G217">
-        <v>1900</v>
+        <v>198</v>
       </c>
       <c r="H217">
-        <v>1270</v>
+        <v>127</v>
       </c>
       <c r="I217" s="4">
         <v>44293</v>
@@ -53977,10 +53983,10 @@
         <v>0.9177834295216668</v>
       </c>
       <c r="G218">
-        <v>1980</v>
+        <v>200</v>
       </c>
       <c r="H218">
-        <v>1270</v>
+        <v>124</v>
       </c>
       <c r="I218" s="4">
         <v>44294</v>
@@ -54013,10 +54019,10 @@
         <v>0.92456706780158493</v>
       </c>
       <c r="G219">
-        <v>2000</v>
+        <v>195</v>
       </c>
       <c r="H219">
-        <v>1240</v>
+        <v>122</v>
       </c>
       <c r="I219" s="4">
         <v>44295</v>
@@ -54049,10 +54055,10 @@
         <v>0.90855717011595483</v>
       </c>
       <c r="G220">
-        <v>1950</v>
+        <v>198</v>
       </c>
       <c r="H220">
-        <v>1220</v>
+        <v>120</v>
       </c>
       <c r="I220" s="4">
         <v>44296</v>
@@ -54085,10 +54091,10 @@
         <v>0.89696851067994421</v>
       </c>
       <c r="G221">
-        <v>1980</v>
+        <v>205</v>
       </c>
       <c r="H221">
-        <v>1200</v>
+        <v>125</v>
       </c>
       <c r="I221" s="4"/>
       <c r="J221">
@@ -54119,10 +54125,10 @@
         <v>0.90515342827778589</v>
       </c>
       <c r="G222">
-        <v>2050</v>
+        <v>196</v>
       </c>
       <c r="H222">
-        <v>1250</v>
+        <v>124</v>
       </c>
       <c r="I222" s="4">
         <v>44298</v>
@@ -54155,10 +54161,10 @@
         <v>0.92811513326969675</v>
       </c>
       <c r="G223">
-        <v>1960</v>
+        <v>190</v>
       </c>
       <c r="H223">
-        <v>1240</v>
+        <v>127</v>
       </c>
       <c r="I223" s="4">
         <v>44299</v>
@@ -54191,10 +54197,10 @@
         <v>0.93196895884844178</v>
       </c>
       <c r="G224">
-        <v>1900</v>
+        <v>193</v>
       </c>
       <c r="H224">
-        <v>1270</v>
+        <v>126</v>
       </c>
       <c r="I224" s="4">
         <v>44300</v>
@@ -54227,10 +54233,10 @@
         <v>0.91009255178492732</v>
       </c>
       <c r="G225">
-        <v>1930</v>
+        <v>195</v>
       </c>
       <c r="H225">
-        <v>1260</v>
+        <v>129</v>
       </c>
       <c r="I225" s="4">
         <v>44301</v>
@@ -54263,10 +54269,10 @@
         <v>0.93013004187789283</v>
       </c>
       <c r="G226">
-        <v>1950</v>
+        <v>196</v>
       </c>
       <c r="H226">
-        <v>1290</v>
+        <v>127</v>
       </c>
       <c r="I226" s="4">
         <v>44302</v>
@@ -54299,10 +54305,10 @@
         <v>0.92737293325168402</v>
       </c>
       <c r="G227">
-        <v>1960</v>
+        <v>200</v>
       </c>
       <c r="H227">
-        <v>1270</v>
+        <v>127</v>
       </c>
       <c r="I227" s="4">
         <v>44303</v>
@@ -54335,10 +54341,10 @@
         <v>0.92606203145671029</v>
       </c>
       <c r="G228">
-        <v>2000</v>
+        <v>205</v>
       </c>
       <c r="H228">
-        <v>1270</v>
+        <v>130</v>
       </c>
       <c r="I228" s="4"/>
       <c r="J228">
@@ -54369,10 +54375,10 @@
         <v>0.90267568362246398</v>
       </c>
       <c r="G229">
-        <v>2050</v>
+        <v>202</v>
       </c>
       <c r="H229">
-        <v>1300</v>
+        <v>129</v>
       </c>
       <c r="I229" s="4">
         <v>44305</v>
@@ -54405,10 +54411,10 @@
         <v>0.93814331928242334</v>
       </c>
       <c r="G230">
-        <v>2020</v>
+        <v>190</v>
       </c>
       <c r="H230">
-        <v>1290</v>
+        <v>129</v>
       </c>
       <c r="I230" s="4">
         <v>44306</v>
@@ -54441,10 +54447,10 @@
         <v>0.92584875597499694</v>
       </c>
       <c r="G231">
-        <v>1900</v>
+        <v>198</v>
       </c>
       <c r="H231">
-        <v>1290</v>
+        <v>129</v>
       </c>
       <c r="I231" s="4">
         <v>44307</v>
@@ -54477,10 +54483,10 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="G232">
-        <v>1980</v>
+        <v>195</v>
       </c>
       <c r="H232">
-        <v>1290</v>
+        <v>123</v>
       </c>
       <c r="I232" s="4">
         <v>44308</v>
@@ -54513,10 +54519,10 @@
         <v>0.93501716527709666</v>
       </c>
       <c r="G233">
-        <v>1950</v>
+        <v>205</v>
       </c>
       <c r="H233">
-        <v>1230</v>
+        <v>127</v>
       </c>
       <c r="I233" s="4">
         <v>44309</v>
@@ -54549,10 +54555,10 @@
         <v>0.92708409977190787</v>
       </c>
       <c r="G234">
-        <v>2050</v>
+        <v>197</v>
       </c>
       <c r="H234">
-        <v>1270</v>
+        <v>125</v>
       </c>
       <c r="I234" s="4">
         <v>44310</v>
@@ -54585,10 +54591,10 @@
         <v>0.91404180158963788</v>
       </c>
       <c r="G235">
-        <v>1970</v>
+        <v>194</v>
       </c>
       <c r="H235">
-        <v>1250</v>
+        <v>128</v>
       </c>
       <c r="I235" s="4"/>
       <c r="J235">
@@ -54619,10 +54625,10 @@
         <v>0.92450376622420694</v>
       </c>
       <c r="G236">
-        <v>1940</v>
+        <v>196</v>
       </c>
       <c r="H236">
-        <v>1280</v>
+        <v>124</v>
       </c>
       <c r="I236" s="4">
         <v>44312</v>
@@ -54655,10 +54661,10 @@
         <v>0.93276073619631905</v>
       </c>
       <c r="G237">
-        <v>1960</v>
+        <v>198</v>
       </c>
       <c r="H237">
-        <v>1240</v>
+        <v>126</v>
       </c>
       <c r="I237" s="4">
         <v>44313</v>
@@ -54691,10 +54697,10 @@
         <v>0.92698490612345075</v>
       </c>
       <c r="G238">
-        <v>1980</v>
+        <v>205</v>
       </c>
       <c r="H238">
-        <v>1260</v>
+        <v>125</v>
       </c>
       <c r="I238" s="4">
         <v>44314</v>
@@ -54727,10 +54733,10 @@
         <v>0.93232196774431109</v>
       </c>
       <c r="G239">
-        <v>2050</v>
+        <v>197</v>
       </c>
       <c r="H239">
-        <v>1250</v>
+        <v>127</v>
       </c>
       <c r="I239" s="4">
         <v>44315</v>
@@ -54763,10 +54769,10 @@
         <v>0.93643349947212062</v>
       </c>
       <c r="G240">
-        <v>1970</v>
+        <v>202</v>
       </c>
       <c r="H240">
-        <v>1270</v>
+        <v>127</v>
       </c>
       <c r="I240" s="4">
         <v>44316</v>
@@ -54799,10 +54805,10 @@
         <v>0.93416173473146535</v>
       </c>
       <c r="G241">
-        <v>2020</v>
+        <v>200</v>
       </c>
       <c r="H241">
-        <v>1270</v>
+        <v>124</v>
       </c>
       <c r="I241" s="4"/>
       <c r="J241">
@@ -54833,10 +54839,10 @@
         <v>0.92108171837005381</v>
       </c>
       <c r="G242">
-        <v>2000</v>
+        <v>196</v>
       </c>
       <c r="H242">
-        <v>1240</v>
+        <v>122</v>
       </c>
       <c r="I242" s="4"/>
       <c r="J242">
@@ -54867,10 +54873,10 @@
         <v>0.9315351168103766</v>
       </c>
       <c r="G243">
-        <v>1960</v>
+        <v>199</v>
       </c>
       <c r="H243">
-        <v>1220</v>
+        <v>125</v>
       </c>
       <c r="I243" s="4">
         <v>44319</v>
@@ -54903,10 +54909,10 @@
         <v>0.93098110518685961</v>
       </c>
       <c r="G244">
-        <v>1990</v>
+        <v>198</v>
       </c>
       <c r="H244">
-        <v>1250</v>
+        <v>119</v>
       </c>
       <c r="I244" s="4">
         <v>44320</v>
@@ -54939,10 +54945,10 @@
         <v>0.93858290938582911</v>
       </c>
       <c r="G245">
-        <v>1980</v>
+        <v>197</v>
       </c>
       <c r="H245">
-        <v>1190</v>
+        <v>124</v>
       </c>
       <c r="I245" s="4">
         <v>44321</v>
@@ -54975,10 +54981,10 @@
         <v>0.9181190236228215</v>
       </c>
       <c r="G246">
-        <v>1970</v>
+        <v>205</v>
       </c>
       <c r="H246">
-        <v>1240</v>
+        <v>120</v>
       </c>
       <c r="I246" s="4">
         <v>44322</v>
@@ -55011,10 +55017,10 @@
         <v>0.93378900007375898</v>
       </c>
       <c r="G247">
-        <v>2050</v>
+        <v>202</v>
       </c>
       <c r="H247">
-        <v>1200</v>
+        <v>123</v>
       </c>
       <c r="I247" s="4">
         <v>44323</v>
@@ -55047,10 +55053,10 @@
         <v>0.92733308742161569</v>
       </c>
       <c r="G248">
-        <v>2020</v>
+        <v>200</v>
       </c>
       <c r="H248">
-        <v>1230</v>
+        <v>120</v>
       </c>
       <c r="I248" s="4">
         <v>44324</v>
@@ -55083,10 +55089,10 @@
         <v>0.92816212095128015</v>
       </c>
       <c r="G249">
-        <v>2000</v>
+        <v>190</v>
       </c>
       <c r="H249">
-        <v>1200</v>
+        <v>117</v>
       </c>
       <c r="I249" s="4"/>
       <c r="J249">
@@ -55117,10 +55123,10 @@
         <v>0.90401456262914492</v>
       </c>
       <c r="G250">
-        <v>1900</v>
+        <v>202</v>
       </c>
       <c r="H250">
-        <v>1170</v>
+        <v>125</v>
       </c>
       <c r="I250" s="4">
         <v>44326</v>
@@ -55153,10 +55159,10 @@
         <v>0.95957483453485226</v>
       </c>
       <c r="G251">
-        <v>2020</v>
+        <v>198</v>
       </c>
       <c r="H251">
-        <v>1250</v>
+        <v>119</v>
       </c>
       <c r="I251" s="4">
         <v>44327</v>
@@ -55189,10 +55195,10 @@
         <v>0.92455384615384617</v>
       </c>
       <c r="G252">
-        <v>1980</v>
+        <v>197</v>
       </c>
       <c r="H252">
-        <v>1190</v>
+        <v>122</v>
       </c>
       <c r="I252" s="4">
         <v>44328</v>
@@ -55225,10 +55231,10 @@
         <v>0.92330419795642005</v>
       </c>
       <c r="G253">
-        <v>1970</v>
+        <v>205</v>
       </c>
       <c r="H253">
-        <v>1220</v>
+        <v>124</v>
       </c>
       <c r="I253" s="4">
         <v>44329</v>
@@ -55261,10 +55267,10 @@
         <v>0.92653252222742166</v>
       </c>
       <c r="G254">
-        <v>2050</v>
+        <v>196</v>
       </c>
       <c r="H254">
-        <v>1240</v>
+        <v>118</v>
       </c>
       <c r="I254" s="4">
         <v>44330</v>
@@ -55297,10 +55303,10 @@
         <v>0.92165558019216554</v>
       </c>
       <c r="G255">
-        <v>1960</v>
+        <v>190</v>
       </c>
       <c r="H255">
-        <v>1180</v>
+        <v>122</v>
       </c>
       <c r="I255" s="4">
         <v>44331</v>
@@ -55333,10 +55339,10 @@
         <v>0.92047218867831526</v>
       </c>
       <c r="G256">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="H256">
-        <v>1220</v>
+        <v>116</v>
       </c>
       <c r="I256" s="4"/>
       <c r="J256">
@@ -55367,10 +55373,10 @@
         <v>0.91852582275360528</v>
       </c>
       <c r="G257">
-        <v>2000</v>
+        <v>196</v>
       </c>
       <c r="H257">
-        <v>1160</v>
+        <v>126</v>
       </c>
       <c r="I257" s="4">
         <v>44333</v>
@@ -55403,10 +55409,10 @@
         <v>0.92908570864976825</v>
       </c>
       <c r="G258">
-        <v>1960</v>
+        <v>197</v>
       </c>
       <c r="H258">
-        <v>1260</v>
+        <v>124</v>
       </c>
       <c r="I258" s="4">
         <v>44334</v>
@@ -55439,10 +55445,10 @@
         <v>0.91458451520607753</v>
       </c>
       <c r="G259">
-        <v>1970</v>
+        <v>202</v>
       </c>
       <c r="H259">
-        <v>1240</v>
+        <v>121</v>
       </c>
       <c r="I259" s="4">
         <v>44335</v>
@@ -55475,10 +55481,10 @@
         <v>0.91564065237237535</v>
       </c>
       <c r="G260">
-        <v>2020</v>
+        <v>195</v>
       </c>
       <c r="H260">
-        <v>1210</v>
+        <v>123</v>
       </c>
       <c r="I260" s="4">
         <v>44336</v>
@@ -55511,10 +55517,10 @@
         <v>0.91458899037274743</v>
       </c>
       <c r="G261">
-        <v>1950</v>
+        <v>199</v>
       </c>
       <c r="H261">
-        <v>1230</v>
+        <v>137</v>
       </c>
       <c r="I261" s="4">
         <v>44337</v>
@@ -55547,10 +55553,10 @@
         <v>0.89714779602420047</v>
       </c>
       <c r="G262">
-        <v>1990</v>
+        <v>198</v>
       </c>
       <c r="H262">
-        <v>1370</v>
+        <v>113</v>
       </c>
       <c r="I262" s="4">
         <v>44338</v>
@@ -55583,10 +55589,10 @@
         <v>0.89669482733066552</v>
       </c>
       <c r="G263">
-        <v>1980</v>
+        <v>205</v>
       </c>
       <c r="H263">
-        <v>1130</v>
+        <v>106</v>
       </c>
       <c r="I263" s="4"/>
       <c r="J263">
@@ -55617,10 +55623,10 @@
         <v>0.90158667391626712</v>
       </c>
       <c r="G264">
-        <v>2050</v>
+        <v>196</v>
       </c>
       <c r="H264">
-        <v>1060</v>
+        <v>129</v>
       </c>
       <c r="I264" s="4">
         <v>44340</v>
@@ -55653,10 +55659,10 @@
         <v>0.89967365506329111</v>
       </c>
       <c r="G265">
-        <v>1960</v>
+        <v>200</v>
       </c>
       <c r="H265">
-        <v>1290</v>
+        <v>129</v>
       </c>
       <c r="I265" s="4">
         <v>44341</v>
@@ -55689,10 +55695,10 @@
         <v>0.89472512797685289</v>
       </c>
       <c r="G266">
-        <v>2000</v>
+        <v>198</v>
       </c>
       <c r="H266">
-        <v>1290</v>
+        <v>123</v>
       </c>
       <c r="I266" s="4">
         <v>44342</v>
@@ -55725,10 +55731,10 @@
         <v>0.89053803339517623</v>
       </c>
       <c r="G267">
-        <v>1980</v>
+        <v>205</v>
       </c>
       <c r="H267">
-        <v>1230</v>
+        <v>138</v>
       </c>
       <c r="I267" s="4">
         <v>44343</v>
@@ -55761,10 +55767,10 @@
         <v>0.89458054936896803</v>
       </c>
       <c r="G268">
-        <v>2050</v>
+        <v>202</v>
       </c>
       <c r="H268">
-        <v>1380</v>
+        <v>128</v>
       </c>
       <c r="I268" s="4">
         <v>44344</v>
@@ -55797,10 +55803,10 @@
         <v>0.90526524246850015</v>
       </c>
       <c r="G269">
-        <v>2020</v>
+        <v>207</v>
       </c>
       <c r="H269">
-        <v>1280</v>
+        <v>129</v>
       </c>
       <c r="I269" s="4">
         <v>44345</v>
@@ -55833,10 +55839,10 @@
         <v>0.90330568280302093</v>
       </c>
       <c r="G270">
-        <v>2070</v>
+        <v>200</v>
       </c>
       <c r="H270">
-        <v>1290</v>
+        <v>122</v>
       </c>
       <c r="I270" s="4"/>
       <c r="J270">
@@ -55867,10 +55873,10 @@
         <v>0.90884320039633393</v>
       </c>
       <c r="G271">
-        <v>2000</v>
+        <v>206</v>
       </c>
       <c r="H271">
-        <v>1220</v>
+        <v>127</v>
       </c>
       <c r="I271" s="4">
         <v>44347</v>
@@ -55903,10 +55909,10 @@
         <v>0.90692833779363669</v>
       </c>
       <c r="G272">
-        <v>2060</v>
+        <v>208</v>
       </c>
       <c r="H272">
-        <v>1270</v>
+        <v>120</v>
       </c>
       <c r="I272" s="4">
         <v>44348</v>
@@ -55939,10 +55945,10 @@
         <v>0.89840844860925184</v>
       </c>
       <c r="G273">
-        <v>2080</v>
+        <v>205</v>
       </c>
       <c r="H273">
-        <v>1200</v>
+        <v>127</v>
       </c>
       <c r="I273" s="4"/>
       <c r="J273">
@@ -55973,10 +55979,10 @@
         <v>0.89418999677635336</v>
       </c>
       <c r="G274">
-        <v>2050</v>
+        <v>210</v>
       </c>
       <c r="H274">
-        <v>1270</v>
+        <v>123</v>
       </c>
       <c r="I274" s="4">
         <v>44350</v>
@@ -56009,10 +56015,10 @@
         <v>0.90480678605089537</v>
       </c>
       <c r="G275">
-        <v>2100</v>
+        <v>206</v>
       </c>
       <c r="H275">
-        <v>1230</v>
+        <v>129</v>
       </c>
       <c r="I275" s="4">
         <v>44351</v>
@@ -56045,10 +56051,10 @@
         <v>0.90428699017564751</v>
       </c>
       <c r="G276">
-        <v>2060</v>
+        <v>203</v>
       </c>
       <c r="H276">
-        <v>1290</v>
+        <v>130</v>
       </c>
       <c r="I276" s="4">
         <v>44352</v>
@@ -56081,10 +56087,10 @@
         <v>0.90302248250533523</v>
       </c>
       <c r="G277">
-        <v>2030</v>
+        <v>201</v>
       </c>
       <c r="H277">
-        <v>1300</v>
+        <v>127</v>
       </c>
       <c r="I277" s="4"/>
       <c r="J277">
@@ -56115,10 +56121,10 @@
         <v>0.89807873703023378</v>
       </c>
       <c r="G278">
-        <v>2010</v>
+        <v>207</v>
       </c>
       <c r="H278">
-        <v>1270</v>
+        <v>121</v>
       </c>
       <c r="I278" s="4">
         <v>44354</v>
@@ -56151,10 +56157,10 @@
         <v>0.89753457308141127</v>
       </c>
       <c r="G279">
-        <v>2070</v>
+        <v>199</v>
       </c>
       <c r="H279">
-        <v>1210</v>
+        <v>131</v>
       </c>
       <c r="I279" s="4">
         <v>44355</v>
@@ -56187,10 +56193,10 @@
         <v>0.90152738110021113</v>
       </c>
       <c r="G280">
-        <v>1990</v>
+        <v>210</v>
       </c>
       <c r="H280">
-        <v>1310</v>
+        <v>128</v>
       </c>
       <c r="I280" s="4">
         <v>44356</v>
@@ -56223,10 +56229,10 @@
         <v>0.90398708235001868</v>
       </c>
       <c r="G281">
-        <v>2100</v>
+        <v>195</v>
       </c>
       <c r="H281">
-        <v>1280</v>
+        <v>124</v>
       </c>
       <c r="I281" s="4">
         <v>44357</v>
@@ -56259,10 +56265,10 @@
         <v>0.89373120977961096</v>
       </c>
       <c r="G282">
-        <v>1950</v>
+        <v>202</v>
       </c>
       <c r="H282">
-        <v>1240</v>
+        <v>116</v>
       </c>
       <c r="I282" s="4">
         <v>44358</v>
@@ -56295,10 +56301,10 @@
         <v>0.90513706290230389</v>
       </c>
       <c r="G283">
-        <v>2020</v>
+        <v>200</v>
       </c>
       <c r="H283">
-        <v>1160</v>
+        <v>121</v>
       </c>
       <c r="I283" s="4">
         <v>44359</v>
@@ -56331,10 +56337,10 @@
         <v>0.9030798677570907</v>
       </c>
       <c r="G284">
-        <v>2000</v>
+        <v>208</v>
       </c>
       <c r="H284">
-        <v>1210</v>
+        <v>118</v>
       </c>
       <c r="I284" s="4"/>
       <c r="J284">
@@ -56365,10 +56371,10 @@
         <v>0.89437565269282415</v>
       </c>
       <c r="G285">
-        <v>2080</v>
+        <v>200</v>
       </c>
       <c r="H285">
-        <v>1180</v>
+        <v>121</v>
       </c>
       <c r="I285" s="4">
         <v>44361</v>
@@ -56401,10 +56407,10 @@
         <v>0.90734983211043407</v>
       </c>
       <c r="G286">
-        <v>2000</v>
+        <v>208</v>
       </c>
       <c r="H286">
-        <v>1210</v>
+        <v>118</v>
       </c>
       <c r="I286" s="4">
         <v>44362</v>
@@ -56437,10 +56443,10 @@
         <v>0.89192416778623673</v>
       </c>
       <c r="G287">
-        <v>2080</v>
+        <v>202</v>
       </c>
       <c r="H287">
-        <v>1180</v>
+        <v>112</v>
       </c>
       <c r="I287" s="4">
         <v>44363</v>
@@ -56473,10 +56479,10 @@
         <v>0.89596814335490294</v>
       </c>
       <c r="G288">
-        <v>2020</v>
+        <v>210</v>
       </c>
       <c r="H288">
-        <v>1120</v>
+        <v>122</v>
       </c>
       <c r="I288" s="4">
         <v>44364</v>
@@ -56509,10 +56515,10 @@
         <v>0.89485347210118771</v>
       </c>
       <c r="G289">
-        <v>2100</v>
+        <v>206</v>
       </c>
       <c r="H289">
-        <v>1220</v>
+        <v>108</v>
       </c>
       <c r="I289" s="4">
         <v>44365</v>
@@ -56545,10 +56551,10 @@
         <v>0.88545169244564004</v>
       </c>
       <c r="G290">
-        <v>2060</v>
+        <v>202</v>
       </c>
       <c r="H290">
-        <v>1080</v>
+        <v>109</v>
       </c>
       <c r="I290" s="4">
         <v>44366</v>
@@ -56581,10 +56587,10 @@
         <v>0.89919274466812837</v>
       </c>
       <c r="G291">
-        <v>2020</v>
+        <v>207</v>
       </c>
       <c r="H291">
-        <v>1090</v>
+        <v>130</v>
       </c>
       <c r="I291" s="4"/>
       <c r="J291">
@@ -56615,10 +56621,10 @@
         <v>0.89943925233644861</v>
       </c>
       <c r="G292">
-        <v>2070</v>
+        <v>210</v>
       </c>
       <c r="H292">
-        <v>1300</v>
+        <v>116</v>
       </c>
       <c r="I292" s="4">
         <v>44368</v>
@@ -56651,10 +56657,10 @@
         <v>0.88019742746036489</v>
       </c>
       <c r="G293">
-        <v>2100</v>
+        <v>209</v>
       </c>
       <c r="H293">
-        <v>1160</v>
+        <v>116</v>
       </c>
       <c r="I293" s="4">
         <v>44369</v>
@@ -56687,10 +56693,10 @@
         <v>0.88349708243977854</v>
       </c>
       <c r="G294">
-        <v>2090</v>
+        <v>205</v>
       </c>
       <c r="H294">
-        <v>1160</v>
+        <v>110</v>
       </c>
       <c r="I294" s="4">
         <v>44370</v>
@@ -56723,10 +56729,10 @@
         <v>0.88153857666691615</v>
       </c>
       <c r="G295">
-        <v>2050</v>
+        <v>210</v>
       </c>
       <c r="H295">
-        <v>1100</v>
+        <v>117</v>
       </c>
       <c r="I295" s="4">
         <v>44371</v>
@@ -56759,10 +56765,10 @@
         <v>0.88407026649366205</v>
       </c>
       <c r="G296">
-        <v>2100</v>
+        <v>207</v>
       </c>
       <c r="H296">
-        <v>1170</v>
+        <v>117</v>
       </c>
       <c r="I296" s="4">
         <v>44372</v>
@@ -56795,10 +56801,10 @@
         <v>0.88429091998202969</v>
       </c>
       <c r="G297">
-        <v>2070</v>
+        <v>204</v>
       </c>
       <c r="H297">
-        <v>1170</v>
+        <v>115</v>
       </c>
       <c r="I297" s="4">
         <v>44373</v>
@@ -56831,10 +56837,10 @@
         <v>0.89059223010086885</v>
       </c>
       <c r="G298">
-        <v>2040</v>
+        <v>204</v>
       </c>
       <c r="H298">
-        <v>1150</v>
+        <v>113</v>
       </c>
       <c r="I298" s="4"/>
       <c r="J298">
@@ -56865,10 +56871,10 @@
         <v>0.86551431283409097</v>
       </c>
       <c r="G299">
-        <v>2040</v>
+        <v>210</v>
       </c>
       <c r="H299">
-        <v>1130</v>
+        <v>111</v>
       </c>
       <c r="I299" s="4">
         <v>44375</v>
@@ -56901,10 +56907,10 @@
         <v>0.88228679943029908</v>
       </c>
       <c r="G300">
-        <v>2100</v>
+        <v>207</v>
       </c>
       <c r="H300">
-        <v>1110</v>
+        <v>111</v>
       </c>
       <c r="I300" s="4">
         <v>44376</v>
@@ -56937,10 +56943,10 @@
         <v>0.88193385496087795</v>
       </c>
       <c r="G301">
-        <v>2070</v>
+        <v>206</v>
       </c>
       <c r="H301">
-        <v>1110</v>
+        <v>112</v>
       </c>
       <c r="I301" s="4">
         <v>44377</v>
@@ -56973,10 +56979,10 @@
         <v>0.87394663799354855</v>
       </c>
       <c r="G302">
-        <v>2060</v>
+        <v>203</v>
       </c>
       <c r="H302">
-        <v>1120</v>
+        <v>122</v>
       </c>
       <c r="I302" s="4">
         <v>44378</v>
@@ -57009,10 +57015,10 @@
         <v>0.87504690431519705</v>
       </c>
       <c r="G303">
-        <v>2030</v>
+        <v>205</v>
       </c>
       <c r="H303">
-        <v>1220</v>
+        <v>114</v>
       </c>
       <c r="I303" s="4">
         <v>44379</v>
@@ -57045,10 +57051,10 @@
         <v>0.86329855115982279</v>
       </c>
       <c r="G304">
-        <v>2050</v>
+        <v>210</v>
       </c>
       <c r="H304">
-        <v>1140</v>
+        <v>107</v>
       </c>
       <c r="I304" s="4">
         <v>44380</v>
@@ -57081,10 +57087,10 @@
         <v>0.87269996244836645</v>
       </c>
       <c r="G305">
-        <v>2100</v>
+        <v>207</v>
       </c>
       <c r="H305">
-        <v>1070</v>
+        <v>122</v>
       </c>
       <c r="I305" s="4"/>
       <c r="J305">
@@ -57115,10 +57121,10 @@
         <v>0.8640120210368144</v>
       </c>
       <c r="G306">
-        <v>2070</v>
+        <v>211</v>
       </c>
       <c r="H306">
-        <v>1220</v>
+        <v>119</v>
       </c>
       <c r="I306" s="4">
         <v>44382</v>
@@ -57151,10 +57157,10 @@
         <v>0.858409962165819</v>
       </c>
       <c r="G307">
-        <v>2110</v>
+        <v>200</v>
       </c>
       <c r="H307">
-        <v>1190</v>
+        <v>113</v>
       </c>
       <c r="I307" s="4">
         <v>44383</v>
@@ -57187,10 +57193,10 @@
         <v>0.8452610733712681</v>
       </c>
       <c r="G308">
-        <v>2000</v>
+        <v>208</v>
       </c>
       <c r="H308">
-        <v>1130</v>
+        <v>108</v>
       </c>
       <c r="I308" s="4">
         <v>44384</v>
@@ -57223,10 +57229,10 @@
         <v>0.87431968097113189</v>
       </c>
       <c r="G309">
-        <v>2080</v>
+        <v>210</v>
       </c>
       <c r="H309">
-        <v>1080</v>
+        <v>117</v>
       </c>
       <c r="I309" s="4">
         <v>44385</v>
@@ -57259,10 +57265,10 @@
         <v>0.86434935374576483</v>
       </c>
       <c r="G310">
-        <v>2100</v>
+        <v>209</v>
       </c>
       <c r="H310">
-        <v>1170</v>
+        <v>121</v>
       </c>
       <c r="I310" s="4">
         <v>44386</v>
@@ -57295,10 +57301,10 @@
         <v>0.86030685784596839</v>
       </c>
       <c r="G311">
-        <v>2090</v>
+        <v>204</v>
       </c>
       <c r="H311">
-        <v>1210</v>
+        <v>113</v>
       </c>
       <c r="I311" s="4">
         <v>44387</v>
@@ -57331,10 +57337,10 @@
         <v>0.85330921151816674</v>
       </c>
       <c r="G312">
-        <v>2040</v>
+        <v>207</v>
       </c>
       <c r="H312">
-        <v>1130</v>
+        <v>116</v>
       </c>
       <c r="I312" s="4"/>
       <c r="J312">
@@ -57365,10 +57371,10 @@
         <v>0.84776869893148965</v>
       </c>
       <c r="G313">
-        <v>2070</v>
+        <v>208</v>
       </c>
       <c r="H313">
-        <v>1160</v>
+        <v>106</v>
       </c>
       <c r="I313" s="4">
         <v>44389</v>
@@ -57401,10 +57407,10 @@
         <v>0.86039900374852196</v>
       </c>
       <c r="G314">
-        <v>2080</v>
+        <v>207</v>
       </c>
       <c r="H314">
-        <v>1060</v>
+        <v>118</v>
       </c>
       <c r="I314" s="4">
         <v>44390</v>
@@ -57437,10 +57443,10 @@
         <v>0.85443834650823225</v>
       </c>
       <c r="G315">
-        <v>2070</v>
+        <v>210</v>
       </c>
       <c r="H315">
-        <v>1180</v>
+        <v>113</v>
       </c>
       <c r="I315" s="4">
         <v>44391</v>
@@ -57473,10 +57479,10 @@
         <v>0.86003627569528418</v>
       </c>
       <c r="G316">
-        <v>2100</v>
+        <v>205</v>
       </c>
       <c r="H316">
-        <v>1130</v>
+        <v>116</v>
       </c>
       <c r="I316" s="4">
         <v>44392</v>
@@ -57509,10 +57515,10 @@
         <v>0.84621007789065061</v>
       </c>
       <c r="G317">
-        <v>2050</v>
+        <v>207</v>
       </c>
       <c r="H317">
-        <v>1160</v>
+        <v>114</v>
       </c>
       <c r="I317" s="4">
         <v>44393</v>
@@ -57545,10 +57551,10 @@
         <v>0.84907802134046362</v>
       </c>
       <c r="G318">
-        <v>2070</v>
+        <v>211</v>
       </c>
       <c r="H318">
-        <v>1140</v>
+        <v>113</v>
       </c>
       <c r="I318" s="4">
         <v>44394</v>
@@ -57579,10 +57585,10 @@
         <v>0.84361984096932985</v>
       </c>
       <c r="G319">
-        <v>2110</v>
+        <v>205</v>
       </c>
       <c r="H319">
-        <v>1130</v>
+        <v>111</v>
       </c>
       <c r="I319" s="4"/>
       <c r="J319">
@@ -57613,10 +57619,10 @@
         <v>0.8404274130396342</v>
       </c>
       <c r="G320">
-        <v>2050</v>
+        <v>210</v>
       </c>
       <c r="H320">
-        <v>1110</v>
+        <v>109</v>
       </c>
       <c r="I320" s="4">
         <v>44396</v>
@@ -57649,10 +57655,10 @@
         <v>0.84944331983805665</v>
       </c>
       <c r="G321">
-        <v>2100</v>
+        <v>208</v>
       </c>
       <c r="H321">
-        <v>1090</v>
+        <v>112</v>
       </c>
       <c r="I321" s="4">
         <v>44397</v>
@@ -57685,10 +57691,10 @@
         <v>0.84230798469452395</v>
       </c>
       <c r="G322">
-        <v>2080</v>
+        <v>215</v>
       </c>
       <c r="H322">
-        <v>1120</v>
+        <v>115</v>
       </c>
       <c r="I322" s="4">
         <v>44398</v>
@@ -57721,10 +57727,10 @@
         <v>0.85877426722497141</v>
       </c>
       <c r="G323">
-        <v>2150</v>
+        <v>207</v>
       </c>
       <c r="H323">
-        <v>1150</v>
+        <v>113</v>
       </c>
       <c r="I323" s="4">
         <v>44399</v>
@@ -57757,10 +57763,10 @@
         <v>0.84794875705353057</v>
       </c>
       <c r="G324">
-        <v>2070</v>
+        <v>211</v>
       </c>
       <c r="H324">
-        <v>1130</v>
+        <v>109</v>
       </c>
       <c r="I324" s="4">
         <v>44400</v>
@@ -57793,10 +57799,10 @@
         <v>0.8428767750801649</v>
       </c>
       <c r="G325">
-        <v>2110</v>
+        <v>208</v>
       </c>
       <c r="H325">
-        <v>1090</v>
+        <v>110</v>
       </c>
       <c r="I325" s="4">
         <v>44401</v>
@@ -57829,10 +57835,10 @@
         <v>0.84580284993244792</v>
       </c>
       <c r="G326">
-        <v>2080</v>
+        <v>210</v>
       </c>
       <c r="H326">
-        <v>1100</v>
+        <v>107</v>
       </c>
       <c r="I326" s="4"/>
       <c r="J326">
@@ -57863,10 +57869,10 @@
         <v>0.84141486320947323</v>
       </c>
       <c r="G327">
-        <v>2100</v>
+        <v>205</v>
       </c>
       <c r="H327">
-        <v>1070</v>
+        <v>111</v>
       </c>
       <c r="I327" s="4">
         <v>44403</v>
@@ -57899,10 +57905,10 @@
         <v>0.83290764201062528</v>
       </c>
       <c r="G328">
-        <v>2050</v>
+        <v>210</v>
       </c>
       <c r="H328">
-        <v>1110</v>
+        <v>108</v>
       </c>
       <c r="I328" s="4">
         <v>44404</v>
@@ -57935,10 +57941,10 @@
         <v>0.8404907975460123</v>
       </c>
       <c r="G329">
-        <v>2100</v>
+        <v>212</v>
       </c>
       <c r="H329">
-        <v>1080</v>
+        <v>109</v>
       </c>
       <c r="I329" s="4">
         <v>44405</v>
@@ -57971,10 +57977,10 @@
         <v>0.84345979687380079</v>
       </c>
       <c r="G330">
-        <v>2120</v>
+        <v>209</v>
       </c>
       <c r="H330">
-        <v>1090</v>
+        <v>110</v>
       </c>
       <c r="I330" s="4">
         <v>44406</v>
@@ -58007,10 +58013,10 @@
         <v>0.83044982698961933</v>
       </c>
       <c r="G331">
-        <v>2090</v>
+        <v>208</v>
       </c>
       <c r="H331">
-        <v>1100</v>
+        <v>107</v>
       </c>
       <c r="I331" s="4">
         <v>44407</v>
@@ -58043,10 +58049,10 @@
         <v>0.84586176817692027</v>
       </c>
       <c r="G332">
-        <v>2080</v>
+        <v>211</v>
       </c>
       <c r="H332">
-        <v>1070</v>
+        <v>105</v>
       </c>
       <c r="I332" s="4">
         <v>44408</v>
@@ -58079,10 +58085,10 @@
         <v>0.82426047658175838</v>
       </c>
       <c r="G333">
-        <v>2110</v>
+        <v>210</v>
       </c>
       <c r="H333">
-        <v>1050</v>
+        <v>109</v>
       </c>
       <c r="I333" s="4"/>
       <c r="J333">
@@ -58113,10 +58119,10 @@
         <v>0.82054445901133644</v>
       </c>
       <c r="G334">
-        <v>2100</v>
+        <v>215</v>
       </c>
       <c r="H334">
-        <v>1090</v>
+        <v>106</v>
       </c>
       <c r="I334" s="4">
         <v>44410</v>
@@ -58149,10 +58155,10 @@
         <v>0.81650502919764356</v>
       </c>
       <c r="G335">
-        <v>2150</v>
+        <v>204</v>
       </c>
       <c r="H335">
-        <v>1060</v>
+        <v>110</v>
       </c>
       <c r="I335" s="4">
         <v>44411</v>
@@ -58185,10 +58191,10 @@
         <v>0.81634756616074422</v>
       </c>
       <c r="G336">
-        <v>2040</v>
+        <v>205</v>
       </c>
       <c r="H336">
-        <v>1100</v>
+        <v>108</v>
       </c>
       <c r="I336" s="4">
         <v>44412</v>
@@ -58221,10 +58227,10 @@
         <v>0.81246292331897552</v>
       </c>
       <c r="G337">
-        <v>2050</v>
+        <v>209</v>
       </c>
       <c r="H337">
-        <v>1080</v>
+        <v>112</v>
       </c>
       <c r="I337" s="4">
         <v>44413</v>
@@ -58257,10 +58263,10 @@
         <v>0.82054858205485826</v>
       </c>
       <c r="G338">
-        <v>2090</v>
+        <v>210</v>
       </c>
       <c r="H338">
-        <v>1120</v>
+        <v>107</v>
       </c>
       <c r="I338" s="4">
         <v>44414</v>
@@ -58293,10 +58299,10 @@
         <v>0.78165792126554134</v>
       </c>
       <c r="G339">
-        <v>2100</v>
+        <v>208</v>
       </c>
       <c r="H339">
-        <v>1070</v>
+        <v>109</v>
       </c>
       <c r="I339" s="4">
         <v>44415</v>
@@ -58329,10 +58335,10 @@
         <v>0.81666451028593612</v>
       </c>
       <c r="G340">
-        <v>2080</v>
+        <v>212</v>
       </c>
       <c r="H340">
-        <v>1090</v>
+        <v>115</v>
       </c>
       <c r="I340" s="4"/>
       <c r="J340">
@@ -58363,10 +58369,10 @@
         <v>0.79810382343798569</v>
       </c>
       <c r="G341">
-        <v>2120</v>
+        <v>209</v>
       </c>
       <c r="H341">
-        <v>1150</v>
+        <v>109</v>
       </c>
       <c r="I341" s="4">
         <v>44417</v>
@@ -58399,10 +58405,10 @@
         <v>0.7981744158908799</v>
       </c>
       <c r="G342">
-        <v>2090</v>
+        <v>207</v>
       </c>
       <c r="H342">
-        <v>1090</v>
+        <v>111</v>
       </c>
       <c r="I342" s="4">
         <v>44418</v>
@@ -58435,10 +58441,10 @@
         <v>0.78623696092168771</v>
       </c>
       <c r="G343">
-        <v>2070</v>
+        <v>210</v>
       </c>
       <c r="H343">
-        <v>1110</v>
+        <v>111</v>
       </c>
       <c r="I343" s="4">
         <v>44419</v>
@@ -58471,10 +58477,10 @@
         <v>0.80318886494066322</v>
       </c>
       <c r="G344">
-        <v>2100</v>
+        <v>206</v>
       </c>
       <c r="H344">
-        <v>1110</v>
+        <v>111</v>
       </c>
       <c r="I344" s="4">
         <v>44420</v>
@@ -58507,10 +58513,10 @@
         <v>0.78048653706206461</v>
       </c>
       <c r="G345">
-        <v>2060</v>
+        <v>208</v>
       </c>
       <c r="H345">
-        <v>1110</v>
+        <v>109</v>
       </c>
       <c r="I345" s="4">
         <v>44421</v>
@@ -58543,10 +58549,10 @@
         <v>0.80528533527545132</v>
       </c>
       <c r="G346">
-        <v>2080</v>
+        <v>211</v>
       </c>
       <c r="H346">
-        <v>1090</v>
+        <v>106</v>
       </c>
       <c r="I346" s="4">
         <v>44422</v>
@@ -58579,10 +58585,10 @@
         <v>0.78106693743653832</v>
       </c>
       <c r="G347">
-        <v>2110</v>
+        <v>210</v>
       </c>
       <c r="H347">
-        <v>1060</v>
+        <v>107</v>
       </c>
       <c r="I347" s="4"/>
       <c r="J347">
@@ -58613,10 +58619,10 @@
         <v>0.78093649842353496</v>
       </c>
       <c r="G348">
-        <v>2100</v>
+        <v>208</v>
       </c>
       <c r="H348">
-        <v>1070</v>
+        <v>101</v>
       </c>
       <c r="I348" s="4">
         <v>44424</v>
@@ -58649,10 +58655,10 @@
         <v>0.78770337922403</v>
       </c>
       <c r="G349">
-        <v>2080</v>
+        <v>205</v>
       </c>
       <c r="H349">
-        <v>1010</v>
+        <v>106</v>
       </c>
       <c r="I349" s="4">
         <v>44425</v>
@@ -58685,10 +58691,10 @@
         <v>0.79546937390714301</v>
       </c>
       <c r="G350">
-        <v>2050</v>
+        <v>210</v>
       </c>
       <c r="H350">
-        <v>1060</v>
+        <v>109</v>
       </c>
       <c r="I350" s="4">
         <v>44426</v>
@@ -58721,10 +58727,10 @@
         <v>0.77967872534935356</v>
       </c>
       <c r="G351">
-        <v>2100</v>
+        <v>208</v>
       </c>
       <c r="H351">
-        <v>1090</v>
+        <v>98</v>
       </c>
       <c r="I351" s="4">
         <v>44427</v>
@@ -58757,10 +58763,10 @@
         <v>0.77715331329238013</v>
       </c>
       <c r="G352">
-        <v>2080</v>
+        <v>209</v>
       </c>
       <c r="H352">
-        <v>980</v>
+        <v>114</v>
       </c>
       <c r="I352" s="4">
         <v>44428</v>
@@ -58793,10 +58799,10 @@
         <v>0.78724294908691328</v>
       </c>
       <c r="G353">
-        <v>2090</v>
+        <v>205</v>
       </c>
       <c r="H353">
-        <v>1140</v>
+        <v>109</v>
       </c>
       <c r="I353" s="4">
         <v>44429</v>
@@ -58829,10 +58835,10 @@
         <v>0.77700667801492729</v>
       </c>
       <c r="G354">
-        <v>2050</v>
+        <v>212</v>
       </c>
       <c r="H354">
-        <v>1090</v>
+        <v>105</v>
       </c>
       <c r="I354" s="4"/>
       <c r="J354">
@@ -58863,10 +58869,10 @@
         <v>0.77862835570469802</v>
       </c>
       <c r="G355">
-        <v>2120</v>
+        <v>207</v>
       </c>
       <c r="H355">
-        <v>1050</v>
+        <v>109</v>
       </c>
       <c r="I355" s="4">
         <v>44431</v>
@@ -58896,10 +58902,10 @@
         <v>0.775244641498544</v>
       </c>
       <c r="G356">
-        <v>2070</v>
+        <v>198</v>
       </c>
       <c r="H356">
-        <v>1090</v>
+        <v>115</v>
       </c>
       <c r="I356" s="4">
         <v>44432</v>
@@ -58932,10 +58938,10 @@
         <v>0.77908778194995143</v>
       </c>
       <c r="G357">
-        <v>1980</v>
+        <v>200</v>
       </c>
       <c r="H357">
-        <v>1150</v>
+        <v>109</v>
       </c>
       <c r="I357" s="4">
         <v>44433</v>
@@ -58968,10 +58974,10 @@
         <v>0.76949357441328747</v>
       </c>
       <c r="G358">
-        <v>2000</v>
+        <v>205</v>
       </c>
       <c r="H358">
-        <v>1090</v>
+        <v>110</v>
       </c>
       <c r="I358" s="4">
         <v>44434</v>
@@ -59004,10 +59010,10 @@
         <v>0.77734518861472091</v>
       </c>
       <c r="G359">
-        <v>2050</v>
+        <v>207</v>
       </c>
       <c r="H359">
-        <v>1100</v>
+        <v>116</v>
       </c>
       <c r="I359" s="4">
         <v>44435</v>
@@ -59040,10 +59046,10 @@
         <v>0.76769165964616681</v>
       </c>
       <c r="G360">
-        <v>2070</v>
+        <v>195</v>
       </c>
       <c r="H360">
-        <v>1160</v>
+        <v>111</v>
       </c>
       <c r="I360" s="4">
         <v>44436</v>
@@ -59076,10 +59082,10 @@
         <v>0.77638687574120435</v>
       </c>
       <c r="G361">
-        <v>1950</v>
+        <v>210</v>
       </c>
       <c r="H361">
-        <v>1110</v>
+        <v>115</v>
       </c>
       <c r="I361" s="4"/>
       <c r="J361">
@@ -59110,10 +59116,10 @@
         <v>0.75409490148497882</v>
       </c>
       <c r="G362">
-        <v>2100</v>
+        <v>208</v>
       </c>
       <c r="H362">
-        <v>1150</v>
+        <v>114</v>
       </c>
       <c r="I362" s="4">
         <v>44438</v>
@@ -59146,10 +59152,10 @@
         <v>0.76411434001108558</v>
       </c>
       <c r="G363">
-        <v>2080</v>
+        <v>207</v>
       </c>
       <c r="H363">
-        <v>1140</v>
+        <v>114</v>
       </c>
       <c r="I363" s="4">
         <v>44439</v>
@@ -59182,10 +59188,10 @@
         <v>0.75132750376456292</v>
       </c>
       <c r="G364">
-        <v>2070</v>
+        <v>211</v>
       </c>
       <c r="H364">
-        <v>1140</v>
+        <v>112</v>
       </c>
       <c r="I364" s="4">
         <v>44440</v>
@@ -59218,10 +59224,10 @@
         <v>0.75269670050761417</v>
       </c>
       <c r="G365">
-        <v>2110</v>
+        <v>197</v>
       </c>
       <c r="H365">
-        <v>1120</v>
+        <v>112</v>
       </c>
       <c r="I365" s="4">
         <v>44441</v>
@@ -59254,10 +59260,10 @@
         <v>0.74956328410354134</v>
       </c>
       <c r="G366">
-        <v>1970</v>
+        <v>199</v>
       </c>
       <c r="H366">
-        <v>1120</v>
+        <v>115</v>
       </c>
       <c r="I366" s="4">
         <v>44442</v>
@@ -59290,10 +59296,10 @@
         <v>0.75015893197711381</v>
       </c>
       <c r="G367">
-        <v>1990</v>
+        <v>206</v>
       </c>
       <c r="H367">
-        <v>1150</v>
+        <v>113</v>
       </c>
       <c r="I367" s="4">
         <v>44443</v>
@@ -59326,10 +59332,10 @@
         <v>0.75544717171181675</v>
       </c>
       <c r="G368">
-        <v>2060</v>
+        <v>200</v>
       </c>
       <c r="H368">
-        <v>1130</v>
+        <v>113</v>
       </c>
       <c r="I368" s="4"/>
       <c r="J368">
@@ -59360,10 +59366,10 @@
         <v>0.75521247811554992</v>
       </c>
       <c r="G369">
-        <v>2000</v>
+        <v>195</v>
       </c>
       <c r="H369">
-        <v>1130</v>
+        <v>115</v>
       </c>
       <c r="I369" s="4">
         <v>44445</v>
@@ -59396,10 +59402,10 @@
         <v>0.7669843629702392</v>
       </c>
       <c r="G370">
-        <v>1950</v>
+        <v>205</v>
       </c>
       <c r="H370">
-        <v>1150</v>
+        <v>114</v>
       </c>
       <c r="I370" s="4">
         <v>44446</v>
@@ -59432,10 +59438,10 @@
         <v>0.75813137755102045</v>
       </c>
       <c r="G371">
-        <v>2050</v>
+        <v>207</v>
       </c>
       <c r="H371">
-        <v>1140</v>
+        <v>115</v>
       </c>
       <c r="I371" s="4">
         <v>44447</v>
@@ -59468,10 +59474,10 @@
         <v>0.75771276595744685</v>
       </c>
       <c r="G372">
-        <v>2070</v>
+        <v>199</v>
       </c>
       <c r="H372">
-        <v>1150</v>
+        <v>111</v>
       </c>
       <c r="I372" s="4">
         <v>44448</v>
@@ -59504,10 +59510,10 @@
         <v>0.75730947435692597</v>
       </c>
       <c r="G373">
-        <v>1990</v>
+        <v>210</v>
       </c>
       <c r="H373">
-        <v>1110</v>
+        <v>115</v>
       </c>
       <c r="I373" s="4">
         <v>44449</v>
@@ -59540,10 +59546,10 @@
         <v>0.76057989553352523</v>
       </c>
       <c r="G374">
-        <v>2100</v>
+        <v>195</v>
       </c>
       <c r="H374">
-        <v>1150</v>
+        <v>118</v>
       </c>
       <c r="I374" s="4">
         <v>44450</v>
@@ -59576,10 +59582,10 @@
         <v>0.76186411289246936</v>
       </c>
       <c r="G375">
-        <v>1950</v>
+        <v>199</v>
       </c>
       <c r="H375">
-        <v>1180</v>
+        <v>116</v>
       </c>
       <c r="I375" s="4"/>
       <c r="J375">
@@ -59610,10 +59616,10 @@
         <v>0.75528620247757372</v>
       </c>
       <c r="G376">
-        <v>1990</v>
+        <v>197</v>
       </c>
       <c r="H376">
-        <v>1160</v>
+        <v>121</v>
       </c>
       <c r="I376" s="4">
         <v>44452</v>
@@ -59646,10 +59652,10 @@
         <v>0.74857738238358584</v>
       </c>
       <c r="G377">
-        <v>1970</v>
+        <v>200</v>
       </c>
       <c r="H377">
-        <v>1210</v>
+        <v>118</v>
       </c>
       <c r="I377" s="4">
         <v>44453</v>
@@ -59682,10 +59688,10 @@
         <v>0.75808219910688024</v>
       </c>
       <c r="G378">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="H378">
-        <v>1180</v>
+        <v>119</v>
       </c>
       <c r="I378" s="4">
         <v>44454</v>
@@ -59718,10 +59724,10 @@
         <v>0.75668728411920638</v>
       </c>
       <c r="G379">
-        <v>2000</v>
+        <v>198</v>
       </c>
       <c r="H379">
-        <v>1190</v>
+        <v>101</v>
       </c>
       <c r="I379" s="4">
         <v>44455</v>
@@ -59754,10 +59760,10 @@
         <v>0.75735648818137968</v>
       </c>
       <c r="G380">
-        <v>1980</v>
+        <v>196</v>
       </c>
       <c r="H380">
-        <v>1010</v>
+        <v>122</v>
       </c>
       <c r="I380" s="4">
         <v>44456</v>
@@ -59790,10 +59796,10 @@
         <v>0.73964735245967639</v>
       </c>
       <c r="G381">
-        <v>1960</v>
+        <v>204</v>
       </c>
       <c r="H381">
-        <v>1220</v>
+        <v>111</v>
       </c>
       <c r="I381" s="4">
         <v>44457</v>
@@ -59826,10 +59832,10 @@
         <v>0.75346513377028046</v>
       </c>
       <c r="G382">
-        <v>2040</v>
+        <v>199</v>
       </c>
       <c r="H382">
-        <v>1110</v>
+        <v>120</v>
       </c>
       <c r="I382" s="4"/>
       <c r="J382">
@@ -59860,10 +59866,10 @@
         <v>0.74461505364778013</v>
       </c>
       <c r="G383">
-        <v>1990</v>
+        <v>195</v>
       </c>
       <c r="H383">
-        <v>1200</v>
+        <v>108</v>
       </c>
       <c r="I383" s="4">
         <v>44459</v>
@@ -59896,10 +59902,10 @@
         <v>0.74303405572755421</v>
       </c>
       <c r="G384">
-        <v>1950</v>
+        <v>199</v>
       </c>
       <c r="H384">
-        <v>1080</v>
+        <v>104</v>
       </c>
       <c r="I384" s="4">
         <v>44460</v>
@@ -59932,10 +59938,10 @@
         <v>0.74090051226745757</v>
       </c>
       <c r="G385">
-        <v>1990</v>
+        <v>200</v>
       </c>
       <c r="H385">
-        <v>1040</v>
+        <v>93</v>
       </c>
       <c r="I385" s="4">
         <v>44461</v>
@@ -59968,10 +59974,10 @@
         <v>0.74639753899293004</v>
       </c>
       <c r="G386">
-        <v>2000</v>
+        <v>197</v>
       </c>
       <c r="H386">
-        <v>930</v>
+        <v>120</v>
       </c>
       <c r="I386" s="4"/>
       <c r="J386">
@@ -60002,10 +60008,10 @@
         <v>0.73764505396413216</v>
       </c>
       <c r="G387">
-        <v>1970</v>
+        <v>200</v>
       </c>
       <c r="H387">
-        <v>1200</v>
+        <v>159</v>
       </c>
       <c r="I387" s="4">
         <v>44463</v>
@@ -60038,10 +60044,10 @@
         <v>0.73725851464491832</v>
       </c>
       <c r="G388">
-        <v>2000</v>
+        <v>195</v>
       </c>
       <c r="H388">
-        <v>1590</v>
+        <v>128</v>
       </c>
       <c r="I388" s="4">
         <v>44464</v>
@@ -60074,10 +60080,10 @@
         <v>0.71744258561318841</v>
       </c>
       <c r="G389">
-        <v>1950</v>
+        <v>202</v>
       </c>
       <c r="H389">
-        <v>1280</v>
+        <v>92</v>
       </c>
       <c r="I389" s="4"/>
       <c r="J389">
@@ -60108,10 +60114,10 @@
         <v>0.74197752076885481</v>
       </c>
       <c r="G390">
-        <v>2020</v>
+        <v>198</v>
       </c>
       <c r="H390">
-        <v>920</v>
+        <v>96</v>
       </c>
       <c r="I390" s="4">
         <v>44466</v>
@@ -60144,10 +60150,10 @@
         <v>0.72297994892137152</v>
       </c>
       <c r="G391">
-        <v>1980</v>
+        <v>196</v>
       </c>
       <c r="H391">
-        <v>960</v>
+        <v>103</v>
       </c>
       <c r="I391" s="4">
         <v>44467</v>
@@ -60180,10 +60186,10 @@
         <v>0.70877059431243539</v>
       </c>
       <c r="G392">
-        <v>1960</v>
+        <v>200</v>
       </c>
       <c r="H392">
-        <v>1030</v>
+        <v>96</v>
       </c>
       <c r="I392" s="4">
         <v>44468</v>
@@ -60216,10 +60222,10 @@
         <v>0.73256383731692709</v>
       </c>
       <c r="G393">
-        <v>2000</v>
+        <v>199</v>
       </c>
       <c r="H393">
-        <v>960</v>
+        <v>107</v>
       </c>
       <c r="I393" s="4">
         <v>44469</v>
@@ -60252,10 +60258,10 @@
         <v>0.72999264285130383</v>
       </c>
       <c r="G394">
-        <v>1990</v>
+        <v>196</v>
       </c>
       <c r="H394">
-        <v>1070</v>
+        <v>91</v>
       </c>
       <c r="I394" s="4">
         <v>44470</v>
@@ -60288,10 +60294,10 @@
         <v>0.70690266452123163</v>
       </c>
       <c r="G395">
-        <v>1960</v>
+        <v>198</v>
       </c>
       <c r="H395">
-        <v>910</v>
+        <v>105</v>
       </c>
       <c r="I395" s="4">
         <v>44471</v>
@@ -60324,10 +60330,10 @@
         <v>0.70759739018863799</v>
       </c>
       <c r="G396">
-        <v>1980</v>
+        <v>200</v>
       </c>
       <c r="H396">
-        <v>1050</v>
+        <v>95</v>
       </c>
       <c r="I396" s="4"/>
       <c r="J396">
@@ -60358,10 +60364,10 @@
         <v>0.720747806597972</v>
       </c>
       <c r="G397">
-        <v>2000</v>
+        <v>197</v>
       </c>
       <c r="H397">
-        <v>950</v>
+        <v>96</v>
       </c>
       <c r="I397" s="4">
         <v>44473</v>
@@ -60394,10 +60400,10 @@
         <v>0.70252229578158343</v>
       </c>
       <c r="G398">
-        <v>1970</v>
+        <v>198</v>
       </c>
       <c r="H398">
-        <v>960</v>
+        <v>105</v>
       </c>
       <c r="I398" s="4">
         <v>44474</v>
@@ -60430,10 +60436,10 @@
         <v>0.7063461643760609</v>
       </c>
       <c r="G399">
-        <v>1980</v>
+        <v>190</v>
       </c>
       <c r="H399">
-        <v>1050</v>
+        <v>107</v>
       </c>
       <c r="I399" s="4">
         <v>44475</v>
@@ -60466,10 +60472,10 @@
         <v>0.7088621474192045</v>
       </c>
       <c r="G400">
-        <v>1900</v>
+        <v>207</v>
       </c>
       <c r="H400">
-        <v>1070</v>
+        <v>108</v>
       </c>
       <c r="I400" s="4">
         <v>44476</v>
@@ -60502,10 +60508,10 @@
         <v>0.71465817712764501</v>
       </c>
       <c r="G401">
-        <v>2070</v>
+        <v>200</v>
       </c>
       <c r="H401">
-        <v>1080</v>
+        <v>110</v>
       </c>
       <c r="I401" s="4">
         <v>44477</v>
@@ -60538,10 +60544,10 @@
         <v>0.68809229501442115</v>
       </c>
       <c r="G402">
-        <v>2000</v>
+        <v>202</v>
       </c>
       <c r="H402">
-        <v>1100</v>
+        <v>112</v>
       </c>
       <c r="I402" s="4">
         <v>44478</v>
@@ -60574,10 +60580,10 @@
         <v>0.6996699669966997</v>
       </c>
       <c r="G403">
-        <v>2020</v>
+        <v>199</v>
       </c>
       <c r="H403">
-        <v>1120</v>
+        <v>110</v>
       </c>
       <c r="I403" s="4"/>
       <c r="J403">
@@ -60608,10 +60614,10 @@
         <v>0.69037656903765687</v>
       </c>
       <c r="G404">
-        <v>1990</v>
+        <v>196</v>
       </c>
       <c r="H404">
-        <v>1100</v>
+        <v>107</v>
       </c>
       <c r="I404" s="4">
         <v>44480</v>
@@ -60644,10 +60650,10 @@
         <v>0.67935755805945064</v>
       </c>
       <c r="G405">
-        <v>1960</v>
+        <v>207</v>
       </c>
       <c r="H405">
-        <v>1070</v>
+        <v>113</v>
       </c>
       <c r="I405" s="4">
         <v>44481</v>
@@ -60680,10 +60686,10 @@
         <v>0.66931413915777282</v>
       </c>
       <c r="G406">
-        <v>2070</v>
+        <v>205</v>
       </c>
       <c r="H406">
-        <v>1130</v>
+        <v>105</v>
       </c>
       <c r="I406" s="4">
         <v>44482</v>
@@ -60716,10 +60722,10 @@
         <v>0.66732902798476568</v>
       </c>
       <c r="G407">
-        <v>2050</v>
+        <v>200</v>
       </c>
       <c r="H407">
-        <v>1050</v>
+        <v>109</v>
       </c>
       <c r="I407" s="4"/>
       <c r="J407">
@@ -60750,10 +60756,10 @@
         <v>0.65566976127320953</v>
       </c>
       <c r="G408">
-        <v>2000</v>
+        <v>198</v>
       </c>
       <c r="H408">
-        <v>1090</v>
+        <v>106</v>
       </c>
       <c r="I408" s="4">
         <v>44484</v>
@@ -60786,10 +60792,10 @@
         <v>0.55515600796636422</v>
       </c>
       <c r="G409">
-        <v>1980</v>
+        <v>195</v>
       </c>
       <c r="H409">
-        <v>1060</v>
+        <v>105</v>
       </c>
       <c r="I409" s="4"/>
       <c r="J409">
@@ -60820,10 +60826,10 @@
         <v>0.47200908562089694</v>
       </c>
       <c r="G410">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="H410">
-        <v>1050</v>
+        <v>110</v>
       </c>
       <c r="I410" s="4"/>
       <c r="J410">
@@ -60854,10 +60860,10 @@
         <v>0.53662597114317423</v>
       </c>
       <c r="G411">
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="H411">
-        <v>1100</v>
+        <v>115</v>
       </c>
       <c r="I411" s="4">
         <v>44487</v>
@@ -60890,10 +60896,10 @@
         <v>0.56836490916162008</v>
       </c>
       <c r="G412">
-        <v>2000</v>
+        <v>190</v>
       </c>
       <c r="H412">
-        <v>1150</v>
+        <v>105</v>
       </c>
       <c r="I412" s="4">
         <v>44488</v>
@@ -60926,10 +60932,10 @@
         <v>0.56723390056723388</v>
       </c>
       <c r="G413">
-        <v>1900</v>
+        <v>195</v>
       </c>
       <c r="H413">
-        <v>1050</v>
+        <v>131</v>
       </c>
       <c r="I413" s="4">
         <v>44489</v>
@@ -60962,10 +60968,10 @@
         <v>0.56849486601552712</v>
       </c>
       <c r="G414">
-        <v>1950</v>
+        <v>196</v>
       </c>
       <c r="H414">
-        <v>1310</v>
+        <v>79</v>
       </c>
       <c r="I414" s="4">
         <v>44490</v>
@@ -60998,10 +61004,10 @@
         <v>0.56397259510945241</v>
       </c>
       <c r="G415">
-        <v>1960</v>
+        <v>195</v>
       </c>
       <c r="H415">
-        <v>790</v>
+        <v>128</v>
       </c>
       <c r="I415" s="4">
         <v>44491</v>
@@ -61034,10 +61040,10 @@
         <v>0.57028179613680074</v>
       </c>
       <c r="G416">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="H416">
-        <v>1280</v>
+        <v>117</v>
       </c>
       <c r="I416" s="4">
         <v>44492</v>
@@ -61070,10 +61076,10 @@
         <v>0.56832766028681436</v>
       </c>
       <c r="G417">
-        <v>1800</v>
+        <v>190</v>
       </c>
       <c r="H417">
-        <v>1170</v>
+        <v>121</v>
       </c>
       <c r="I417" s="4"/>
       <c r="J417">
@@ -61104,10 +61110,10 @@
         <v>0.57678885507691446</v>
       </c>
       <c r="G418">
-        <v>1900</v>
+        <v>193</v>
       </c>
       <c r="H418">
-        <v>1210</v>
+        <v>117</v>
       </c>
       <c r="I418" s="4">
         <v>44494</v>
@@ -61140,10 +61146,10 @@
         <v>0.57996926945104066</v>
       </c>
       <c r="G419">
-        <v>1930</v>
+        <v>195</v>
       </c>
       <c r="H419">
-        <v>1170</v>
+        <v>121</v>
       </c>
       <c r="I419" s="4">
         <v>44495</v>
@@ -61176,10 +61182,10 @@
         <v>0.57626170837410873</v>
       </c>
       <c r="G420">
-        <v>1950</v>
+        <v>190</v>
       </c>
       <c r="H420">
-        <v>1210</v>
+        <v>116</v>
       </c>
       <c r="I420" s="4">
         <v>44496</v>
@@ -61212,10 +61218,10 @@
         <v>0.57335534599994409</v>
       </c>
       <c r="G421">
-        <v>1900</v>
+        <v>194</v>
       </c>
       <c r="H421">
-        <v>1160</v>
+        <v>98</v>
       </c>
       <c r="I421" s="4">
         <v>44497</v>
@@ -61248,10 +61254,10 @@
         <v>0.56709980956648365</v>
       </c>
       <c r="G422">
-        <v>1940</v>
+        <v>195</v>
       </c>
       <c r="H422">
-        <v>980</v>
+        <v>106</v>
       </c>
       <c r="I422" s="4">
         <v>44498</v>
@@ -61284,10 +61290,10 @@
         <v>0.57033900681378458</v>
       </c>
       <c r="G423">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="H423">
-        <v>1060</v>
+        <v>93</v>
       </c>
       <c r="I423" s="4">
         <v>44499</v>
@@ -61320,10 +61326,10 @@
         <v>0.56560895547512835</v>
       </c>
       <c r="G424">
-        <v>1800</v>
+        <v>185</v>
       </c>
       <c r="H424">
-        <v>930</v>
+        <v>95</v>
       </c>
       <c r="I424" s="4"/>
       <c r="J424">
@@ -61354,10 +61360,10 @@
         <v>0.56087359290346128</v>
       </c>
       <c r="G425">
-        <v>1850</v>
+        <v>190</v>
       </c>
       <c r="H425">
-        <v>950</v>
+        <v>108</v>
       </c>
       <c r="I425" s="4"/>
       <c r="J425">
@@ -61388,10 +61394,10 @@
         <v>0.57479983143699953</v>
       </c>
       <c r="G426">
-        <v>1900</v>
+        <v>193</v>
       </c>
       <c r="H426">
-        <v>1080</v>
+        <v>106</v>
       </c>
       <c r="I426" s="4">
         <v>44502</v>
@@ -61424,10 +61430,10 @@
         <v>0.65690353046997974</v>
       </c>
       <c r="G427">
-        <v>1930</v>
+        <v>190</v>
       </c>
       <c r="H427">
-        <v>1060</v>
+        <v>96</v>
       </c>
       <c r="I427" s="4">
         <v>44503</v>
@@ -61460,10 +61466,10 @@
         <v>0.60611176768529462</v>
       </c>
       <c r="G428">
-        <v>1900</v>
+        <v>185</v>
       </c>
       <c r="H428">
-        <v>960</v>
+        <v>109</v>
       </c>
       <c r="I428" s="4">
         <v>44504</v>
@@ -61496,10 +61502,10 @@
         <v>0.63362433117431705</v>
       </c>
       <c r="G429">
-        <v>1850</v>
+        <v>195</v>
       </c>
       <c r="H429">
-        <v>1090</v>
+        <v>123</v>
       </c>
       <c r="I429" s="4">
         <v>44505</v>
@@ -61532,10 +61538,10 @@
         <v>0.64623452787097868</v>
       </c>
       <c r="G430">
-        <v>1950</v>
+        <v>190</v>
       </c>
       <c r="H430">
-        <v>1230</v>
+        <v>110</v>
       </c>
       <c r="I430" s="4">
         <v>44506</v>
@@ -61568,10 +61574,10 @@
         <v>0.65665829500239858</v>
       </c>
       <c r="G431">
-        <v>1900</v>
+        <v>195</v>
       </c>
       <c r="H431">
-        <v>1100</v>
+        <v>119</v>
       </c>
       <c r="I431" s="4"/>
       <c r="J431">
@@ -61602,10 +61608,10 @@
         <v>0.63294356888662939</v>
       </c>
       <c r="G432">
-        <v>1950</v>
+        <v>200</v>
       </c>
       <c r="H432">
-        <v>1190</v>
+        <v>132</v>
       </c>
       <c r="I432" s="4">
         <v>44508</v>
@@ -61638,10 +61644,10 @@
         <v>0.68765721715044803</v>
       </c>
       <c r="G433">
-        <v>2000</v>
+        <v>185</v>
       </c>
       <c r="H433">
-        <v>1320</v>
+        <v>121</v>
       </c>
       <c r="I433" s="4">
         <v>44509</v>
@@ -61674,10 +61680,10 @@
         <v>0.61828261115510807</v>
       </c>
       <c r="G434">
-        <v>1850</v>
+        <v>190</v>
       </c>
       <c r="H434">
-        <v>1210</v>
+        <v>117</v>
       </c>
       <c r="I434" s="4">
         <v>44510</v>
@@ -61710,10 +61716,10 @@
         <v>0.62701784197111299</v>
       </c>
       <c r="G435">
-        <v>1900</v>
+        <v>195</v>
       </c>
       <c r="H435">
-        <v>1170</v>
+        <v>118</v>
       </c>
       <c r="I435" s="4">
         <v>44511</v>
@@ -61746,10 +61752,10 @@
         <v>0.62838354921912642</v>
       </c>
       <c r="G436">
-        <v>1950</v>
+        <v>198</v>
       </c>
       <c r="H436">
-        <v>1180</v>
+        <v>123</v>
       </c>
       <c r="I436" s="4">
         <v>44512</v>
@@ -61782,10 +61788,10 @@
         <v>0.62838815882837118</v>
       </c>
       <c r="G437">
-        <v>1980</v>
+        <v>190</v>
       </c>
       <c r="H437">
-        <v>1230</v>
+        <v>121</v>
       </c>
       <c r="I437" s="4">
         <v>44513</v>
@@ -61818,10 +61824,10 @@
         <v>0.62894153741264702</v>
       </c>
       <c r="G438">
-        <v>1900</v>
+        <v>196</v>
       </c>
       <c r="H438">
-        <v>1210</v>
+        <v>131</v>
       </c>
       <c r="I438" s="4"/>
       <c r="J438">
@@ -61852,10 +61858,10 @@
         <v>0.61492537313432838</v>
       </c>
       <c r="G439">
-        <v>1960</v>
+        <v>195</v>
       </c>
       <c r="H439">
-        <v>1310</v>
+        <v>117</v>
       </c>
       <c r="I439" s="4">
         <v>44515</v>
@@ -61888,10 +61894,10 @@
         <v>0.60672431448401409</v>
       </c>
       <c r="G440">
-        <v>1950</v>
+        <v>185</v>
       </c>
       <c r="H440">
-        <v>1170</v>
+        <v>122</v>
       </c>
       <c r="I440" s="4">
         <v>44516</v>
@@ -61924,10 +61930,10 @@
         <v>0.61825737952235915</v>
       </c>
       <c r="G441">
-        <v>1850</v>
+        <v>190</v>
       </c>
       <c r="H441">
-        <v>1220</v>
+        <v>119</v>
       </c>
       <c r="I441" s="4"/>
       <c r="J441">
@@ -61958,10 +61964,10 @@
         <v>0.56498945808877998</v>
       </c>
       <c r="G442">
-        <v>1900</v>
+        <v>195</v>
       </c>
       <c r="H442">
-        <v>1190</v>
+        <v>106</v>
       </c>
       <c r="I442" s="4">
         <v>44518</v>
@@ -61994,10 +62000,10 @@
         <v>0.57994981751824815</v>
       </c>
       <c r="G443">
-        <v>1950</v>
+        <v>187</v>
       </c>
       <c r="H443">
-        <v>1060</v>
+        <v>111</v>
       </c>
       <c r="I443" s="4"/>
       <c r="J443">
@@ -62028,10 +62034,10 @@
         <v>0.57180357805232973</v>
       </c>
       <c r="G444">
-        <v>1870</v>
+        <v>190</v>
       </c>
       <c r="H444">
-        <v>1110</v>
+        <v>122</v>
       </c>
       <c r="I444" s="4">
         <v>44520</v>
@@ -62064,10 +62070,10 @@
         <v>0.5687853349323283</v>
       </c>
       <c r="G445">
-        <v>1900</v>
+        <v>187</v>
       </c>
       <c r="H445">
-        <v>1220</v>
+        <v>111</v>
       </c>
       <c r="I445" s="4"/>
       <c r="J445">
@@ -62098,10 +62104,10 @@
         <v>0.60703058016576161</v>
       </c>
       <c r="G446">
-        <v>1870</v>
+        <v>186</v>
       </c>
       <c r="H446">
-        <v>1110</v>
+        <v>119</v>
       </c>
       <c r="I446" s="4">
         <v>44522</v>
@@ -62134,10 +62140,10 @@
         <v>0.58266590389016015</v>
       </c>
       <c r="G447">
-        <v>1860</v>
+        <v>190</v>
       </c>
       <c r="H447">
-        <v>1190</v>
+        <v>109</v>
       </c>
       <c r="I447" s="4">
         <v>44523</v>
@@ -62170,10 +62176,10 @@
         <v>0.59077768554827259</v>
       </c>
       <c r="G448">
-        <v>1900</v>
+        <v>185</v>
       </c>
       <c r="H448">
-        <v>1090</v>
+        <v>112</v>
       </c>
       <c r="I448" s="4"/>
       <c r="J448">
@@ -62204,10 +62210,10 @@
         <v>0.60068748209682044</v>
       </c>
       <c r="G449">
-        <v>1850</v>
+        <v>195</v>
       </c>
       <c r="H449">
-        <v>1120</v>
+        <v>113</v>
       </c>
       <c r="I449" s="4">
         <v>44525</v>
@@ -62240,10 +62246,10 @@
         <v>0.60362865086416917</v>
       </c>
       <c r="G450">
-        <v>1950</v>
+        <v>187</v>
       </c>
       <c r="H450">
-        <v>1130</v>
+        <v>126</v>
       </c>
       <c r="I450" s="4"/>
       <c r="J450">
@@ -62274,10 +62280,10 @@
         <v>0.60652117805626449</v>
       </c>
       <c r="G451">
-        <v>1870</v>
+        <v>190</v>
       </c>
       <c r="H451">
-        <v>1260</v>
+        <v>119</v>
       </c>
       <c r="I451" s="4">
         <v>44527</v>
@@ -62310,10 +62316,10 @@
         <v>0.59664227292294447</v>
       </c>
       <c r="G452">
-        <v>1900</v>
+        <v>193</v>
       </c>
       <c r="H452">
-        <v>1190</v>
+        <v>132</v>
       </c>
       <c r="I452" s="4"/>
       <c r="J452">
@@ -62344,10 +62350,10 @@
         <v>0.57385759829968119</v>
       </c>
       <c r="G453">
-        <v>1930</v>
+        <v>186</v>
       </c>
       <c r="H453">
-        <v>1320</v>
+        <v>104</v>
       </c>
       <c r="I453" s="4"/>
       <c r="J453">
@@ -62378,10 +62384,10 @@
         <v>0.58382200758882374</v>
       </c>
       <c r="G454">
-        <v>1860</v>
+        <v>195</v>
       </c>
       <c r="H454">
-        <v>1040</v>
+        <v>135</v>
       </c>
       <c r="I454" s="4">
         <v>44530</v>
@@ -62414,10 +62420,10 @@
         <v>0.63703064307293911</v>
       </c>
       <c r="G455">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="H455">
-        <v>1350</v>
+        <v>116</v>
       </c>
       <c r="I455" s="4"/>
       <c r="J455">
@@ -62448,10 +62454,10 @@
         <v>0.63056059428176559</v>
       </c>
       <c r="G456">
-        <v>1800</v>
+        <v>195</v>
       </c>
       <c r="H456">
-        <v>1160</v>
+        <v>135</v>
       </c>
       <c r="I456" s="4">
         <v>44532</v>
@@ -62484,10 +62490,10 @@
         <v>0.63888648742111176</v>
       </c>
       <c r="G457">
-        <v>1950</v>
+        <v>187</v>
       </c>
       <c r="H457">
-        <v>1350</v>
+        <v>104</v>
       </c>
       <c r="I457" s="4"/>
       <c r="J457">
@@ -62518,10 +62524,10 @@
         <v>0.63361994344740036</v>
       </c>
       <c r="G458">
-        <v>1870</v>
+        <v>188</v>
       </c>
       <c r="H458">
-        <v>1040</v>
+        <v>132</v>
       </c>
       <c r="I458" s="4">
         <v>44534</v>
@@ -62554,10 +62560,10 @@
         <v>0.63706229053507457</v>
       </c>
       <c r="G459">
-        <v>1880</v>
+        <v>190</v>
       </c>
       <c r="H459">
-        <v>1320</v>
+        <v>119</v>
       </c>
       <c r="I459" s="4"/>
       <c r="J459">
@@ -62588,10 +62594,10 @@
         <v>0.64448042560573637</v>
       </c>
       <c r="G460">
-        <v>1900</v>
+        <v>193</v>
       </c>
       <c r="H460">
-        <v>1190</v>
+        <v>126</v>
       </c>
       <c r="I460" s="4"/>
       <c r="J460">
@@ -62622,10 +62628,10 @@
         <v>0.65808131963536387</v>
       </c>
       <c r="G461">
-        <v>1930</v>
+        <v>195</v>
       </c>
       <c r="H461">
-        <v>1260</v>
+        <v>113</v>
       </c>
       <c r="I461" s="4">
         <v>44537</v>
@@ -62658,10 +62664,10 @@
         <v>0.65598934198331793</v>
       </c>
       <c r="G462">
-        <v>1950</v>
+        <v>186</v>
       </c>
       <c r="H462">
-        <v>1130</v>
+        <v>112</v>
       </c>
       <c r="I462" s="4"/>
       <c r="J462">
@@ -62692,10 +62698,10 @@
         <v>0.65310026958865985</v>
       </c>
       <c r="G463">
-        <v>1860</v>
+        <v>187</v>
       </c>
       <c r="H463">
-        <v>1120</v>
+        <v>109</v>
       </c>
       <c r="I463" s="4"/>
       <c r="J463">
@@ -62726,10 +62732,10 @@
         <v>0.64916606236403196</v>
       </c>
       <c r="G464">
-        <v>1870</v>
+        <v>195</v>
       </c>
       <c r="H464">
-        <v>1090</v>
+        <v>119</v>
       </c>
       <c r="I464" s="4">
         <v>44540</v>
@@ -62762,10 +62768,10 @@
         <v>0.65232537885385822</v>
       </c>
       <c r="G465">
-        <v>1950</v>
+        <v>190</v>
       </c>
       <c r="H465">
-        <v>1190</v>
+        <v>111</v>
       </c>
       <c r="I465" s="4"/>
       <c r="J465">
@@ -62796,10 +62802,10 @@
         <v>0.64493637789785607</v>
       </c>
       <c r="G466">
-        <v>1900</v>
+        <v>185</v>
       </c>
       <c r="H466">
-        <v>1110</v>
+        <v>114</v>
       </c>
       <c r="I466" s="4"/>
       <c r="J466">
@@ -62830,10 +62836,10 @@
         <v>0.64713064713064716</v>
       </c>
       <c r="G467">
-        <v>1850</v>
+        <v>188</v>
       </c>
       <c r="H467">
-        <v>1140</v>
+        <v>116</v>
       </c>
       <c r="I467" s="4">
         <v>44543</v>
@@ -62866,10 +62872,10 @@
         <v>0.65752706950750961</v>
       </c>
       <c r="G468">
-        <v>1880</v>
+        <v>190</v>
       </c>
       <c r="H468">
-        <v>1160</v>
+        <v>106</v>
       </c>
       <c r="I468" s="4"/>
       <c r="J468">
@@ -62900,10 +62906,10 @@
         <v>0.65112891478514201</v>
       </c>
       <c r="G469">
-        <v>1900</v>
+        <v>193</v>
       </c>
       <c r="H469">
-        <v>1060</v>
+        <v>125</v>
       </c>
       <c r="I469" s="4">
         <v>44545</v>
@@ -62936,10 +62942,10 @@
         <v>0.65523576240048986</v>
       </c>
       <c r="G470">
-        <v>1930</v>
+        <v>196</v>
       </c>
       <c r="H470">
-        <v>1250</v>
+        <v>113</v>
       </c>
       <c r="I470" s="4"/>
       <c r="J470">
@@ -62970,10 +62976,10 @@
         <v>0.65426836389115961</v>
       </c>
       <c r="G471">
-        <v>1960</v>
+        <v>186</v>
       </c>
       <c r="H471">
-        <v>1130</v>
+        <v>116</v>
       </c>
       <c r="I471" s="4">
         <v>44547</v>
@@ -63006,10 +63012,10 @@
         <v>0.65564190965932334</v>
       </c>
       <c r="G472">
-        <v>1860</v>
+        <v>187</v>
       </c>
       <c r="H472">
-        <v>1160</v>
+        <v>116</v>
       </c>
       <c r="I472" s="4"/>
       <c r="J472">
@@ -63040,10 +63046,10 @@
         <v>0.65881045675185679</v>
       </c>
       <c r="G473">
-        <v>1870</v>
+        <v>185</v>
       </c>
       <c r="H473">
-        <v>1160</v>
+        <v>109</v>
       </c>
       <c r="I473" s="4"/>
       <c r="J473">
@@ -63074,10 +63080,10 @@
         <v>0.6671738748756364</v>
       </c>
       <c r="G474">
-        <v>1850</v>
+        <v>180</v>
       </c>
       <c r="H474">
-        <v>1090</v>
+        <v>118</v>
       </c>
       <c r="I474" s="4">
         <v>44550</v>
@@ -63110,10 +63116,10 @@
         <v>0.66682285413067033</v>
       </c>
       <c r="G475">
-        <v>1800</v>
+        <v>193</v>
       </c>
       <c r="H475">
-        <v>1180</v>
+        <v>116</v>
       </c>
       <c r="I475" s="4"/>
       <c r="J475">
@@ -63144,10 +63150,10 @@
         <v>0.65083553210202283</v>
       </c>
       <c r="G476">
-        <v>1930</v>
+        <v>185</v>
       </c>
       <c r="H476">
-        <v>1160</v>
+        <v>113</v>
       </c>
       <c r="I476" s="4">
         <v>44552</v>
@@ -63180,10 +63186,10 @@
         <v>0.66201068137801511</v>
       </c>
       <c r="G477">
-        <v>1850</v>
+        <v>188</v>
       </c>
       <c r="H477">
-        <v>1130</v>
+        <v>120</v>
       </c>
       <c r="I477" s="4"/>
       <c r="J477">
@@ -63214,10 +63220,10 @@
         <v>0.65843984133979727</v>
       </c>
       <c r="G478">
-        <v>1880</v>
+        <v>193</v>
       </c>
       <c r="H478">
-        <v>1200</v>
+        <v>107</v>
       </c>
       <c r="I478" s="4">
         <v>44554</v>
@@ -63250,10 +63256,10 @@
         <v>0.65271080795013525</v>
       </c>
       <c r="G479">
-        <v>1930</v>
+        <v>190</v>
       </c>
       <c r="H479">
-        <v>1070</v>
+        <v>110</v>
       </c>
       <c r="I479" s="4"/>
       <c r="J479">
@@ -63284,10 +63290,10 @@
         <v>0.64971751412429379</v>
       </c>
       <c r="G480">
-        <v>1900</v>
+        <v>185</v>
       </c>
       <c r="H480">
-        <v>1100</v>
+        <v>109</v>
       </c>
       <c r="I480" s="4"/>
       <c r="J480">
@@ -63318,10 +63324,10 @@
         <v>0.65025326893627045</v>
       </c>
       <c r="G481">
-        <v>1850</v>
+        <v>190</v>
       </c>
       <c r="H481">
-        <v>1090</v>
+        <v>113</v>
       </c>
       <c r="I481" s="4">
         <v>44557</v>
@@ -63354,10 +63360,10 @@
         <v>0.65421111569517298</v>
       </c>
       <c r="G482">
-        <v>1900</v>
+        <v>188</v>
       </c>
       <c r="H482">
-        <v>1130</v>
+        <v>120</v>
       </c>
       <c r="I482" s="4"/>
       <c r="J482">
@@ -63388,10 +63394,10 @@
         <v>0.62022591205355826</v>
       </c>
       <c r="G483">
-        <v>1880</v>
+        <v>193</v>
       </c>
       <c r="H483">
-        <v>1200</v>
+        <v>116</v>
       </c>
       <c r="I483" s="4">
         <v>44559</v>
@@ -63424,10 +63430,10 @@
         <v>0.631252766710934</v>
       </c>
       <c r="G484">
-        <v>1930</v>
+        <v>180</v>
       </c>
       <c r="H484">
-        <v>1160</v>
+        <v>115</v>
       </c>
       <c r="I484" s="4"/>
       <c r="J484">
@@ -63458,10 +63464,10 @@
         <v>0.64327485380116955</v>
       </c>
       <c r="G485">
-        <v>1800</v>
+        <v>193</v>
       </c>
       <c r="H485">
-        <v>1150</v>
+        <v>103</v>
       </c>
       <c r="I485" s="4">
         <v>44561</v>
@@ -63494,10 +63500,10 @@
         <v>0.64903206738584307</v>
       </c>
       <c r="G486">
-        <v>1930</v>
+        <v>188</v>
       </c>
       <c r="H486">
-        <v>1030</v>
+        <v>120</v>
       </c>
       <c r="I486" s="4"/>
       <c r="J486">
@@ -63528,10 +63534,10 @@
         <v>0.64685004436557236</v>
       </c>
       <c r="G487">
-        <v>1880</v>
+        <v>190</v>
       </c>
       <c r="H487">
-        <v>1200</v>
+        <v>109</v>
       </c>
       <c r="I487" s="4"/>
       <c r="J487">
@@ -63562,10 +63568,10 @@
         <v>0.61802575107296143</v>
       </c>
       <c r="G488">
-        <v>1900</v>
+        <v>187</v>
       </c>
       <c r="H488">
-        <v>1090</v>
+        <v>115</v>
       </c>
       <c r="I488" s="4">
         <v>44564</v>
@@ -63598,10 +63604,10 @@
         <v>0.65493646138807426</v>
       </c>
       <c r="G489">
-        <v>1870</v>
+        <v>185</v>
       </c>
       <c r="H489">
-        <v>1150</v>
+        <v>116</v>
       </c>
       <c r="I489" s="4"/>
       <c r="J489">
@@ -63632,10 +63638,10 @@
         <v>0.65008596668050034</v>
       </c>
       <c r="G490">
-        <v>1850</v>
+        <v>180</v>
       </c>
       <c r="H490">
-        <v>1160</v>
+        <v>113</v>
       </c>
       <c r="I490" s="4">
         <v>44566</v>
@@ -63668,10 +63674,10 @@
         <v>0.6514194179941265</v>
       </c>
       <c r="G491">
-        <v>1800</v>
+        <v>195</v>
       </c>
       <c r="H491">
-        <v>1130</v>
+        <v>109</v>
       </c>
       <c r="I491" s="4"/>
       <c r="J491">
@@ -63702,10 +63708,10 @@
         <v>0.66431179316690903</v>
       </c>
       <c r="G492">
-        <v>1950</v>
+        <v>187</v>
       </c>
       <c r="H492">
-        <v>1090</v>
+        <v>116</v>
       </c>
       <c r="I492" s="4"/>
       <c r="J492">
@@ -63736,10 +63742,10 @@
         <v>0.64514212730567022</v>
       </c>
       <c r="G493">
-        <v>1870</v>
+        <v>180</v>
       </c>
       <c r="H493">
-        <v>1160</v>
+        <v>120</v>
       </c>
       <c r="I493" s="4">
         <v>44569</v>
@@ -63772,10 +63778,10 @@
         <v>0.65103005440114148</v>
       </c>
       <c r="G494">
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="H494">
-        <v>1200</v>
+        <v>115</v>
       </c>
       <c r="I494" s="4"/>
       <c r="J494">
@@ -63806,10 +63812,10 @@
         <v>0.64703257474341813</v>
       </c>
       <c r="G495">
-        <v>2000</v>
+        <v>178</v>
       </c>
       <c r="H495">
-        <v>1150</v>
+        <v>105</v>
       </c>
       <c r="I495" s="4"/>
       <c r="J495">
@@ -63840,10 +63846,10 @@
         <v>0.65184391463523528</v>
       </c>
       <c r="G496">
-        <v>1780</v>
+        <v>188</v>
       </c>
       <c r="H496">
-        <v>1050</v>
+        <v>112</v>
       </c>
       <c r="I496" s="4">
         <v>44572</v>
@@ -63876,10 +63882,10 @@
         <v>0.65143572024305973</v>
       </c>
       <c r="G497">
-        <v>1880</v>
+        <v>193</v>
       </c>
       <c r="H497">
-        <v>1120</v>
+        <v>120</v>
       </c>
       <c r="I497" s="4"/>
       <c r="J497">
@@ -63910,10 +63916,10 @@
         <v>0.65814182240901364</v>
       </c>
       <c r="G498">
-        <v>1930</v>
+        <v>190</v>
       </c>
       <c r="H498">
-        <v>1200</v>
+        <v>109</v>
       </c>
       <c r="I498" s="4"/>
       <c r="J498">
@@ -63944,10 +63950,10 @@
         <v>0.64161073825503356</v>
       </c>
       <c r="G499">
-        <v>1900</v>
+        <v>185</v>
       </c>
       <c r="H499">
-        <v>1090</v>
+        <v>113</v>
       </c>
       <c r="I499" s="4"/>
       <c r="J499">
@@ -63978,10 +63984,10 @@
         <v>0.64557528727055669</v>
       </c>
       <c r="G500">
-        <v>1850</v>
+        <v>188</v>
       </c>
       <c r="H500">
-        <v>1130</v>
+        <v>116</v>
       </c>
       <c r="I500" s="4">
         <v>44576</v>
@@ -64014,10 +64020,10 @@
         <v>0.64245392909411303</v>
       </c>
       <c r="G501">
-        <v>1880</v>
+        <v>198</v>
       </c>
       <c r="H501">
-        <v>1160</v>
+        <v>115</v>
       </c>
       <c r="I501" s="4"/>
       <c r="J501">
@@ -64048,10 +64054,10 @@
         <v>0.65720263000597734</v>
       </c>
       <c r="G502">
-        <v>1980</v>
+        <v>180</v>
       </c>
       <c r="H502">
-        <v>1150</v>
+        <v>110</v>
       </c>
       <c r="I502" s="4"/>
       <c r="J502">
@@ -64082,10 +64088,10 @@
         <v>0.64419654873343901</v>
       </c>
       <c r="G503">
-        <v>1800</v>
+        <v>195</v>
       </c>
       <c r="H503">
-        <v>1100</v>
+        <v>111</v>
       </c>
       <c r="I503" s="4"/>
       <c r="J503">
@@ -64116,10 +64122,10 @@
         <v>0.66253703204955561</v>
       </c>
       <c r="G504">
-        <v>1950</v>
+        <v>183</v>
       </c>
       <c r="H504">
-        <v>1110</v>
+        <v>120</v>
       </c>
       <c r="I504" s="4"/>
       <c r="J504">
@@ -64150,10 +64156,10 @@
         <v>0.66660677387476419</v>
       </c>
       <c r="G505">
-        <v>1830</v>
+        <v>188</v>
       </c>
       <c r="H505">
-        <v>1200</v>
+        <v>109</v>
       </c>
       <c r="I505" s="4">
         <v>44581</v>
@@ -64186,10 +64192,10 @@
         <v>0.6634105414556678</v>
       </c>
       <c r="G506">
-        <v>1880</v>
+        <v>190</v>
       </c>
       <c r="H506">
-        <v>1090</v>
+        <v>115</v>
       </c>
       <c r="I506" s="4"/>
       <c r="J506">
@@ -64220,10 +64226,10 @@
         <v>0.6467766116941529</v>
       </c>
       <c r="G507">
-        <v>1900</v>
+        <v>185</v>
       </c>
       <c r="H507">
-        <v>1150</v>
+        <v>113</v>
       </c>
       <c r="I507" s="4">
         <v>44583</v>
@@ -64256,10 +64262,10 @@
         <v>0.64892595703828149</v>
       </c>
       <c r="G508">
-        <v>1850</v>
+        <v>200</v>
       </c>
       <c r="H508">
-        <v>1130</v>
+        <v>116</v>
       </c>
       <c r="I508" s="4"/>
       <c r="J508">
@@ -64290,10 +64296,10 @@
         <v>0.64305013509456621</v>
       </c>
       <c r="G509">
-        <v>2000</v>
+        <v>185</v>
       </c>
       <c r="H509">
-        <v>1160</v>
+        <v>120</v>
       </c>
       <c r="I509" s="4"/>
       <c r="J509">
@@ -64324,10 +64330,10 @@
         <v>0.67051189617880314</v>
       </c>
       <c r="G510">
-        <v>1850</v>
+        <v>187</v>
       </c>
       <c r="H510">
-        <v>1200</v>
+        <v>118</v>
       </c>
       <c r="I510" s="4"/>
       <c r="J510">
@@ -64358,10 +64364,10 @@
         <v>0.65552583330828651</v>
       </c>
       <c r="G511">
-        <v>1870</v>
+        <v>195</v>
       </c>
       <c r="H511">
-        <v>1180</v>
+        <v>115</v>
       </c>
       <c r="I511" s="4">
         <v>44587</v>
@@ -64394,10 +64400,10 @@
         <v>0.66688725785104075</v>
       </c>
       <c r="G512">
-        <v>1950</v>
+        <v>187</v>
       </c>
       <c r="H512">
-        <v>1150</v>
+        <v>100</v>
       </c>
       <c r="I512" s="4"/>
       <c r="J512">
@@ -64428,10 +64434,10 @@
         <v>0.64381170238381891</v>
       </c>
       <c r="G513">
-        <v>1870</v>
+        <v>180</v>
       </c>
       <c r="H513">
-        <v>1000</v>
+        <v>132</v>
       </c>
       <c r="I513" s="4"/>
       <c r="J513">
@@ -64462,10 +64468,10 @@
         <v>0.67760879385634698</v>
       </c>
       <c r="G514">
-        <v>1800</v>
+        <v>188</v>
       </c>
       <c r="H514">
-        <v>1320</v>
+        <v>127</v>
       </c>
       <c r="I514" s="4">
         <v>44590</v>
@@ -64498,10 +64504,10 @@
         <v>0.64545290182607129</v>
       </c>
       <c r="G515">
-        <v>1880</v>
+        <v>195</v>
       </c>
       <c r="H515">
-        <v>1270</v>
+        <v>116</v>
       </c>
       <c r="I515" s="4"/>
       <c r="J515">
@@ -64532,10 +64538,10 @@
         <v>0.65762098597919494</v>
       </c>
       <c r="G516">
-        <v>1950</v>
+        <v>183</v>
       </c>
       <c r="H516">
-        <v>1160</v>
+        <v>105</v>
       </c>
       <c r="I516" s="4"/>
       <c r="J516">
@@ -64566,10 +64572,10 @@
         <v>0.6308834178131788</v>
       </c>
       <c r="G517">
-        <v>1830</v>
+        <v>188</v>
       </c>
       <c r="H517">
-        <v>1050</v>
+        <v>109</v>
       </c>
       <c r="I517" s="4"/>
       <c r="J517">
@@ -64600,10 +64606,10 @@
         <v>0.63479127048809203</v>
       </c>
       <c r="G518">
-        <v>1880</v>
+        <v>190</v>
       </c>
       <c r="H518">
-        <v>1090</v>
+        <v>111</v>
       </c>
       <c r="I518" s="4">
         <v>44594</v>
@@ -64636,10 +64642,10 @@
         <v>0.63689074107628196</v>
       </c>
       <c r="G519">
-        <v>1900</v>
+        <v>193</v>
       </c>
       <c r="H519">
-        <v>1110</v>
+        <v>109</v>
       </c>
       <c r="I519" s="4"/>
       <c r="J519">
@@ -64670,10 +64676,10 @@
         <v>0.65268628754457003</v>
       </c>
       <c r="G520">
-        <v>1930</v>
+        <v>184</v>
       </c>
       <c r="H520">
-        <v>1090</v>
+        <v>133</v>
       </c>
       <c r="I520" s="4"/>
       <c r="J520">
@@ -64704,10 +64710,10 @@
         <v>0.65753673136223467</v>
       </c>
       <c r="G521">
-        <v>1840</v>
+        <v>187</v>
       </c>
       <c r="H521">
-        <v>1330</v>
+        <v>99</v>
       </c>
       <c r="I521" s="4">
         <v>44597</v>
@@ -64740,10 +64746,10 @@
         <v>0.65258826732823039</v>
       </c>
       <c r="G522">
-        <v>1870</v>
+        <v>185</v>
       </c>
       <c r="H522">
-        <v>990</v>
+        <v>131</v>
       </c>
       <c r="I522" s="4"/>
       <c r="J522">
@@ -64774,10 +64780,10 @@
         <v>0.66295332082097236</v>
       </c>
       <c r="G523">
-        <v>1850</v>
+        <v>190</v>
       </c>
       <c r="H523">
-        <v>1310</v>
+        <v>95</v>
       </c>
       <c r="I523" s="4"/>
       <c r="J523">
@@ -64808,10 +64814,10 @@
         <v>0.67886462088394772</v>
       </c>
       <c r="G524">
-        <v>1900</v>
+        <v>195</v>
       </c>
       <c r="H524">
-        <v>950</v>
+        <v>123</v>
       </c>
       <c r="I524" s="4"/>
       <c r="J524">
@@ -64842,10 +64848,10 @@
         <v>0.67382013276348096</v>
       </c>
       <c r="G525">
-        <v>1950</v>
+        <v>188</v>
       </c>
       <c r="H525">
-        <v>1230</v>
+        <v>119</v>
       </c>
       <c r="I525" s="4">
         <v>44601</v>
@@ -64878,10 +64884,10 @@
         <v>0.69323144104803491</v>
       </c>
       <c r="G526">
-        <v>1880</v>
+        <v>180</v>
       </c>
       <c r="H526">
-        <v>1190</v>
+        <v>113</v>
       </c>
       <c r="I526" s="4"/>
       <c r="J526">
@@ -64912,10 +64918,10 @@
         <v>0.63719391934945535</v>
       </c>
       <c r="G527">
-        <v>1800</v>
+        <v>198</v>
       </c>
       <c r="H527">
-        <v>1130</v>
+        <v>117</v>
       </c>
       <c r="I527" s="4"/>
       <c r="J527">
@@ -64946,10 +64952,10 @@
         <v>0.63477125770316623</v>
       </c>
       <c r="G528">
-        <v>1980</v>
+        <v>180</v>
       </c>
       <c r="H528">
-        <v>1170</v>
+        <v>117</v>
       </c>
       <c r="I528" s="4">
         <v>44604</v>
@@ -64982,10 +64988,10 @@
         <v>0.63610680761870042</v>
       </c>
       <c r="G529">
-        <v>1800</v>
+        <v>199</v>
       </c>
       <c r="H529">
-        <v>1170</v>
+        <v>109</v>
       </c>
       <c r="I529" s="4"/>
       <c r="J529">
@@ -65016,10 +65022,10 @@
         <v>0.62275849492432067</v>
       </c>
       <c r="G530">
-        <v>1990</v>
+        <v>192</v>
       </c>
       <c r="H530">
-        <v>1090</v>
+        <v>115</v>
       </c>
       <c r="I530" s="4"/>
       <c r="J530">
@@ -65050,10 +65056,10 @@
         <v>0.66330099449530122</v>
       </c>
       <c r="G531">
-        <v>1920</v>
+        <v>180</v>
       </c>
       <c r="H531">
-        <v>1150</v>
+        <v>122</v>
       </c>
       <c r="I531" s="4"/>
       <c r="J531">
@@ -65084,10 +65090,10 @@
         <v>0.67013603578928149</v>
       </c>
       <c r="G532">
-        <v>1800</v>
+        <v>188</v>
       </c>
       <c r="H532">
-        <v>1220</v>
+        <v>109</v>
       </c>
       <c r="I532" s="4">
         <v>44608</v>
@@ -65120,10 +65126,10 @@
         <v>0.67592254293021559</v>
       </c>
       <c r="G533">
-        <v>1880</v>
+        <v>195</v>
       </c>
       <c r="H533">
-        <v>1090</v>
+        <v>106</v>
       </c>
       <c r="I533" s="4"/>
       <c r="J533">
@@ -65154,10 +65160,10 @@
         <v>0.66991622239146986</v>
       </c>
       <c r="G534">
-        <v>1950</v>
+        <v>185</v>
       </c>
       <c r="H534">
-        <v>1060</v>
+        <v>119</v>
       </c>
       <c r="I534" s="4"/>
       <c r="J534">
@@ -65188,10 +65194,10 @@
         <v>0.66290765010667474</v>
       </c>
       <c r="G535">
-        <v>1850</v>
+        <v>188</v>
       </c>
       <c r="H535">
-        <v>1190</v>
+        <v>110</v>
       </c>
       <c r="I535" s="4">
         <v>44611</v>
@@ -65224,10 +65230,10 @@
         <v>0.67056993870643122</v>
       </c>
       <c r="G536">
-        <v>1880</v>
+        <v>194</v>
       </c>
       <c r="H536">
-        <v>1100</v>
+        <v>110</v>
       </c>
       <c r="I536" s="4"/>
       <c r="J536">
@@ -65258,10 +65264,10 @@
         <v>0.70659303780089699</v>
       </c>
       <c r="G537">
-        <v>1940</v>
+        <v>193</v>
       </c>
       <c r="H537">
-        <v>1100</v>
+        <v>122</v>
       </c>
       <c r="I537" s="4">
         <v>44613</v>
@@ -65294,10 +65300,10 @@
         <v>0.69149748130056476</v>
       </c>
       <c r="G538">
-        <v>1930</v>
+        <v>180</v>
       </c>
       <c r="H538">
-        <v>1220</v>
+        <v>110</v>
       </c>
       <c r="I538" s="4"/>
       <c r="J538">
@@ -65328,10 +65334,10 @@
         <v>0.70008247044808947</v>
       </c>
       <c r="G539">
-        <v>1800</v>
+        <v>195</v>
       </c>
       <c r="H539">
-        <v>1100</v>
+        <v>102</v>
       </c>
       <c r="I539" s="4">
         <v>44615</v>
@@ -65364,10 +65370,10 @@
         <v>0.70601179742657172</v>
       </c>
       <c r="G540">
-        <v>1950</v>
+        <v>187</v>
       </c>
       <c r="H540">
-        <v>1020</v>
+        <v>110</v>
       </c>
       <c r="I540" s="4"/>
       <c r="J540">
@@ -65398,10 +65404,10 @@
         <v>0.73206531710598743</v>
       </c>
       <c r="G541">
-        <v>1870</v>
+        <v>190</v>
       </c>
       <c r="H541">
-        <v>1100</v>
+        <v>121</v>
       </c>
       <c r="I541" s="4"/>
       <c r="J541">
@@ -65432,10 +65438,10 @@
         <v>0.70593635250917997</v>
       </c>
       <c r="G542">
-        <v>1900</v>
+        <v>188</v>
       </c>
       <c r="H542">
-        <v>1210</v>
+        <v>114</v>
       </c>
       <c r="I542" s="4">
         <v>44618</v>
@@ -65468,10 +65474,10 @@
         <v>0.7210655235762401</v>
       </c>
       <c r="G543">
-        <v>1880</v>
+        <v>183</v>
       </c>
       <c r="H543">
-        <v>1140</v>
+        <v>105</v>
       </c>
       <c r="I543" s="4"/>
       <c r="J543">
@@ -65502,10 +65508,10 @@
         <v>0.71498590858963362</v>
       </c>
       <c r="G544">
-        <v>1830</v>
+        <v>185</v>
       </c>
       <c r="H544">
-        <v>1050</v>
+        <v>99</v>
       </c>
       <c r="I544" s="4"/>
       <c r="J544">
@@ -65536,10 +65542,10 @@
         <v>0.7293295318679297</v>
       </c>
       <c r="G545">
-        <v>1850</v>
+        <v>190</v>
       </c>
       <c r="H545">
-        <v>990</v>
+        <v>135</v>
       </c>
       <c r="I545" s="4">
         <v>44621</v>
@@ -65572,10 +65578,10 @@
         <v>0.74903380160726341</v>
       </c>
       <c r="G546">
-        <v>1900</v>
+        <v>191</v>
       </c>
       <c r="H546">
-        <v>1350</v>
+        <v>111</v>
       </c>
       <c r="I546" s="4"/>
       <c r="J546">
@@ -65606,10 +65612,10 @@
         <v>0.70812486571104083</v>
       </c>
       <c r="G547">
-        <v>1910</v>
+        <v>180</v>
       </c>
       <c r="H547">
-        <v>1110</v>
+        <v>111</v>
       </c>
       <c r="I547" s="4">
         <v>44623</v>
@@ -65642,10 +65648,10 @@
         <v>0.72878597094683828</v>
       </c>
       <c r="G548">
-        <v>1800</v>
+        <v>187</v>
       </c>
       <c r="H548">
-        <v>1110</v>
+        <v>105</v>
       </c>
       <c r="I548" s="4"/>
       <c r="J548">
@@ -65676,10 +65682,10 @@
         <v>0.71160818533767589</v>
       </c>
       <c r="G549">
-        <v>1870</v>
+        <v>185</v>
       </c>
       <c r="H549">
-        <v>1050</v>
+        <v>114</v>
       </c>
       <c r="I549" s="4">
         <v>44625</v>
@@ -65712,10 +65718,10 @@
         <v>0.72511454841784806</v>
       </c>
       <c r="G550">
-        <v>1850</v>
+        <v>180</v>
       </c>
       <c r="H550">
-        <v>1140</v>
+        <v>107</v>
       </c>
       <c r="I550" s="4"/>
       <c r="J550">
@@ -65746,10 +65752,10 @@
         <v>0.68219582743553453</v>
       </c>
       <c r="G551">
-        <v>1800</v>
+        <v>190</v>
       </c>
       <c r="H551">
-        <v>1070</v>
+        <v>112</v>
       </c>
       <c r="I551" s="4"/>
       <c r="J551">
@@ -65780,10 +65786,10 @@
         <v>0.74547358049020818</v>
       </c>
       <c r="G552">
-        <v>1900</v>
+        <v>183</v>
       </c>
       <c r="H552">
-        <v>1120</v>
+        <v>105</v>
       </c>
       <c r="I552" s="4">
         <v>44628</v>
@@ -65816,10 +65822,10 @@
         <v>0.73842457102368997</v>
       </c>
       <c r="G553">
-        <v>1830</v>
+        <v>188</v>
       </c>
       <c r="H553">
-        <v>1050</v>
+        <v>110</v>
       </c>
       <c r="I553" s="4"/>
       <c r="J553">
@@ -65850,10 +65856,10 @@
         <v>0.7379550568724762</v>
       </c>
       <c r="G554">
-        <v>1880</v>
+        <v>184</v>
       </c>
       <c r="H554">
-        <v>1100</v>
+        <v>113</v>
       </c>
       <c r="I554" s="4">
         <v>44630</v>
@@ -65886,10 +65892,10 @@
         <v>0.71888974556669238</v>
       </c>
       <c r="G555">
-        <v>1840</v>
+        <v>180</v>
       </c>
       <c r="H555">
-        <v>1130</v>
+        <v>109</v>
       </c>
       <c r="I555" s="4"/>
       <c r="J555">
@@ -65920,10 +65926,10 @@
         <v>0.72028144673497096</v>
       </c>
       <c r="G556">
-        <v>1800</v>
+        <v>189</v>
       </c>
       <c r="H556">
-        <v>1090</v>
+        <v>112</v>
       </c>
       <c r="I556" s="4">
         <v>44632</v>
@@ -65956,10 +65962,10 @@
         <v>0.73184288537549402</v>
       </c>
       <c r="G557">
-        <v>1890</v>
+        <v>187</v>
       </c>
       <c r="H557">
-        <v>1120</v>
+        <v>108</v>
       </c>
       <c r="I557" s="4"/>
       <c r="J557">
@@ -65990,10 +65996,10 @@
         <v>0.70823805698040909</v>
       </c>
       <c r="G558">
-        <v>1870</v>
+        <v>185</v>
       </c>
       <c r="H558">
-        <v>1080</v>
+        <v>111</v>
       </c>
       <c r="I558" s="4">
         <v>44634</v>
@@ -66026,10 +66032,10 @@
         <v>0.73550780646158598</v>
       </c>
       <c r="G559">
-        <v>1850</v>
+        <v>189</v>
       </c>
       <c r="H559">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="I559" s="4"/>
       <c r="J559">
@@ -66060,10 +66066,10 @@
         <v>0.72668213457076569</v>
       </c>
       <c r="G560">
-        <v>1890</v>
+        <v>187</v>
       </c>
       <c r="H560">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="I560" s="4">
         <v>44636</v>
@@ -66096,10 +66102,10 @@
         <v>0.71965827839167984</v>
       </c>
       <c r="G561">
-        <v>1870</v>
+        <v>192</v>
       </c>
       <c r="H561">
-        <v>1100</v>
+        <v>105</v>
       </c>
       <c r="I561" s="4"/>
       <c r="J561">
@@ -66130,10 +66136,10 @@
         <v>0.7051937192232649</v>
       </c>
       <c r="G562">
-        <v>1920</v>
+        <v>180</v>
       </c>
       <c r="H562">
-        <v>1050</v>
+        <v>112</v>
       </c>
       <c r="I562" s="4"/>
       <c r="J562">
@@ -66164,10 +66170,10 @@
         <v>0.71207238472979673</v>
       </c>
       <c r="G563">
-        <v>1800</v>
+        <v>188</v>
       </c>
       <c r="H563">
-        <v>1120</v>
+        <v>103</v>
       </c>
       <c r="I563" s="4">
         <v>44639</v>
@@ -66200,10 +66206,10 @@
         <v>0.72735164630743476</v>
       </c>
       <c r="G564">
-        <v>1880</v>
+        <v>191</v>
       </c>
       <c r="H564">
-        <v>1030</v>
+        <v>111</v>
       </c>
       <c r="I564" s="4"/>
       <c r="J564">
@@ -66234,10 +66240,10 @@
         <v>0.72303731505319646</v>
       </c>
       <c r="G565">
-        <v>1910</v>
+        <v>185</v>
       </c>
       <c r="H565">
-        <v>1110</v>
+        <v>128</v>
       </c>
       <c r="I565" s="4"/>
       <c r="J565">
@@ -66268,10 +66274,10 @@
         <v>0.73177543990317473</v>
       </c>
       <c r="G566">
-        <v>1850</v>
+        <v>190</v>
       </c>
       <c r="H566">
-        <v>1280</v>
+        <v>117</v>
       </c>
       <c r="I566" s="4">
         <v>44642</v>
@@ -66304,10 +66310,10 @@
         <v>0.7367734724292101</v>
       </c>
       <c r="G567">
-        <v>1900</v>
+        <v>187</v>
       </c>
       <c r="H567">
-        <v>1170</v>
+        <v>103</v>
       </c>
       <c r="I567" s="4"/>
       <c r="J567">
@@ -66338,10 +66344,10 @@
         <v>0.7204100652376515</v>
       </c>
       <c r="G568">
-        <v>1870</v>
+        <v>189</v>
       </c>
       <c r="H568">
-        <v>1030</v>
+        <v>128</v>
       </c>
       <c r="I568" s="4">
         <v>44644</v>
@@ -66374,10 +66380,10 @@
         <v>0.71257578112855591</v>
       </c>
       <c r="G569">
-        <v>1890</v>
+        <v>180</v>
       </c>
       <c r="H569">
-        <v>1280</v>
+        <v>120</v>
       </c>
       <c r="I569" s="4"/>
       <c r="J569">
@@ -66408,10 +66414,10 @@
         <v>0.73063763608087096</v>
       </c>
       <c r="G570">
-        <v>1800</v>
+        <v>192</v>
       </c>
       <c r="H570">
-        <v>1200</v>
+        <v>121</v>
       </c>
       <c r="I570" s="4">
         <v>44646</v>
@@ -66444,10 +66450,10 @@
         <v>0.73384787750529068</v>
       </c>
       <c r="G571">
-        <v>1920</v>
+        <v>185</v>
       </c>
       <c r="H571">
-        <v>1210</v>
+        <v>101</v>
       </c>
       <c r="I571" s="4"/>
       <c r="J571">
@@ -66478,10 +66484,10 @@
         <v>0.68375003892019803</v>
       </c>
       <c r="G572">
-        <v>1850</v>
+        <v>190</v>
       </c>
       <c r="H572">
-        <v>1010</v>
+        <v>94</v>
       </c>
       <c r="I572" s="4"/>
       <c r="J572">
@@ -66512,10 +66518,10 @@
         <v>0.70200037390166381</v>
       </c>
       <c r="G573">
-        <v>1900</v>
+        <v>183</v>
       </c>
       <c r="H573">
-        <v>940</v>
+        <v>99</v>
       </c>
       <c r="I573" s="4">
         <v>44649</v>
@@ -66548,10 +66554,10 @@
         <v>0.74254184980828575</v>
       </c>
       <c r="G574">
-        <v>1830</v>
+        <v>187</v>
       </c>
       <c r="H574">
-        <v>990</v>
+        <v>117</v>
       </c>
       <c r="I574" s="4"/>
       <c r="J574">
@@ -66582,10 +66588,10 @@
         <v>0.72997254804092837</v>
       </c>
       <c r="G575">
-        <v>1870</v>
+        <v>187</v>
       </c>
       <c r="H575">
-        <v>1170</v>
+        <v>108</v>
       </c>
       <c r="I575" s="4">
         <v>44651</v>
@@ -66618,10 +66624,10 @@
         <v>0.70692883895131087</v>
       </c>
       <c r="G576">
-        <v>1870</v>
+        <v>180</v>
       </c>
       <c r="H576">
-        <v>1080</v>
+        <v>110</v>
       </c>
       <c r="I576" s="4"/>
       <c r="J576">
@@ -66652,10 +66658,10 @@
         <v>0.72142410993129291</v>
       </c>
       <c r="G577">
-        <v>1800</v>
+        <v>192</v>
       </c>
       <c r="H577">
-        <v>1100</v>
+        <v>108</v>
       </c>
       <c r="I577" s="4">
         <v>44653</v>
@@ -66688,10 +66694,10 @@
         <v>0.73675988126855174</v>
       </c>
       <c r="G578">
-        <v>1920</v>
+        <v>188</v>
       </c>
       <c r="H578">
-        <v>1080</v>
+        <v>104</v>
       </c>
       <c r="I578" s="4"/>
       <c r="J578">
@@ -66722,10 +66728,10 @@
         <v>0.70899371659007782</v>
       </c>
       <c r="G579">
-        <v>1880</v>
+        <v>185</v>
       </c>
       <c r="H579">
-        <v>1040</v>
+        <v>119</v>
       </c>
       <c r="I579" s="4"/>
       <c r="J579">
@@ -66756,10 +66762,10 @@
         <v>0.71225249460414775</v>
       </c>
       <c r="G580">
-        <v>1850</v>
+        <v>187</v>
       </c>
       <c r="H580">
-        <v>1190</v>
+        <v>107</v>
       </c>
       <c r="I580" s="4">
         <v>44656</v>
@@ -66792,10 +66798,10 @@
         <v>0.72108162243365048</v>
       </c>
       <c r="G581">
-        <v>1870</v>
+        <v>185</v>
       </c>
       <c r="H581">
-        <v>1070</v>
+        <v>102</v>
       </c>
       <c r="I581" s="4"/>
       <c r="J581">
@@ -66826,10 +66832,10 @@
         <v>0.72994300745287155</v>
       </c>
       <c r="G582">
-        <v>1850</v>
+        <v>191</v>
       </c>
       <c r="H582">
-        <v>1020</v>
+        <v>107</v>
       </c>
       <c r="I582" s="4">
         <v>44658</v>
@@ -66862,10 +66868,10 @@
         <v>0.70307359714258855</v>
       </c>
       <c r="G583">
-        <v>1910</v>
+        <v>180</v>
       </c>
       <c r="H583">
-        <v>1070</v>
+        <v>120</v>
       </c>
       <c r="I583" s="4"/>
       <c r="J583">
@@ -66896,10 +66902,10 @@
         <v>0.71468873424863644</v>
       </c>
       <c r="G584">
-        <v>1800</v>
+        <v>185</v>
       </c>
       <c r="H584">
-        <v>1200</v>
+        <v>107</v>
       </c>
       <c r="I584" s="4">
         <v>44660</v>
@@ -66932,10 +66938,10 @@
         <v>0.71504735620648563</v>
       </c>
       <c r="G585">
-        <v>1850</v>
+        <v>186</v>
       </c>
       <c r="H585">
-        <v>1070</v>
+        <v>108</v>
       </c>
       <c r="I585" s="4"/>
       <c r="J585">
@@ -66966,10 +66972,10 @@
         <v>0.70792017070415458</v>
       </c>
       <c r="G586">
-        <v>1860</v>
+        <v>188</v>
       </c>
       <c r="H586">
-        <v>1080</v>
+        <v>105</v>
       </c>
       <c r="I586" s="4"/>
       <c r="J586">
@@ -67000,10 +67006,10 @@
         <v>0.7347861583872386</v>
       </c>
       <c r="G587">
-        <v>1880</v>
+        <v>190</v>
       </c>
       <c r="H587">
-        <v>1050</v>
+        <v>106</v>
       </c>
       <c r="I587" s="4">
         <v>44663</v>
@@ -67036,10 +67042,10 @@
         <v>0.72775263951734537</v>
       </c>
       <c r="G588">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="H588">
-        <v>1060</v>
+        <v>99</v>
       </c>
       <c r="I588" s="4"/>
       <c r="J588">
@@ -67070,10 +67076,10 @@
         <v>0.70835691378985099</v>
       </c>
       <c r="G589">
-        <v>1800</v>
+        <v>189</v>
       </c>
       <c r="H589">
-        <v>990</v>
+        <v>107</v>
       </c>
       <c r="I589" s="4">
         <v>44665</v>
@@ -67106,10 +67112,10 @@
         <v>0.73423933559833898</v>
       </c>
       <c r="G590">
-        <v>1890</v>
+        <v>188</v>
       </c>
       <c r="H590">
-        <v>1070</v>
+        <v>102</v>
       </c>
       <c r="I590" s="4"/>
       <c r="J590">
@@ -67140,10 +67146,10 @@
         <v>0.71763557961663149</v>
       </c>
       <c r="G591">
-        <v>1880</v>
+        <v>190</v>
       </c>
       <c r="H591">
-        <v>1020</v>
+        <v>112</v>
       </c>
       <c r="I591" s="4">
         <v>44667</v>
@@ -67176,10 +67182,10 @@
         <v>0.73120040307343492</v>
       </c>
       <c r="G592">
-        <v>1900</v>
+        <v>185</v>
       </c>
       <c r="H592">
-        <v>1120</v>
+        <v>104</v>
       </c>
       <c r="I592" s="4"/>
       <c r="J592">
@@ -67210,10 +67216,10 @@
         <v>0.69187145557655949</v>
       </c>
       <c r="G593">
-        <v>1850</v>
+        <v>189</v>
       </c>
       <c r="H593">
-        <v>1040</v>
+        <v>101</v>
       </c>
       <c r="I593" s="4"/>
       <c r="J593">
@@ -67244,10 +67250,10 @@
         <v>0.70735090152565883</v>
       </c>
       <c r="G594">
-        <v>1890</v>
+        <v>190</v>
       </c>
       <c r="H594">
-        <v>1010</v>
+        <v>108</v>
       </c>
       <c r="I594" s="4"/>
       <c r="J594">
@@ -67278,10 +67284,10 @@
         <v>0.75503831961396539</v>
       </c>
       <c r="G595">
-        <v>1900</v>
+        <v>184</v>
       </c>
       <c r="H595">
-        <v>1080</v>
+        <v>99</v>
       </c>
       <c r="I595" s="4">
         <v>44671</v>
@@ -67314,10 +67320,10 @@
         <v>0.71185157137447941</v>
       </c>
       <c r="G596">
-        <v>1840</v>
+        <v>186</v>
       </c>
       <c r="H596">
-        <v>990</v>
+        <v>104</v>
       </c>
       <c r="I596" s="4"/>
       <c r="J596">
@@ -67348,10 +67354,10 @@
         <v>0.69511964139150195</v>
       </c>
       <c r="G597">
-        <v>1860</v>
+        <v>189</v>
       </c>
       <c r="H597">
-        <v>1040</v>
+        <v>100</v>
       </c>
       <c r="I597" s="4"/>
       <c r="J597">
@@ -67382,10 +67388,10 @@
         <v>0.69549287767284673</v>
       </c>
       <c r="G598">
-        <v>1890</v>
+        <v>188</v>
       </c>
       <c r="H598">
-        <v>1000</v>
+        <v>104</v>
       </c>
       <c r="I598" s="4">
         <v>44674</v>
@@ -67418,10 +67424,10 @@
         <v>0.70166566579221845</v>
       </c>
       <c r="G599">
-        <v>1880</v>
+        <v>185</v>
       </c>
       <c r="H599">
-        <v>1040</v>
+        <v>101</v>
       </c>
       <c r="I599" s="4"/>
       <c r="J599">
@@ -67452,10 +67458,10 @@
         <v>0.65709587654945611</v>
       </c>
       <c r="G600">
-        <v>1850</v>
+        <v>190</v>
       </c>
       <c r="H600">
-        <v>1010</v>
+        <v>102</v>
       </c>
       <c r="I600" s="4"/>
       <c r="J600">
@@ -67486,10 +67492,10 @@
         <v>0.73837393229990511</v>
       </c>
       <c r="G601">
-        <v>1900</v>
+        <v>184</v>
       </c>
       <c r="H601">
-        <v>1020</v>
+        <v>95</v>
       </c>
       <c r="I601" s="4"/>
       <c r="J601">
@@ -67520,10 +67526,10 @@
         <v>0.74532392315726181</v>
       </c>
       <c r="G602">
-        <v>1840</v>
+        <v>189</v>
       </c>
       <c r="H602">
-        <v>950</v>
+        <v>119</v>
       </c>
       <c r="I602" s="4">
         <v>44678</v>
@@ -67556,10 +67562,10 @@
         <v>0.72197593413552885</v>
       </c>
       <c r="G603">
-        <v>1890</v>
+        <v>185</v>
       </c>
       <c r="H603">
-        <v>1190</v>
+        <v>114</v>
       </c>
       <c r="I603" s="4"/>
       <c r="J603">
@@ -67590,10 +67596,10 @@
         <v>0.70432798935428675</v>
       </c>
       <c r="G604">
-        <v>1850</v>
+        <v>188</v>
       </c>
       <c r="H604">
-        <v>1140</v>
+        <v>117</v>
       </c>
       <c r="I604" s="4"/>
       <c r="J604">
@@ -67624,10 +67630,10 @@
         <v>0.56399201090574769</v>
       </c>
       <c r="G605">
-        <v>1880</v>
+        <v>190</v>
       </c>
       <c r="H605">
-        <v>1170</v>
+        <v>114</v>
       </c>
       <c r="I605" s="4"/>
       <c r="J605">
@@ -67658,10 +67664,10 @@
         <v>0.49760553106466654</v>
       </c>
       <c r="G606">
-        <v>1900</v>
+        <v>170</v>
       </c>
       <c r="H606">
-        <v>1140</v>
+        <v>97</v>
       </c>
       <c r="I606" s="4"/>
       <c r="J606">
@@ -67692,10 +67698,10 @@
         <v>0.49971444888635064</v>
       </c>
       <c r="G607">
-        <v>1700</v>
+        <v>170</v>
       </c>
       <c r="H607">
-        <v>970</v>
+        <v>97</v>
       </c>
       <c r="I607" s="4">
         <v>44683</v>

--- a/Data/Chickens data/DataCycleCleaning.xlsx
+++ b/Data/Chickens data/DataCycleCleaning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Documents\DASA---Project\Data\Chickens data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C62019-7EAA-4C15-9197-EF54F0E25884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC6A924-B7D8-4A4E-8890-14FB45992446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="20">
   <si>
     <t>0</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>Laied</t>
-  </si>
-  <si>
-    <t>42139</t>
   </si>
 </sst>
 </file>
@@ -540,11 +537,11 @@
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{0F10D011-4763-4501-88FD-E8AEF2A6CCBA}" name="Arrival Chickens Date" totalsRowLabel="Total" dataDxfId="32" totalsRowDxfId="31"/>
     <tableColumn id="2" xr3:uid="{0C8A19F1-F4A0-4F0B-9886-086176DAF095}" name="Death" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{2DA2A574-E6E5-461A-8F31-DAD7F9FCDADF}" name="42139" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{2DA2A574-E6E5-461A-8F31-DAD7F9FCDADF}" name="Chickens" dataDxfId="28" totalsRowDxfId="27"/>
     <tableColumn id="4" xr3:uid="{27B76BE9-CA3C-4828-9E09-307D98140C5E}" name="Date of Laid" dataDxfId="26" totalsRowDxfId="25"/>
     <tableColumn id="5" xr3:uid="{1A06C482-F450-40C7-A151-18E79B0959F7}" name="Eggs" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23"/>
     <tableColumn id="6" xr3:uid="{C9133909-0F95-40AE-9EEB-B2129C58AB9B}" name="Laied" dataDxfId="22" totalsRowDxfId="21">
-      <calculatedColumnFormula>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</calculatedColumnFormula>
+      <calculatedColumnFormula>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{21FAD57B-C2B1-4218-ABA8-6A88CB2AFB5B}" name="Water" dataDxfId="20" totalsRowDxfId="19"/>
     <tableColumn id="8" xr3:uid="{EE8EE056-0125-4426-B0A8-B73C0D71CBF3}" name="Feed" dataDxfId="18" totalsRowDxfId="17"/>
@@ -8093,7 +8090,7 @@
   <dimension ref="A1:K509"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8119,7 +8116,7 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -8163,7 +8160,7 @@
         <v>30080</v>
       </c>
       <c r="F2">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.71398053643484449</v>
       </c>
       <c r="G2" s="6"/>
@@ -8194,7 +8191,7 @@
         <v>31710</v>
       </c>
       <c r="F3">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.75283112936539964</v>
       </c>
       <c r="G3" s="6"/>
@@ -8225,7 +8222,7 @@
         <v>33800</v>
       </c>
       <c r="F4">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.80269782464139827</v>
       </c>
       <c r="G4" s="6"/>
@@ -8256,7 +8253,7 @@
         <v>34330</v>
       </c>
       <c r="F5">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.81547816998432232</v>
       </c>
       <c r="G5" s="6"/>
@@ -8287,7 +8284,7 @@
         <v>34050</v>
       </c>
       <c r="F6">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.80905764387207146</v>
       </c>
       <c r="G6" s="6"/>
@@ -8318,7 +8315,7 @@
         <v>37110</v>
       </c>
       <c r="F7">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.88195451196615726</v>
       </c>
       <c r="G7" s="6"/>
@@ -8349,7 +8346,7 @@
         <v>37050</v>
       </c>
       <c r="F8">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.88080068467097761</v>
       </c>
       <c r="G8" s="6"/>
@@ -8380,7 +8377,7 @@
         <v>36550</v>
       </c>
       <c r="F9">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.86914132166551727</v>
       </c>
       <c r="G9" s="6"/>
@@ -8411,7 +8408,7 @@
         <v>37290</v>
       </c>
       <c r="F10">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.88688579175189075</v>
       </c>
       <c r="G10" s="6"/>
@@ -8442,7 +8439,7 @@
         <v>37980</v>
       </c>
       <c r="F11">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90348978281038128</v>
       </c>
       <c r="G11" s="6"/>
@@ -8473,7 +8470,7 @@
         <v>36700</v>
       </c>
       <c r="F12">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.87324814999881029</v>
       </c>
       <c r="G12" s="6"/>
@@ -8504,7 +8501,7 @@
         <v>38970</v>
       </c>
       <c r="F13">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.92743758775791907</v>
       </c>
       <c r="G13" s="6"/>
@@ -8535,7 +8532,7 @@
         <v>38890</v>
       </c>
       <c r="F14">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.92570993311275618</v>
       </c>
       <c r="G14" s="6"/>
@@ -8566,7 +8563,7 @@
         <v>37120</v>
       </c>
       <c r="F15">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.88376743964573112</v>
       </c>
       <c r="G15" s="6"/>
@@ -8597,7 +8594,7 @@
         <v>40440</v>
       </c>
       <c r="F16">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.9629259232802343</v>
       </c>
       <c r="G16" s="6"/>
@@ -8628,7 +8625,7 @@
         <v>40260</v>
       </c>
       <c r="F17">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95879971421767085</v>
       </c>
       <c r="G17" s="6"/>
@@ -8659,7 +8656,7 @@
         <v>38810</v>
       </c>
       <c r="F18">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.92437775395974753</v>
       </c>
       <c r="G18" s="6"/>
@@ -8690,7 +8687,7 @@
         <v>40340</v>
       </c>
       <c r="F19">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96091088825897431</v>
       </c>
       <c r="G19" s="6"/>
@@ -8721,7 +8718,7 @@
         <v>39520</v>
       </c>
       <c r="F20">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.94164740641902356</v>
       </c>
       <c r="G20" s="6"/>
@@ -8752,7 +8749,7 @@
         <v>38930</v>
       </c>
       <c r="F21">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.9277220408455068</v>
       </c>
       <c r="G21" s="6"/>
@@ -8783,7 +8780,7 @@
         <v>39200</v>
       </c>
       <c r="F22">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93442349407642245</v>
       </c>
       <c r="G22" s="6"/>
@@ -8814,7 +8811,7 @@
         <v>39180</v>
       </c>
       <c r="F23">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93405807466742952</v>
       </c>
       <c r="G23" s="6"/>
@@ -8845,7 +8842,7 @@
         <v>39790</v>
       </c>
       <c r="F24">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.94889466529940625</v>
       </c>
       <c r="G24" s="6"/>
@@ -8876,7 +8873,7 @@
         <v>40520</v>
       </c>
       <c r="F25">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96641862240030529</v>
       </c>
       <c r="G25" s="6"/>
@@ -8907,7 +8904,7 @@
         <v>39880</v>
       </c>
       <c r="F26">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95126780049137705</v>
       </c>
       <c r="G26" s="6"/>
@@ -8938,7 +8935,7 @@
         <v>39090</v>
       </c>
       <c r="F27">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93262394426683204</v>
       </c>
       <c r="G27" s="6"/>
@@ -8969,7 +8966,7 @@
         <v>39300</v>
       </c>
       <c r="F28">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.9379251091859383</v>
       </c>
       <c r="G28" s="6"/>
@@ -9000,7 +8997,7 @@
         <v>40150</v>
       </c>
       <c r="F29">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.9583482515813343</v>
       </c>
       <c r="G29" s="6"/>
@@ -9031,7 +9028,7 @@
         <v>39750</v>
       </c>
       <c r="F30">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.9489138219145381</v>
       </c>
       <c r="G30" s="6"/>
@@ -9062,7 +9059,7 @@
         <v>38430</v>
       </c>
       <c r="F31">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91753414191576732</v>
       </c>
       <c r="G31" s="6"/>
@@ -9093,7 +9090,7 @@
         <v>40660</v>
       </c>
       <c r="F32">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97093870143515537</v>
       </c>
       <c r="G32" s="6"/>
@@ -9124,7 +9121,7 @@
         <v>38810</v>
       </c>
       <c r="F33">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.92685023762328944</v>
       </c>
       <c r="G33" s="6"/>
@@ -9155,7 +9152,7 @@
         <v>40910</v>
       </c>
       <c r="F34">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97718858234802342</v>
       </c>
       <c r="G34" s="6"/>
@@ -9186,7 +9183,7 @@
         <v>38570</v>
       </c>
       <c r="F35">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.92142669437874769</v>
       </c>
       <c r="G35" s="6"/>
@@ -9217,7 +9214,7 @@
         <v>39910</v>
       </c>
       <c r="F36">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95362117990012185</v>
       </c>
       <c r="G36" s="6"/>
@@ -9248,7 +9245,7 @@
         <v>39620</v>
       </c>
       <c r="F37">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.94680495148879229</v>
       </c>
       <c r="G37" s="6"/>
@@ -9279,7 +9276,7 @@
         <v>40230</v>
       </c>
       <c r="F38">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96156604044170368</v>
       </c>
       <c r="G38" s="6"/>
@@ -9310,7 +9307,7 @@
         <v>39030</v>
       </c>
       <c r="F39">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93299548203571347</v>
       </c>
       <c r="G39" s="6"/>
@@ -9341,7 +9338,7 @@
         <v>39840</v>
       </c>
       <c r="F40">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95247202830639766</v>
       </c>
       <c r="G40" s="6"/>
@@ -9372,7 +9369,7 @@
         <v>39640</v>
       </c>
       <c r="F41">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.94787183165949307</v>
       </c>
       <c r="G41" s="6"/>
@@ -9403,7 +9400,7 @@
         <v>39620</v>
       </c>
       <c r="F42">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.94755219668524138</v>
       </c>
       <c r="G42" s="6"/>
@@ -9434,7 +9431,7 @@
         <v>40110</v>
       </c>
       <c r="F43">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.9594775619557937</v>
       </c>
       <c r="G43" s="6"/>
@@ -9465,7 +9462,7 @@
         <v>40390</v>
       </c>
       <c r="F44">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96633729693518677</v>
       </c>
       <c r="G44" s="6"/>
@@ -9496,7 +9493,7 @@
         <v>39870</v>
       </c>
       <c r="F45">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95407882457105941</v>
       </c>
       <c r="G45" s="6"/>
@@ -9527,7 +9524,7 @@
         <v>39800</v>
       </c>
       <c r="F46">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95265450715687683</v>
       </c>
       <c r="G46" s="6"/>
@@ -9558,7 +9555,7 @@
         <v>40130</v>
       </c>
       <c r="F47">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96085238836346221</v>
       </c>
       <c r="G47" s="6"/>
@@ -9589,7 +9586,7 @@
         <v>40230</v>
       </c>
       <c r="F48">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96363897671744758</v>
       </c>
       <c r="G48" s="6"/>
@@ -9620,7 +9617,7 @@
         <v>40650</v>
       </c>
       <c r="F49">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.9740026356774889</v>
       </c>
       <c r="G49" s="6"/>
@@ -9651,7 +9648,7 @@
         <v>40290</v>
       </c>
       <c r="F50">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96558500695010308</v>
       </c>
       <c r="G50" s="6"/>
@@ -9682,7 +9679,7 @@
         <v>39790</v>
       </c>
       <c r="F51">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95371635387454756</v>
       </c>
       <c r="G51" s="6"/>
@@ -9713,7 +9710,7 @@
         <v>40700</v>
       </c>
       <c r="F52">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.975715004914535</v>
       </c>
       <c r="G52" s="6"/>
@@ -9744,7 +9741,7 @@
         <v>40430</v>
       </c>
       <c r="F53">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96940488179158879</v>
       </c>
       <c r="G53" s="6"/>
@@ -9775,7 +9772,7 @@
         <v>40770</v>
       </c>
       <c r="F54">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97779163468917885</v>
       </c>
       <c r="G54" s="6"/>
@@ -9806,7 +9803,7 @@
         <v>40190</v>
       </c>
       <c r="F55">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96397390386644921</v>
       </c>
       <c r="G55" s="6"/>
@@ -9837,7 +9834,7 @@
         <v>40450</v>
       </c>
       <c r="F56">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97037303586421975</v>
       </c>
       <c r="G56" s="6"/>
@@ -9868,7 +9865,7 @@
         <v>40420</v>
       </c>
       <c r="F57">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96976967370441458</v>
       </c>
       <c r="G57" s="6"/>
@@ -9899,7 +9896,7 @@
         <v>40630</v>
       </c>
       <c r="F58">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97494840908000191</v>
       </c>
       <c r="G58" s="6"/>
@@ -9930,7 +9927,7 @@
         <v>39920</v>
       </c>
       <c r="F59">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95809532952527243</v>
       </c>
       <c r="G59" s="6"/>
@@ -9961,7 +9958,7 @@
         <v>40490</v>
       </c>
       <c r="F60">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97203216900732203</v>
       </c>
       <c r="G60" s="6"/>
@@ -9992,7 +9989,7 @@
         <v>40460</v>
       </c>
       <c r="F61">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97154520350582307</v>
       </c>
       <c r="G61" s="6"/>
@@ -10023,7 +10020,7 @@
         <v>40130</v>
       </c>
       <c r="F62">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96378308276093949</v>
       </c>
       <c r="G62" s="6"/>
@@ -10054,7 +10051,7 @@
         <v>40250</v>
       </c>
       <c r="F63">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96675793822356726</v>
       </c>
       <c r="G63" s="6"/>
@@ -10085,7 +10082,7 @@
         <v>40660</v>
       </c>
       <c r="F64">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97679335030990244</v>
       </c>
       <c r="G64" s="6"/>
@@ -10116,7 +10113,7 @@
         <v>39840</v>
       </c>
       <c r="F65">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95727810082175979</v>
       </c>
       <c r="G65" s="6"/>
@@ -10147,7 +10144,7 @@
         <v>39980</v>
       </c>
       <c r="F66">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96080363365456245</v>
       </c>
       <c r="G66" s="6"/>
@@ -10178,7 +10175,7 @@
         <v>40630</v>
       </c>
       <c r="F67">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97654184492621254</v>
       </c>
       <c r="G67" s="6"/>
@@ -10209,7 +10206,7 @@
         <v>41170</v>
       </c>
       <c r="F68">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98968725209740616</v>
       </c>
       <c r="G68" s="6"/>
@@ -10240,7 +10237,7 @@
         <v>40070</v>
       </c>
       <c r="F69">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96336010001442518</v>
       </c>
       <c r="G69" s="6"/>
@@ -10271,7 +10268,7 @@
         <v>40230</v>
       </c>
       <c r="F70">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96732309024020779</v>
       </c>
       <c r="G70" s="6"/>
@@ -10302,7 +10299,7 @@
         <v>40540</v>
       </c>
       <c r="F71">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97496452706765113</v>
       </c>
       <c r="G71" s="6"/>
@@ -10333,7 +10330,7 @@
         <v>41000</v>
       </c>
       <c r="F72">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98624073895891462</v>
       </c>
       <c r="G72" s="6"/>
@@ -10364,7 +10361,7 @@
         <v>39920</v>
       </c>
       <c r="F73">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96042343317695178</v>
       </c>
       <c r="G73" s="6"/>
@@ -10395,7 +10392,7 @@
         <v>40760</v>
       </c>
       <c r="F74">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98086872819155335</v>
       </c>
       <c r="G74" s="6"/>
@@ -10426,7 +10423,7 @@
         <v>40590</v>
       </c>
       <c r="F75">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97694233176085488</v>
       </c>
       <c r="G75" s="6"/>
@@ -10457,7 +10454,7 @@
         <v>40290</v>
       </c>
       <c r="F76">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96990852190659604</v>
       </c>
       <c r="G76" s="6"/>
@@ -10488,7 +10485,7 @@
         <v>39780</v>
       </c>
       <c r="F77">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95786178666024557</v>
       </c>
       <c r="G77" s="6"/>
@@ -10519,7 +10516,7 @@
         <v>40780</v>
       </c>
       <c r="F78">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98236654461360573</v>
       </c>
       <c r="G78" s="6"/>
@@ -10550,7 +10547,7 @@
         <v>40490</v>
       </c>
       <c r="F79">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97556861989205856</v>
       </c>
       <c r="G79" s="6"/>
@@ -10581,7 +10578,7 @@
         <v>39690</v>
       </c>
       <c r="F80">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95668522669751965</v>
       </c>
       <c r="G80" s="6"/>
@@ -10612,7 +10609,7 @@
         <v>40370</v>
       </c>
       <c r="F81">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97354522873610339</v>
       </c>
       <c r="G81" s="6"/>
@@ -10643,7 +10640,7 @@
         <v>40180</v>
       </c>
       <c r="F82">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96926713947990539</v>
       </c>
       <c r="G82" s="6"/>
@@ -10674,7 +10671,7 @@
         <v>39870</v>
       </c>
       <c r="F83">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96197461757467551</v>
       </c>
       <c r="G83" s="6"/>
@@ -10705,7 +10702,7 @@
         <v>39340</v>
       </c>
       <c r="F84">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.94955346367366644</v>
       </c>
       <c r="G84" s="6"/>
@@ -10736,7 +10733,7 @@
         <v>40520</v>
       </c>
       <c r="F85">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97824774872649134</v>
       </c>
       <c r="G85" s="6"/>
@@ -10767,7 +10764,7 @@
         <v>41330</v>
       </c>
       <c r="F86">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.99818862456225088</v>
       </c>
       <c r="G86" s="6"/>
@@ -10798,7 +10795,7 @@
         <v>37460</v>
       </c>
       <c r="F87">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90494021017031046</v>
       </c>
       <c r="G87" s="6"/>
@@ -10829,7 +10826,7 @@
         <v>40170</v>
       </c>
       <c r="F88">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97057118005218901</v>
       </c>
       <c r="G88" s="6"/>
@@ -10860,7 +10857,7 @@
         <v>40370</v>
       </c>
       <c r="F89">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.9756392285755715</v>
       </c>
       <c r="G89" s="6"/>
@@ -10891,7 +10888,7 @@
         <v>40890</v>
       </c>
       <c r="F90">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98856465923651571</v>
       </c>
       <c r="G90" s="6"/>
@@ -10922,7 +10919,7 @@
         <v>39900</v>
       </c>
       <c r="F91">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96479350033852407</v>
       </c>
       <c r="G91" s="6"/>
@@ -10953,7 +10950,7 @@
         <v>39660</v>
       </c>
       <c r="F92">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95912938331318021</v>
       </c>
       <c r="G92" s="6"/>
@@ -10984,7 +10981,7 @@
         <v>40090</v>
       </c>
       <c r="F93">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96973948380542319</v>
       </c>
       <c r="G93" s="6"/>
@@ -11015,7 +11012,7 @@
         <v>39300</v>
       </c>
       <c r="F94">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95083712377818641</v>
       </c>
       <c r="G94" s="6"/>
@@ -11046,7 +11043,7 @@
         <v>39630</v>
       </c>
       <c r="F95">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95891405342624858</v>
       </c>
       <c r="G95" s="6"/>
@@ -11077,7 +11074,7 @@
         <v>40350</v>
       </c>
       <c r="F96">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97659559019289877</v>
       </c>
       <c r="G96" s="6"/>
@@ -11108,7 +11105,7 @@
         <v>40960</v>
       </c>
       <c r="F97">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.99167150881270583</v>
       </c>
       <c r="G97" s="6"/>
@@ -11139,7 +11136,7 @@
         <v>40070</v>
       </c>
       <c r="F98">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97047639807212571</v>
       </c>
       <c r="G98" s="6"/>
@@ -11170,7 +11167,7 @@
         <v>37840</v>
       </c>
       <c r="F99">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91675549956391122</v>
       </c>
       <c r="G99" s="6"/>
@@ -11201,7 +11198,7 @@
         <v>40630</v>
       </c>
       <c r="F100">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98446851299944271</v>
       </c>
       <c r="G100" s="6"/>
@@ -11232,7 +11229,7 @@
         <v>37370</v>
       </c>
       <c r="F101">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90569787450619232</v>
       </c>
       <c r="G101" s="6"/>
@@ -11263,7 +11260,7 @@
         <v>39990</v>
       </c>
       <c r="F102">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96936054685606243</v>
       </c>
       <c r="G102" s="6"/>
@@ -11294,7 +11291,7 @@
         <v>40960</v>
       </c>
       <c r="F103">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.99311414993696057</v>
       </c>
       <c r="G103" s="6"/>
@@ -11325,7 +11322,7 @@
         <v>40660</v>
       </c>
       <c r="F104">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98598380134827102</v>
       </c>
       <c r="G104" s="6"/>
@@ -11356,7 +11353,7 @@
         <v>39770</v>
       </c>
       <c r="F105">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96456549683490578</v>
       </c>
       <c r="G105" s="6"/>
@@ -11387,7 +11384,7 @@
         <v>40100</v>
       </c>
       <c r="F106">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97275792640031056</v>
       </c>
       <c r="G106" s="6"/>
@@ -11418,7 +11415,7 @@
         <v>40130</v>
       </c>
       <c r="F107">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97360376534523752</v>
       </c>
       <c r="G107" s="6"/>
@@ -11449,7 +11446,7 @@
         <v>40430</v>
       </c>
       <c r="F108">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98104874912038043</v>
       </c>
       <c r="G108" s="6"/>
@@ -11480,7 +11477,7 @@
         <v>39580</v>
       </c>
       <c r="F109">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96060966434482931</v>
       </c>
       <c r="G109" s="6"/>
@@ -11511,7 +11508,7 @@
         <v>39680</v>
       </c>
       <c r="F110">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96320031070977763</v>
       </c>
       <c r="G110" s="6"/>
@@ -11542,7 +11539,7 @@
         <v>40380</v>
       </c>
       <c r="F111">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98035883366918353</v>
       </c>
       <c r="G111" s="6"/>
@@ -11573,7 +11570,7 @@
         <v>38500</v>
       </c>
       <c r="F112">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93494256781369145</v>
       </c>
       <c r="G112" s="6"/>
@@ -11604,7 +11601,7 @@
         <v>40750</v>
       </c>
       <c r="F113">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98984648270501363</v>
       </c>
       <c r="G113" s="6"/>
@@ -11635,7 +11632,7 @@
         <v>40310</v>
       </c>
       <c r="F114">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97939647213178482</v>
       </c>
       <c r="G114" s="6"/>
@@ -11666,7 +11663,7 @@
         <v>39490</v>
       </c>
       <c r="F115">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95972974943495271</v>
       </c>
       <c r="G115" s="6"/>
@@ -11697,7 +11694,7 @@
         <v>39620</v>
       </c>
       <c r="F116">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96312322240318937</v>
       </c>
       <c r="G116" s="6"/>
@@ -11728,7 +11725,7 @@
         <v>40540</v>
       </c>
       <c r="F117">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98567920445427804</v>
       </c>
       <c r="G117" s="6"/>
@@ -11759,7 +11756,7 @@
         <v>40020</v>
       </c>
       <c r="F118">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97317802689492494</v>
       </c>
       <c r="G118" s="6"/>
@@ -11790,7 +11787,7 @@
         <v>38860</v>
       </c>
       <c r="F119">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.94529178525383739</v>
       </c>
       <c r="G119" s="6"/>
@@ -11821,7 +11818,7 @@
         <v>39550</v>
       </c>
       <c r="F120">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96231051850409988</v>
       </c>
       <c r="G120" s="6"/>
@@ -11852,7 +11849,7 @@
         <v>40970</v>
       </c>
       <c r="F121">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.99703105227294853</v>
       </c>
       <c r="G121" s="6"/>
@@ -11883,7 +11880,7 @@
         <v>40970</v>
       </c>
       <c r="F122">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.99717665384802612</v>
       </c>
       <c r="G122" s="6"/>
@@ -11914,7 +11911,7 @@
         <v>40580</v>
       </c>
       <c r="F123">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98780458119325232</v>
       </c>
       <c r="G123" s="6"/>
@@ -11945,7 +11942,7 @@
         <v>39880</v>
       </c>
       <c r="F124">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97104872288100519</v>
       </c>
       <c r="G124" s="6"/>
@@ -11976,7 +11973,7 @@
         <v>39850</v>
       </c>
       <c r="F125">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97043639197350473</v>
       </c>
       <c r="G125" s="6"/>
@@ -12007,7 +12004,7 @@
         <v>40390</v>
       </c>
       <c r="F126">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98375429281243154</v>
       </c>
       <c r="G126" s="6"/>
@@ -12038,7 +12035,7 @@
         <v>39220</v>
       </c>
       <c r="F127">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95544349436039855</v>
       </c>
       <c r="G127" s="6"/>
@@ -12069,7 +12066,7 @@
         <v>40800</v>
       </c>
       <c r="F128">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.99415204678362568</v>
       </c>
       <c r="G128" s="6"/>
@@ -12100,7 +12097,7 @@
         <v>40680</v>
       </c>
       <c r="F129">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.99137300774967096</v>
       </c>
       <c r="G129" s="6"/>
@@ -12131,7 +12128,7 @@
         <v>39110</v>
       </c>
       <c r="F130">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95327467277646427</v>
       </c>
       <c r="G130" s="6"/>
@@ -12162,7 +12159,7 @@
         <v>38870</v>
       </c>
       <c r="F131">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.94751724642273849</v>
       </c>
       <c r="G131" s="6"/>
@@ -12193,7 +12190,7 @@
         <v>40380</v>
       </c>
       <c r="F132">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.9845658693584961</v>
       </c>
       <c r="G132" s="6"/>
@@ -12224,7 +12221,7 @@
         <v>40200</v>
       </c>
       <c r="F133">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98034433985270453</v>
       </c>
       <c r="G133" s="6"/>
@@ -12255,7 +12252,7 @@
         <v>37640</v>
       </c>
       <c r="F134">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91820554728856141</v>
       </c>
       <c r="G134" s="6"/>
@@ -12286,7 +12283,7 @@
         <v>38180</v>
       </c>
       <c r="F135">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93156032694888369</v>
       </c>
       <c r="G135" s="6"/>
@@ -12317,7 +12314,7 @@
         <v>40900</v>
       </c>
       <c r="F136">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.99804782820888238</v>
       </c>
       <c r="G136" s="6"/>
@@ -12348,7 +12345,7 @@
         <v>37740</v>
       </c>
       <c r="F137">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.92111686029483553</v>
       </c>
       <c r="G137" s="6"/>
@@ -12379,7 +12376,7 @@
         <v>38360</v>
       </c>
       <c r="F138">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.9364548494983278</v>
       </c>
       <c r="G138" s="6"/>
@@ -12410,7 +12407,7 @@
         <v>39580</v>
       </c>
       <c r="F139">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96649736276616527</v>
       </c>
       <c r="G139" s="6"/>
@@ -12441,7 +12438,7 @@
         <v>40050</v>
       </c>
       <c r="F140">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97828476513837659</v>
       </c>
       <c r="G140" s="6"/>
@@ -12472,7 +12469,7 @@
         <v>38350</v>
       </c>
       <c r="F141">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93705712749841175</v>
       </c>
       <c r="G141" s="6"/>
@@ -12503,7 +12500,7 @@
         <v>40400</v>
       </c>
       <c r="F142">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.9874853343762221</v>
       </c>
       <c r="G142" s="6"/>
@@ -12534,7 +12531,7 @@
         <v>35340</v>
       </c>
       <c r="F143">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.8641854550789847</v>
       </c>
       <c r="G143" s="6"/>
@@ -12565,7 +12562,7 @@
         <v>38430</v>
       </c>
       <c r="F144">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93995352818882227</v>
       </c>
       <c r="G144" s="6"/>
@@ -12596,7 +12593,7 @@
         <v>38220</v>
       </c>
       <c r="F145">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93506874785927485</v>
       </c>
       <c r="G145" s="6"/>
@@ -12627,7 +12624,7 @@
         <v>40470</v>
       </c>
       <c r="F146">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.99033402667319226</v>
       </c>
       <c r="G146" s="6"/>
@@ -12658,7 +12655,7 @@
         <v>38280</v>
       </c>
       <c r="F147">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93694928529469357</v>
       </c>
       <c r="G147" s="6"/>
@@ -12689,7 +12686,7 @@
         <v>40540</v>
       </c>
       <c r="F148">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.99250844635949664</v>
       </c>
       <c r="G148" s="6"/>
@@ -12720,7 +12717,7 @@
         <v>37510</v>
       </c>
       <c r="F149">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91857475205093675</v>
       </c>
       <c r="G149" s="6"/>
@@ -12751,7 +12748,7 @@
         <v>34520</v>
       </c>
       <c r="F150">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.84558103076621594</v>
       </c>
       <c r="G150" s="6"/>
@@ -12782,7 +12779,7 @@
         <v>38300</v>
       </c>
       <c r="F151">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93831152922730165</v>
       </c>
       <c r="G151" s="6"/>
@@ -12813,7 +12810,7 @@
         <v>37860</v>
       </c>
       <c r="F152">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.92778199818658569</v>
       </c>
       <c r="G152" s="6"/>
@@ -12844,7 +12841,7 @@
         <v>32260</v>
       </c>
       <c r="F153">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.79064751727856475</v>
       </c>
       <c r="G153" s="6"/>
@@ -12875,7 +12872,7 @@
         <v>37650</v>
       </c>
       <c r="F154">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.92288459652907151</v>
       </c>
       <c r="G154" s="6"/>
@@ -12906,7 +12903,7 @@
         <v>36900</v>
       </c>
       <c r="F155">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90474439132033835</v>
       </c>
       <c r="G155" s="6"/>
@@ -12937,7 +12934,7 @@
         <v>39990</v>
       </c>
       <c r="F156">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98067585462749518</v>
       </c>
       <c r="G156" s="6"/>
@@ -12968,7 +12965,7 @@
         <v>37500</v>
       </c>
       <c r="F157">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91981652726336183</v>
       </c>
       <c r="G157" s="6"/>
@@ -12999,7 +12996,7 @@
         <v>37900</v>
       </c>
       <c r="F158">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.92983316977428854</v>
       </c>
       <c r="G158" s="6"/>
@@ -13030,7 +13027,7 @@
         <v>38370</v>
       </c>
       <c r="F159">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.94159509202453984</v>
       </c>
       <c r="G159" s="6"/>
@@ -13061,7 +13058,7 @@
         <v>40380</v>
       </c>
       <c r="F160">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.99121213608915504</v>
       </c>
       <c r="G160" s="6"/>
@@ -13092,7 +13089,7 @@
         <v>35010</v>
       </c>
       <c r="F161">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.85964739969552617</v>
       </c>
       <c r="G161" s="6"/>
@@ -13123,7 +13120,7 @@
         <v>38850</v>
       </c>
       <c r="F162">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95405319122811327</v>
       </c>
       <c r="G162" s="6"/>
@@ -13154,7 +13151,7 @@
         <v>37590</v>
       </c>
       <c r="F163">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.92331499312242094</v>
       </c>
       <c r="G163" s="6"/>
@@ -13185,7 +13182,7 @@
         <v>38730</v>
       </c>
       <c r="F164">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95155029236892541</v>
       </c>
       <c r="G164" s="6"/>
@@ -13216,7 +13213,7 @@
         <v>40470</v>
       </c>
       <c r="F165">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.99459326615876131</v>
       </c>
       <c r="G165" s="6"/>
@@ -13247,7 +13244,7 @@
         <v>38190</v>
       </c>
       <c r="F166">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93872133323501217</v>
       </c>
       <c r="G166" s="6"/>
@@ -13278,7 +13275,7 @@
         <v>40230</v>
       </c>
       <c r="F167">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98908393568372921</v>
       </c>
       <c r="G167" s="6"/>
@@ -13309,7 +13306,7 @@
         <v>33940</v>
       </c>
       <c r="F168">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.83456280121963211</v>
       </c>
       <c r="G168" s="6"/>
@@ -13340,7 +13337,7 @@
         <v>37940</v>
       </c>
       <c r="F169">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93310378750614853</v>
       </c>
       <c r="G169" s="6"/>
@@ -13371,7 +13368,7 @@
         <v>40000</v>
       </c>
       <c r="F170">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98391302208884734</v>
       </c>
       <c r="G170" s="6"/>
@@ -13402,7 +13399,7 @@
         <v>36960</v>
       </c>
       <c r="F171">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90935931502804845</v>
       </c>
       <c r="G171" s="6"/>
@@ -13433,7 +13430,7 @@
         <v>40050</v>
       </c>
       <c r="F172">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.9857490954736764</v>
       </c>
       <c r="G172" s="6"/>
@@ -13464,7 +13461,7 @@
         <v>37110</v>
       </c>
       <c r="F173">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91354438481610944</v>
       </c>
       <c r="G173" s="6"/>
@@ -13495,7 +13492,7 @@
         <v>39000</v>
       </c>
       <c r="F174">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96028365301750673</v>
       </c>
       <c r="G174" s="6"/>
@@ -13526,7 +13523,7 @@
         <v>36660</v>
       </c>
       <c r="F175">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90293342528509146</v>
       </c>
       <c r="G175" s="6"/>
@@ -13557,7 +13554,7 @@
         <v>39870</v>
       </c>
       <c r="F176">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98240685984624487</v>
       </c>
       <c r="G176" s="6"/>
@@ -13588,7 +13585,7 @@
         <v>36320</v>
       </c>
       <c r="F177">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.89530899499593264</v>
       </c>
       <c r="G177" s="6"/>
@@ -13619,7 +13616,7 @@
         <v>38930</v>
       </c>
       <c r="F178">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95985995364662957</v>
       </c>
       <c r="G178" s="6"/>
@@ -13650,7 +13647,7 @@
         <v>39710</v>
       </c>
       <c r="F179">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97952639368524919</v>
       </c>
       <c r="G179" s="6"/>
@@ -13681,7 +13678,7 @@
         <v>36340</v>
       </c>
       <c r="F180">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.89657554524819894</v>
       </c>
       <c r="G180" s="6"/>
@@ -13712,7 +13709,7 @@
         <v>38820</v>
       </c>
       <c r="F181">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95806905402403808</v>
       </c>
       <c r="G181" s="6"/>
@@ -13743,7 +13740,7 @@
         <v>39210</v>
       </c>
       <c r="F182">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96807643878231242</v>
       </c>
       <c r="G182" s="6"/>
@@ -13774,7 +13771,7 @@
         <v>39990</v>
       </c>
       <c r="F183">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98770005927682281</v>
       </c>
       <c r="G183" s="6"/>
@@ -13805,7 +13802,7 @@
         <v>39810</v>
       </c>
       <c r="F184">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98359440628551664</v>
       </c>
       <c r="G184" s="6"/>
@@ -13836,7 +13833,7 @@
         <v>38880</v>
       </c>
       <c r="F185">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96106785317018906</v>
       </c>
       <c r="G185" s="6"/>
@@ -13867,7 +13864,7 @@
         <v>35190</v>
       </c>
       <c r="F186">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.87011349306431274</v>
       </c>
       <c r="G186" s="6"/>
@@ -13898,7 +13895,7 @@
         <v>38190</v>
       </c>
       <c r="F187">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.9446656937195439</v>
       </c>
       <c r="G187" s="6"/>
@@ -13929,7 +13926,7 @@
         <v>40000</v>
       </c>
       <c r="F188">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98965807313573162</v>
       </c>
       <c r="G188" s="6"/>
@@ -13960,7 +13957,7 @@
         <v>34120</v>
       </c>
       <c r="F189">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.8445962671419377</v>
       </c>
       <c r="G189" s="6"/>
@@ -13991,7 +13988,7 @@
         <v>37380</v>
       </c>
       <c r="F190">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.92554534875083572</v>
       </c>
       <c r="G190" s="6"/>
@@ -14022,7 +14019,7 @@
         <v>35400</v>
       </c>
       <c r="F191">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.87678018575851391</v>
       </c>
       <c r="G191" s="6"/>
@@ -14053,7 +14050,7 @@
         <v>38900</v>
       </c>
       <c r="F192">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96389721733528255</v>
       </c>
       <c r="G192" s="6"/>
@@ -14084,7 +14081,7 @@
         <v>39790</v>
       </c>
       <c r="F193">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98621920388638273</v>
       </c>
       <c r="G193" s="6"/>
@@ -14115,7 +14112,7 @@
         <v>36090</v>
       </c>
       <c r="F194">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.89491172386431261</v>
       </c>
       <c r="G194" s="6"/>
@@ -14146,7 +14143,7 @@
         <v>36540</v>
       </c>
       <c r="F195">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90636239613047254</v>
       </c>
       <c r="G195" s="6"/>
@@ -14177,7 +14174,7 @@
         <v>36690</v>
       </c>
       <c r="F196">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91021856161155079</v>
       </c>
       <c r="G196" s="6"/>
@@ -14208,7 +14205,7 @@
         <v>37290</v>
       </c>
       <c r="F197">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.92537906047596596</v>
       </c>
       <c r="G197" s="6"/>
@@ -14239,7 +14236,7 @@
         <v>38610</v>
       </c>
       <c r="F198">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95854021847070503</v>
       </c>
       <c r="G198" s="6"/>
@@ -14270,7 +14267,7 @@
         <v>38070</v>
       </c>
       <c r="F199">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.94553311973772447</v>
       </c>
       <c r="G199" s="6"/>
@@ -14301,7 +14298,7 @@
         <v>36600</v>
       </c>
       <c r="F200">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.9092038256117253</v>
       </c>
       <c r="G200" s="6"/>
@@ -14332,7 +14329,7 @@
         <v>40090</v>
       </c>
       <c r="F201">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.99619809656337743</v>
       </c>
       <c r="G201" s="6"/>
@@ -14363,7 +14360,7 @@
         <v>36410</v>
       </c>
       <c r="F202">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90502348934900945</v>
       </c>
       <c r="G202" s="6"/>
@@ -14394,7 +14391,7 @@
         <v>36660</v>
       </c>
       <c r="F203">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91155481512793102</v>
       </c>
       <c r="G203" s="6"/>
@@ -14425,7 +14422,7 @@
         <v>35750</v>
       </c>
       <c r="F204">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.88908231783138525</v>
       </c>
       <c r="G204" s="6"/>
@@ -14456,7 +14453,7 @@
         <v>39060</v>
       </c>
       <c r="F205">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97169013383750436</v>
       </c>
       <c r="G205" s="6"/>
@@ -14487,7 +14484,7 @@
         <v>38070</v>
       </c>
       <c r="F206">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.94722699111741437</v>
       </c>
       <c r="G206" s="6"/>
@@ -14518,7 +14515,7 @@
         <v>36300</v>
       </c>
       <c r="F207">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90341206042656974</v>
       </c>
       <c r="G207" s="6"/>
@@ -14549,7 +14546,7 @@
         <v>39540</v>
       </c>
       <c r="F208">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98416965352449226</v>
       </c>
       <c r="G208" s="6"/>
@@ -14580,7 +14577,7 @@
         <v>36450</v>
       </c>
       <c r="F209">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90757432398784921</v>
       </c>
       <c r="G209" s="6"/>
@@ -14611,7 +14608,7 @@
         <v>37080</v>
       </c>
       <c r="F210">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.92339874489490981</v>
       </c>
       <c r="G210" s="6"/>
@@ -14642,7 +14639,7 @@
         <v>35400</v>
       </c>
       <c r="F211">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.88186936375865677</v>
       </c>
       <c r="G211" s="6"/>
@@ -14673,7 +14670,7 @@
         <v>37560</v>
       </c>
       <c r="F212">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93577158802132643</v>
       </c>
       <c r="G212" s="6"/>
@@ -14704,7 +14701,7 @@
         <v>39150</v>
       </c>
       <c r="F213">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97565230393500635</v>
       </c>
       <c r="G213" s="6"/>
@@ -14735,7 +14732,7 @@
         <v>37890</v>
       </c>
       <c r="F214">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.94444029013684294</v>
       </c>
       <c r="G214" s="6"/>
@@ -14766,7 +14763,7 @@
         <v>36780</v>
       </c>
       <c r="F215">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91688687241362121</v>
       </c>
       <c r="G215" s="6"/>
@@ -14797,7 +14794,7 @@
         <v>35220</v>
       </c>
       <c r="F216">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.87826043588848435</v>
       </c>
       <c r="G216" s="6"/>
@@ -14828,7 +14825,7 @@
         <v>36540</v>
       </c>
       <c r="F217">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91149471163440432</v>
       </c>
       <c r="G217" s="6"/>
@@ -14859,7 +14856,7 @@
         <v>38310</v>
       </c>
       <c r="F218">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95593372592075054</v>
       </c>
       <c r="G218" s="6"/>
@@ -14890,7 +14887,7 @@
         <v>39820</v>
       </c>
       <c r="F219">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.99378571963363194</v>
       </c>
       <c r="G219" s="6"/>
@@ -14921,7 +14918,7 @@
         <v>35350</v>
       </c>
       <c r="F220">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.88244838862677555</v>
       </c>
       <c r="G220" s="6"/>
@@ -14952,7 +14949,7 @@
         <v>35700</v>
       </c>
       <c r="F221">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.89129674938832582</v>
       </c>
       <c r="G221" s="6"/>
@@ -14983,7 +14980,7 @@
         <v>39200</v>
       </c>
       <c r="F222">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97892318449705329</v>
       </c>
       <c r="G222" s="6"/>
@@ -15014,7 +15011,7 @@
         <v>36010</v>
       </c>
       <c r="F223">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.89946296990133634</v>
       </c>
       <c r="G223" s="6"/>
@@ -15045,7 +15042,7 @@
         <v>38160</v>
       </c>
       <c r="F224">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95335648437304821</v>
       </c>
       <c r="G224" s="6"/>
@@ -15076,7 +15073,7 @@
         <v>38100</v>
       </c>
       <c r="F225">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95214294639510189</v>
       </c>
       <c r="G225" s="6"/>
@@ -15107,7 +15104,7 @@
         <v>37560</v>
       </c>
       <c r="F226">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93876530867283181</v>
       </c>
       <c r="G226" s="6"/>
@@ -15138,7 +15135,7 @@
         <v>35100</v>
       </c>
       <c r="F227">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.8774561271936403</v>
       </c>
       <c r="G227" s="6"/>
@@ -15169,7 +15166,7 @@
         <v>39750</v>
       </c>
       <c r="F228">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.99382453684026306</v>
       </c>
       <c r="G228" s="6"/>
@@ -15200,7 +15197,7 @@
         <v>35670</v>
       </c>
       <c r="F229">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.89192838567713539</v>
       </c>
       <c r="G229" s="6"/>
@@ -15231,7 +15228,7 @@
         <v>38340</v>
       </c>
       <c r="F230">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95878763629088726</v>
       </c>
       <c r="G230" s="6"/>
@@ -15262,7 +15259,7 @@
         <v>35520</v>
       </c>
       <c r="F231">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.8884220004502138</v>
       </c>
       <c r="G231" s="6"/>
@@ -15293,7 +15290,7 @@
         <v>35910</v>
       </c>
       <c r="F232">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.8983339170460799</v>
       </c>
       <c r="G232" s="6"/>
@@ -15324,7 +15321,7 @@
         <v>35730</v>
       </c>
       <c r="F233">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.89400990842215888</v>
       </c>
       <c r="G233" s="6"/>
@@ -15355,7 +15352,7 @@
         <v>38670</v>
       </c>
       <c r="F234">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96781459605566122</v>
       </c>
       <c r="G234" s="6"/>
@@ -15386,7 +15383,7 @@
         <v>35160</v>
       </c>
       <c r="F235">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.88014418744367673</v>
       </c>
       <c r="G235" s="6"/>
@@ -15417,7 +15414,7 @@
         <v>37260</v>
       </c>
       <c r="F236">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93289934902353533</v>
       </c>
       <c r="G236" s="6"/>
@@ -15448,7 +15445,7 @@
         <v>39790</v>
       </c>
       <c r="F237">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.99636909978715416</v>
       </c>
       <c r="G237" s="6"/>
@@ -15479,7 +15476,7 @@
         <v>35810</v>
       </c>
       <c r="F238">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.89686435584051294</v>
       </c>
       <c r="G238" s="6"/>
@@ -15510,7 +15507,7 @@
         <v>36600</v>
       </c>
       <c r="F239">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91683366733466931</v>
       </c>
       <c r="G239" s="6"/>
@@ -15541,7 +15538,7 @@
         <v>35100</v>
       </c>
       <c r="F240">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.87934662791862916</v>
       </c>
       <c r="G240" s="6"/>
@@ -15572,7 +15569,7 @@
         <v>37200</v>
       </c>
       <c r="F241">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93230746096589057</v>
       </c>
       <c r="G241" s="6"/>
@@ -15603,7 +15600,7 @@
         <v>38790</v>
       </c>
       <c r="F242">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97230229352049125</v>
       </c>
       <c r="G242" s="6"/>
@@ -15634,7 +15631,7 @@
         <v>37260</v>
       </c>
       <c r="F243">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93427948145733553</v>
       </c>
       <c r="G243" s="6"/>
@@ -15665,7 +15662,7 @@
         <v>37830</v>
       </c>
       <c r="F244">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.94871473354231972</v>
       </c>
       <c r="G244" s="6"/>
@@ -15696,7 +15693,7 @@
         <v>38400</v>
       </c>
       <c r="F245">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96315433043216536</v>
       </c>
       <c r="G245" s="6"/>
@@ -15727,7 +15724,7 @@
         <v>35830</v>
       </c>
       <c r="F246">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.89885103607445682</v>
       </c>
       <c r="G246" s="6"/>
@@ -15758,7 +15755,7 @@
         <v>39380</v>
       </c>
       <c r="F247">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98800742636359074</v>
       </c>
       <c r="G247" s="6"/>
@@ -15789,7 +15786,7 @@
         <v>37200</v>
       </c>
       <c r="F248">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93357090872587645</v>
       </c>
       <c r="G248" s="6"/>
@@ -15820,7 +15817,7 @@
         <v>36180</v>
       </c>
       <c r="F249">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90820091874388131</v>
       </c>
       <c r="G249" s="6"/>
@@ -15851,7 +15848,7 @@
         <v>35510</v>
       </c>
       <c r="F250">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.89149427595902797</v>
       </c>
       <c r="G250" s="6"/>
@@ -15882,7 +15879,7 @@
         <v>36340</v>
       </c>
       <c r="F251">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91258381256121146</v>
       </c>
       <c r="G251" s="6"/>
@@ -15913,7 +15910,7 @@
         <v>39440</v>
       </c>
       <c r="F252">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.99065608359288659</v>
       </c>
       <c r="G252" s="6"/>
@@ -15944,7 +15941,7 @@
         <v>36760</v>
       </c>
       <c r="F253">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.92354847624550918</v>
       </c>
       <c r="G253" s="6"/>
@@ -15975,7 +15972,7 @@
         <v>38310</v>
       </c>
       <c r="F254">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96261118649178345</v>
       </c>
       <c r="G254" s="6"/>
@@ -16006,7 +16003,7 @@
         <v>39450</v>
       </c>
       <c r="F255">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.99135548072573754</v>
       </c>
       <c r="G255" s="6"/>
@@ -16037,7 +16034,7 @@
         <v>31620</v>
       </c>
       <c r="F256">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.79471197345933442</v>
       </c>
       <c r="G256" s="6"/>
@@ -16068,7 +16065,7 @@
         <v>39570</v>
       </c>
       <c r="F257">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.99467095671409178</v>
       </c>
       <c r="G257" s="6"/>
@@ -16099,7 +16096,7 @@
         <v>38040</v>
       </c>
       <c r="F258">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95645177511817359</v>
       </c>
       <c r="G258" s="6"/>
@@ -16130,7 +16127,7 @@
         <v>37350</v>
       </c>
       <c r="F259">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93933906745133544</v>
       </c>
       <c r="G259" s="6"/>
@@ -16161,7 +16158,7 @@
         <v>37650</v>
       </c>
       <c r="F260">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.94705068544837123</v>
       </c>
       <c r="G260" s="6"/>
@@ -16192,7 +16189,7 @@
         <v>37790</v>
       </c>
       <c r="F261">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95069182389937112</v>
       </c>
       <c r="G261" s="6"/>
@@ -16223,7 +16220,7 @@
         <v>36310</v>
       </c>
       <c r="F262">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91366598726755743</v>
       </c>
       <c r="G262" s="6"/>
@@ -16254,7 +16251,7 @@
         <v>35940</v>
       </c>
       <c r="F263">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90449226123065307</v>
       </c>
       <c r="G263" s="6"/>
@@ -16285,7 +16282,7 @@
         <v>34980</v>
       </c>
       <c r="F264">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.88055380742605416</v>
       </c>
       <c r="G264" s="6"/>
@@ -16316,7 +16313,7 @@
         <v>36720</v>
       </c>
       <c r="F265">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.92444802497419498</v>
       </c>
       <c r="G265" s="6"/>
@@ -16347,7 +16344,7 @@
         <v>38970</v>
       </c>
       <c r="F266">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98138960940844644</v>
       </c>
       <c r="G266" s="6"/>
@@ -16378,7 +16375,7 @@
         <v>36870</v>
       </c>
       <c r="F267">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.92869197249439561</v>
       </c>
       <c r="G267" s="6"/>
@@ -16409,7 +16406,7 @@
         <v>38370</v>
       </c>
       <c r="F268">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96662048116891297</v>
       </c>
       <c r="G268" s="6"/>
@@ -16440,7 +16437,7 @@
         <v>34470</v>
       </c>
       <c r="F269">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.86848072562358281</v>
       </c>
       <c r="G269" s="6"/>
@@ -16471,7 +16468,7 @@
         <v>38100</v>
       </c>
       <c r="F270">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.96020565034401073</v>
       </c>
       <c r="G270" s="6"/>
@@ -16502,7 +16499,7 @@
         <v>38900</v>
       </c>
       <c r="F271">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98058986639778167</v>
       </c>
       <c r="G271" s="6"/>
@@ -16533,7 +16530,7 @@
         <v>36220</v>
       </c>
       <c r="F272">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91321668095406183</v>
       </c>
       <c r="G272" s="6"/>
@@ -16564,7 +16561,7 @@
         <v>36450</v>
       </c>
       <c r="F273">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91922427054699518</v>
       </c>
       <c r="G273" s="6"/>
@@ -16595,7 +16592,7 @@
         <v>33870</v>
       </c>
       <c r="F274">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.85426755447941893</v>
       </c>
       <c r="G274" s="6"/>
@@ -16626,7 +16623,7 @@
         <v>35730</v>
       </c>
       <c r="F275">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90131678522778869</v>
       </c>
       <c r="G275" s="6"/>
@@ -16657,7 +16654,7 @@
         <v>34980</v>
       </c>
       <c r="F276">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.88257556643286073</v>
       </c>
       <c r="G276" s="6"/>
@@ -16688,7 +16685,7 @@
         <v>37560</v>
       </c>
       <c r="F277">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.9478385948974184</v>
       </c>
       <c r="G277" s="6"/>
@@ -16719,7 +16716,7 @@
         <v>37470</v>
       </c>
       <c r="F278">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.94566287257401005</v>
       </c>
       <c r="G278" s="6"/>
@@ -16750,7 +16747,7 @@
         <v>35570</v>
       </c>
       <c r="F279">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.89789221254575291</v>
       </c>
       <c r="G279" s="6"/>
@@ -16781,7 +16778,7 @@
         <v>35220</v>
       </c>
       <c r="F280">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.88919185033704462</v>
       </c>
       <c r="G280" s="6"/>
@@ -16812,7 +16809,7 @@
         <v>36210</v>
       </c>
       <c r="F281">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91439393939393943</v>
       </c>
       <c r="G281" s="6"/>
@@ -16843,7 +16840,7 @@
         <v>36990</v>
       </c>
       <c r="F282">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93423245946355504</v>
       </c>
       <c r="G282" s="6"/>
@@ -16874,7 +16871,7 @@
         <v>37440</v>
       </c>
       <c r="F283">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.94576502387147299</v>
       </c>
       <c r="G283" s="6"/>
@@ -16905,7 +16902,7 @@
         <v>36240</v>
       </c>
       <c r="F284">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91563708026984003</v>
       </c>
       <c r="G284" s="6"/>
@@ -16936,7 +16933,7 @@
         <v>37620</v>
       </c>
       <c r="F285">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95081635747864324</v>
       </c>
       <c r="G285" s="6"/>
@@ -16967,7 +16964,7 @@
         <v>34170</v>
       </c>
       <c r="F286">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.86375126390293222</v>
       </c>
       <c r="G286" s="6"/>
@@ -16998,7 +16995,7 @@
         <v>39030</v>
       </c>
       <c r="F287">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98692694768250433</v>
       </c>
       <c r="G287" s="6"/>
@@ -17029,7 +17026,7 @@
         <v>34170</v>
       </c>
       <c r="F288">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.86431932007891943</v>
       </c>
       <c r="G288" s="6"/>
@@ -17060,7 +17057,7 @@
         <v>38690</v>
       </c>
       <c r="F289">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97879983808945559</v>
       </c>
       <c r="G289" s="6"/>
@@ -17091,7 +17088,7 @@
         <v>33100</v>
       </c>
       <c r="F290">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.83750822326805319</v>
       </c>
       <c r="G290" s="6"/>
@@ -17122,7 +17119,7 @@
         <v>35250</v>
       </c>
       <c r="F291">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.89199858292423706</v>
       </c>
       <c r="G291" s="6"/>
@@ -17153,7 +17150,7 @@
         <v>38940</v>
       </c>
       <c r="F292">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.98552338530066819</v>
       </c>
       <c r="G292" s="6"/>
@@ -17184,7 +17181,7 @@
         <v>33660</v>
       </c>
       <c r="F293">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.85210875398713992</v>
       </c>
       <c r="G293" s="6"/>
@@ -17215,7 +17212,7 @@
         <v>36840</v>
       </c>
       <c r="F294">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93282353834856813</v>
       </c>
       <c r="G294" s="6"/>
@@ -17246,7 +17243,7 @@
         <v>36720</v>
       </c>
       <c r="F295">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.92999696079424576</v>
       </c>
       <c r="G295" s="6"/>
@@ -17277,7 +17274,7 @@
         <v>36000</v>
       </c>
       <c r="F296">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91190029890065349</v>
       </c>
       <c r="G296" s="6"/>
@@ -17308,7 +17305,7 @@
         <v>38660</v>
       </c>
       <c r="F297">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.97947808462123132</v>
       </c>
       <c r="G297" s="6"/>
@@ -17339,7 +17336,7 @@
         <v>36420</v>
       </c>
       <c r="F298">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.9228664098925603</v>
       </c>
       <c r="G298" s="6"/>
@@ -17370,7 +17367,7 @@
         <v>35820</v>
       </c>
       <c r="F299">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90789273584427432</v>
       </c>
       <c r="G299" s="6"/>
@@ -17401,7 +17398,7 @@
         <v>35820</v>
       </c>
       <c r="F300">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90800780754898724</v>
       </c>
       <c r="G300" s="6"/>
@@ -17432,7 +17429,7 @@
         <v>36000</v>
       </c>
       <c r="F301">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91277890466531442</v>
       </c>
       <c r="G301" s="6"/>
@@ -17463,7 +17460,7 @@
         <v>35670</v>
       </c>
       <c r="F302">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90454937363696297</v>
       </c>
       <c r="G302" s="6"/>
@@ -17494,7 +17491,7 @@
         <v>35400</v>
       </c>
       <c r="F303">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.89795297161555432</v>
       </c>
       <c r="G303" s="6"/>
@@ -17525,7 +17522,7 @@
         <v>36390</v>
       </c>
       <c r="F304">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.92351030352248498</v>
       </c>
       <c r="G304" s="6"/>
@@ -17556,7 +17553,7 @@
         <v>36630</v>
       </c>
       <c r="F305">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.92976622585476054</v>
       </c>
       <c r="G305" s="6"/>
@@ -17587,7 +17584,7 @@
         <v>34710</v>
       </c>
       <c r="F306">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.88129998730481152</v>
       </c>
       <c r="G306" s="6"/>
@@ -17618,7 +17615,7 @@
         <v>37020</v>
       </c>
       <c r="F307">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.94014272290931256</v>
       </c>
       <c r="G307" s="6"/>
@@ -17649,7 +17646,7 @@
         <v>33090</v>
       </c>
       <c r="F308">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.84044498628466935</v>
       </c>
       <c r="G308" s="6"/>
@@ -17680,7 +17677,7 @@
         <v>35460</v>
       </c>
       <c r="F309">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90086885828972108</v>
       </c>
       <c r="G309" s="6"/>
@@ -17711,7 +17708,7 @@
         <v>37530</v>
       </c>
       <c r="F310">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.95355455053610449</v>
       </c>
       <c r="G310" s="6"/>
@@ -17742,7 +17739,7 @@
         <v>34650</v>
       </c>
       <c r="F311">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.88064860468662631</v>
       </c>
       <c r="G311" s="6"/>
@@ -17773,7 +17770,7 @@
         <v>35250</v>
       </c>
       <c r="F312">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.89612568639414281</v>
       </c>
       <c r="G312" s="6"/>
@@ -17804,7 +17801,7 @@
         <v>34830</v>
       </c>
       <c r="F313">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.88587633847953806</v>
       </c>
       <c r="G313" s="6"/>
@@ -17835,7 +17832,7 @@
         <v>33900</v>
       </c>
       <c r="F314">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.86244180425878347</v>
       </c>
       <c r="G314" s="6"/>
@@ -17866,7 +17863,7 @@
         <v>36660</v>
       </c>
       <c r="F315">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.93282442748091599</v>
       </c>
       <c r="G315" s="6"/>
@@ -17897,7 +17894,7 @@
         <v>34620</v>
       </c>
       <c r="F316">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.88120752411739256</v>
       </c>
       <c r="G316" s="6"/>
@@ -17928,7 +17925,7 @@
         <v>35370</v>
       </c>
       <c r="F317">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90043532496626866</v>
       </c>
       <c r="G317" s="6"/>
@@ -17959,7 +17956,7 @@
         <v>33630</v>
       </c>
       <c r="F318">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.85637891520244458</v>
       </c>
       <c r="G318" s="6"/>
@@ -17990,7 +17987,7 @@
         <v>36000</v>
       </c>
       <c r="F319">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91698718765123921</v>
       </c>
       <c r="G319" s="6"/>
@@ -18021,7 +18018,7 @@
         <v>36180</v>
       </c>
       <c r="F320">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.92180692501719785</v>
       </c>
       <c r="G320" s="6"/>
@@ -18052,7 +18049,7 @@
         <v>34650</v>
       </c>
       <c r="F321">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.88298251872993216</v>
       </c>
       <c r="G321" s="6"/>
@@ -18083,7 +18080,7 @@
         <v>33090</v>
       </c>
       <c r="F322">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.84340113167150943</v>
       </c>
       <c r="G322" s="6"/>
@@ -18114,7 +18111,7 @@
         <v>35850</v>
       </c>
       <c r="F323">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91391133657939683</v>
       </c>
       <c r="G323" s="6"/>
@@ -18145,7 +18142,7 @@
         <v>36000</v>
       </c>
       <c r="F324">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91782882492415163</v>
       </c>
       <c r="G324" s="6"/>
@@ -18176,7 +18173,7 @@
         <v>34650</v>
       </c>
       <c r="F325">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.88370313695485847</v>
       </c>
       <c r="G325" s="6"/>
@@ -18207,7 +18204,7 @@
         <v>33960</v>
       </c>
       <c r="F326">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.86645915191100675</v>
       </c>
       <c r="G326" s="6"/>
@@ -18238,7 +18235,7 @@
         <v>33990</v>
       </c>
       <c r="F327">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.86737948809554188</v>
       </c>
       <c r="G327" s="6"/>
@@ -18269,7 +18266,7 @@
         <v>34380</v>
       </c>
       <c r="F328">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.87757810904635492</v>
       </c>
       <c r="G328" s="6"/>
@@ -18300,7 +18297,7 @@
         <v>33510</v>
       </c>
       <c r="F329">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.85547981925403993</v>
       </c>
       <c r="G329" s="6"/>
@@ -18331,7 +18328,7 @@
         <v>33690</v>
       </c>
       <c r="F330">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.86031664964249233</v>
       </c>
       <c r="G330" s="6"/>
@@ -18362,7 +18359,7 @@
         <v>34290</v>
       </c>
       <c r="F331">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.87577259028451759</v>
       </c>
       <c r="G331" s="6"/>
@@ -18393,7 +18390,7 @@
         <v>34320</v>
       </c>
       <c r="F332">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.87687472853164361</v>
       </c>
       <c r="G332" s="6"/>
@@ -18424,7 +18421,7 @@
         <v>35310</v>
       </c>
       <c r="F333">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90235363266975033</v>
       </c>
       <c r="G333" s="6"/>
@@ -18455,7 +18452,7 @@
         <v>31350</v>
       </c>
       <c r="F334">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.80140085380505632</v>
       </c>
       <c r="G334" s="6"/>
@@ -18486,7 +18483,7 @@
         <v>34080</v>
       </c>
       <c r="F335">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.87141067273517603</v>
       </c>
       <c r="G335" s="6"/>
@@ -18517,7 +18514,7 @@
         <v>32160</v>
       </c>
       <c r="F336">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.82261158715948335</v>
       </c>
       <c r="G336" s="6"/>
@@ -18548,7 +18545,7 @@
         <v>32700</v>
       </c>
       <c r="F337">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.83661669139845474</v>
       </c>
       <c r="G337" s="6"/>
@@ -18579,7 +18576,7 @@
         <v>32370</v>
       </c>
       <c r="F338">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.82836451109348208</v>
       </c>
       <c r="G338" s="6"/>
@@ -18610,7 +18607,7 @@
         <v>35010</v>
       </c>
       <c r="F339">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.89624452807004074</v>
       </c>
       <c r="G339" s="6"/>
@@ -18641,7 +18638,7 @@
         <v>34740</v>
       </c>
       <c r="F340">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.88951478683907315</v>
       </c>
       <c r="G340" s="6"/>
@@ -18672,7 +18669,7 @@
         <v>28350</v>
       </c>
       <c r="F341">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.72615967828692918</v>
       </c>
       <c r="G341" s="6"/>
@@ -18703,7 +18700,7 @@
         <v>34320</v>
       </c>
       <c r="F342">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.87927854068456646</v>
       </c>
       <c r="G342" s="6"/>
@@ -18734,7 +18731,7 @@
         <v>33540</v>
       </c>
       <c r="F343">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.85944907110826396</v>
       </c>
       <c r="G343" s="6"/>
@@ -18765,7 +18762,7 @@
         <v>35130</v>
       </c>
       <c r="F344">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90049215625961243</v>
       </c>
       <c r="G344" s="6"/>
@@ -18796,7 +18793,7 @@
         <v>32070</v>
       </c>
       <c r="F345">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.8222655248448798</v>
       </c>
       <c r="G345" s="6"/>
@@ -18827,7 +18824,7 @@
         <v>35520</v>
       </c>
       <c r="F346">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.91102618687322068</v>
       </c>
       <c r="G346" s="6"/>
@@ -18858,7 +18855,7 @@
         <v>32520</v>
       </c>
       <c r="F347">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.83425258459249374</v>
       </c>
       <c r="G347" s="6"/>
@@ -18889,7 +18886,7 @@
         <v>33360</v>
       </c>
       <c r="F348">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.85599917889767008</v>
       </c>
       <c r="G348" s="6"/>
@@ -18920,7 +18917,7 @@
         <v>34140</v>
       </c>
       <c r="F349">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.87632835361158168</v>
       </c>
       <c r="G349" s="6"/>
@@ -18951,7 +18948,7 @@
         <v>33900</v>
       </c>
       <c r="F350">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.8704359882914805</v>
       </c>
       <c r="G350" s="6"/>
@@ -18982,7 +18979,7 @@
         <v>33240</v>
       </c>
       <c r="F351">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.85364287732093791</v>
       </c>
       <c r="G351" s="6"/>
@@ -19013,7 +19010,7 @@
         <v>31620</v>
       </c>
       <c r="F352">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.81233140655105973</v>
       </c>
       <c r="G352" s="6"/>
@@ -19044,7 +19041,7 @@
         <v>30240</v>
       </c>
       <c r="F353">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.77719807756560177</v>
       </c>
       <c r="G353" s="6"/>
@@ -19075,7 +19072,7 @@
         <v>33510</v>
       </c>
       <c r="F354">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.86152817770464829</v>
       </c>
       <c r="G354" s="6"/>
@@ -19106,7 +19103,7 @@
         <v>33060</v>
       </c>
       <c r="F355">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.85024303680271585</v>
       </c>
       <c r="G355" s="6"/>
@@ -19137,7 +19134,7 @@
         <v>34410</v>
       </c>
       <c r="F356">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.8851446945337621</v>
       </c>
       <c r="G356" s="6"/>
@@ -19168,7 +19165,7 @@
         <v>29940</v>
       </c>
       <c r="F357">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.77039857962586522</v>
       </c>
       <c r="G357" s="6"/>
@@ -19199,7 +19196,7 @@
         <v>30780</v>
       </c>
       <c r="F358">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.7921556516368129</v>
       </c>
       <c r="G358" s="6"/>
@@ -19230,7 +19227,7 @@
         <v>32190</v>
       </c>
       <c r="F359">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.82859275657031073</v>
       </c>
       <c r="G359" s="6"/>
@@ -19261,7 +19258,7 @@
         <v>31710</v>
       </c>
       <c r="F360">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.81644738536007622</v>
       </c>
       <c r="G360" s="6"/>
@@ -19292,7 +19289,7 @@
         <v>31740</v>
       </c>
       <c r="F361">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.81740921967550861</v>
       </c>
       <c r="G361" s="6"/>
@@ -19323,7 +19320,7 @@
         <v>30690</v>
       </c>
       <c r="F362">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.7905718701700154</v>
       </c>
       <c r="G362" s="6"/>
@@ -19354,7 +19351,7 @@
         <v>30480</v>
       </c>
       <c r="F363">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.78532412655879624</v>
       </c>
       <c r="G363" s="6"/>
@@ -19385,7 +19382,7 @@
         <v>29850</v>
       </c>
       <c r="F364">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.76925059272239971</v>
       </c>
       <c r="G364" s="6"/>
@@ -19416,7 +19413,7 @@
         <v>28650</v>
       </c>
       <c r="F365">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.7384781936282091</v>
       </c>
       <c r="G365" s="6"/>
@@ -19447,7 +19444,7 @@
         <v>28740</v>
       </c>
       <c r="F366">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.74095080952872028</v>
       </c>
       <c r="G366" s="6"/>
@@ -19478,7 +19475,7 @@
         <v>29560</v>
       </c>
       <c r="F367">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.76226823796384646</v>
       </c>
       <c r="G367" s="6"/>
@@ -19509,7 +19506,7 @@
         <v>28430</v>
       </c>
       <c r="F368">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.73324220462693113</v>
       </c>
       <c r="G368" s="6"/>
@@ -19540,7 +19537,7 @@
         <v>33270</v>
       </c>
       <c r="F369">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.85831484443527162</v>
       </c>
       <c r="G369" s="6"/>
@@ -19571,7 +19568,7 @@
         <v>28290</v>
       </c>
       <c r="F370">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.72998916240904166</v>
       </c>
       <c r="G370" s="6"/>
@@ -19602,7 +19599,7 @@
         <v>35040</v>
       </c>
       <c r="F371">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.90437475803329459</v>
       </c>
       <c r="G371" s="6"/>
@@ -19633,7 +19630,7 @@
         <v>30750</v>
       </c>
       <c r="F372">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.79381469912486768</v>
       </c>
       <c r="G372" s="6"/>
@@ -19664,7 +19661,7 @@
         <v>30720</v>
       </c>
       <c r="F373">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.79324502285227361</v>
       </c>
       <c r="G373" s="6"/>
@@ -19695,7 +19692,7 @@
         <v>30240</v>
       </c>
       <c r="F374">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.78101190629923289</v>
       </c>
       <c r="G374" s="6"/>
@@ -19726,7 +19723,7 @@
         <v>31410</v>
       </c>
       <c r="F375">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.81141823818134851</v>
       </c>
       <c r="G375" s="6"/>
@@ -19757,7 +19754,7 @@
         <v>29520</v>
       </c>
       <c r="F376">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.7627315711960313</v>
       </c>
       <c r="G376" s="6"/>
@@ -19788,7 +19785,7 @@
         <v>30270</v>
       </c>
       <c r="F377">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.78223118071168307</v>
       </c>
       <c r="G377" s="6"/>
@@ -19819,7 +19816,7 @@
         <v>29430</v>
       </c>
       <c r="F378">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.76062235087356556</v>
       </c>
       <c r="G378" s="6"/>
@@ -19850,7 +19847,7 @@
         <v>30060</v>
       </c>
       <c r="F379">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.7770654534174336</v>
       </c>
       <c r="G379" s="6"/>
@@ -19881,7 +19878,7 @@
         <v>30570</v>
       </c>
       <c r="F380">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.79037178757950255</v>
       </c>
       <c r="G380" s="6"/>
@@ -19912,7 +19909,7 @@
         <v>29070</v>
       </c>
       <c r="F381">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.7518621973929237</v>
       </c>
       <c r="G381" s="6"/>
@@ -19943,7 +19940,7 @@
         <v>29400</v>
       </c>
       <c r="F382">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.7604956155099718</v>
       </c>
       <c r="G382" s="6"/>
@@ -19974,7 +19971,7 @@
         <v>28380</v>
       </c>
       <c r="F383">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.73428201811125482</v>
       </c>
       <c r="G383" s="6"/>
@@ -20005,7 +20002,7 @@
         <v>29990</v>
       </c>
       <c r="F384">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.77605837904978781</v>
       </c>
       <c r="G384" s="6"/>
@@ -20036,7 +20033,7 @@
         <v>27810</v>
       </c>
       <c r="F385">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.71981364048142871</v>
       </c>
       <c r="G385" s="6"/>
@@ -20067,7 +20064,7 @@
         <v>29430</v>
       </c>
       <c r="F386">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.76188257222739986</v>
       </c>
       <c r="G386" s="6"/>
@@ -20098,7 +20095,7 @@
         <v>29580</v>
       </c>
       <c r="F387">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.76614260923618849</v>
       </c>
       <c r="G387" s="6"/>
@@ -20129,7 +20126,7 @@
         <v>29340</v>
       </c>
       <c r="F388">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.76012331925697552</v>
       </c>
       <c r="G388" s="6"/>
@@ -20160,7 +20157,7 @@
         <v>30200</v>
       </c>
       <c r="F389">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.78262672333367889</v>
       </c>
       <c r="G389" s="6"/>
@@ -20191,7 +20188,7 @@
         <v>28980</v>
       </c>
       <c r="F390">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.75120535019959567</v>
       </c>
       <c r="G390" s="6"/>
@@ -20222,7 +20219,7 @@
         <v>24710</v>
       </c>
       <c r="F391">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.64062013896090431</v>
       </c>
       <c r="G391" s="6"/>
@@ -20253,7 +20250,7 @@
         <v>33940</v>
       </c>
       <c r="F392">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.8801410715211867</v>
       </c>
       <c r="G392" s="6"/>
@@ -20284,7 +20281,7 @@
         <v>27100</v>
       </c>
       <c r="F393">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.70292843617876688</v>
       </c>
       <c r="G393" s="6"/>
@@ -20315,7 +20312,7 @@
         <v>30710</v>
       </c>
       <c r="F394">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.7967310935270463</v>
       </c>
       <c r="G394" s="6"/>
@@ -20346,7 +20343,7 @@
         <v>29130</v>
       </c>
       <c r="F395">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.75593616193071234</v>
       </c>
       <c r="G395" s="6"/>
@@ -20377,7 +20374,7 @@
         <v>28890</v>
       </c>
       <c r="F396">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.74986373192825806</v>
       </c>
       <c r="G396" s="6"/>
@@ -20408,7 +20405,7 @@
         <v>28650</v>
       </c>
       <c r="F397">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.74382740088791965</v>
       </c>
       <c r="G397" s="6"/>
@@ -20439,7 +20436,7 @@
         <v>28290</v>
       </c>
       <c r="F398">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.73470977795091541</v>
       </c>
       <c r="G398" s="6"/>
@@ -20470,7 +20467,7 @@
         <v>29580</v>
       </c>
       <c r="F399">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.76831168831168828</v>
       </c>
       <c r="G399" s="6"/>
@@ -20501,7 +20498,7 @@
         <v>27810</v>
       </c>
       <c r="F400">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.72248778967058092</v>
       </c>
       <c r="G400" s="6"/>
@@ -20532,7 +20529,7 @@
         <v>28650</v>
       </c>
       <c r="F401">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.74456196886613479</v>
       </c>
       <c r="G401" s="6"/>
@@ -20563,7 +20560,7 @@
         <v>27600</v>
       </c>
       <c r="F402">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.71742351381560132</v>
       </c>
       <c r="G402" s="6"/>
@@ -20594,7 +20591,7 @@
         <v>28050</v>
       </c>
       <c r="F403">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.72929124850501792</v>
       </c>
       <c r="G403" s="6"/>
@@ -20625,7 +20622,7 @@
         <v>27300</v>
       </c>
       <c r="F404">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.70990222592053254</v>
       </c>
       <c r="G404" s="6"/>
@@ -20656,7 +20653,7 @@
         <v>26010</v>
       </c>
       <c r="F405">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.67644534602481077</v>
       </c>
       <c r="G405" s="6"/>
@@ -20687,7 +20684,7 @@
         <v>28140</v>
       </c>
       <c r="F406">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.73210708431979599</v>
       </c>
       <c r="G406" s="6"/>
@@ -20718,7 +20715,7 @@
         <v>27330</v>
       </c>
       <c r="F407">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.71114464885118789</v>
       </c>
       <c r="G407" s="6"/>
@@ -20749,7 +20746,7 @@
         <v>27720</v>
       </c>
       <c r="F408">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.72146166258914168</v>
       </c>
       <c r="G408" s="6"/>
@@ -20780,7 +20777,7 @@
         <v>28950</v>
       </c>
       <c r="F409">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.75365110769791477</v>
       </c>
       <c r="G409" s="6"/>
@@ -20811,7 +20808,7 @@
         <v>27240</v>
       </c>
       <c r="F410">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.70922724432409912</v>
       </c>
       <c r="G410" s="6"/>
@@ -20842,7 +20839,7 @@
         <v>28080</v>
       </c>
       <c r="F411">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.73119287555659718</v>
       </c>
       <c r="G411" s="6"/>
@@ -20873,7 +20870,7 @@
         <v>26550</v>
       </c>
       <c r="F412">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.69144226261784469</v>
       </c>
       <c r="G412" s="6"/>
@@ -20904,7 +20901,7 @@
         <v>25560</v>
       </c>
       <c r="F413">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.66572902015939994</v>
       </c>
       <c r="G413" s="6"/>
@@ -20935,7 +20932,7 @@
         <v>24630</v>
       </c>
       <c r="F414">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.64160675211003437</v>
       </c>
       <c r="G414" s="6"/>
@@ -20966,7 +20963,7 @@
         <v>26700</v>
       </c>
       <c r="F415">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.69560233430596086</v>
       </c>
       <c r="G415" s="6"/>
@@ -20997,7 +20994,7 @@
         <v>25800</v>
       </c>
       <c r="F416">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.67224263268975226</v>
       </c>
       <c r="G416" s="6"/>
@@ -21028,7 +21025,7 @@
         <v>25560</v>
       </c>
       <c r="F417">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.66609334688452815</v>
       </c>
       <c r="G417" s="6"/>
@@ -21059,7 +21056,7 @@
         <v>25920</v>
       </c>
       <c r="F418">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.67556296914095082</v>
       </c>
       <c r="G418" s="6"/>
@@ -21090,7 +21087,7 @@
         <v>31830</v>
       </c>
       <c r="F419">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.82972733434127521</v>
       </c>
       <c r="G419" s="6"/>
@@ -21121,7 +21118,7 @@
         <v>23460</v>
       </c>
       <c r="F420">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.61162238965508253</v>
       </c>
       <c r="G420" s="6"/>
@@ -21152,7 +21149,7 @@
         <v>27870</v>
       </c>
       <c r="F421">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.7266896120150188</v>
       </c>
       <c r="G421" s="6"/>
@@ -21183,7 +21180,7 @@
         <v>26920</v>
       </c>
       <c r="F422">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.7020288947999791</v>
       </c>
       <c r="G422" s="6"/>
@@ -21214,7 +21211,7 @@
         <v>28410</v>
       </c>
       <c r="F423">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.74096291273277348</v>
       </c>
       <c r="G423" s="6"/>
@@ -21245,7 +21242,7 @@
         <v>27630</v>
       </c>
       <c r="F424">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.72069487192863479</v>
       </c>
       <c r="G424" s="6"/>
@@ -21276,7 +21273,7 @@
         <v>30240</v>
       </c>
       <c r="F425">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.78885584598528724</v>
       </c>
       <c r="G425" s="6"/>
@@ -21307,7 +21304,7 @@
         <v>25740</v>
       </c>
       <c r="F426">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.6715892190883711</v>
       </c>
       <c r="G426" s="6"/>
@@ -21338,7 +21335,7 @@
         <v>27120</v>
       </c>
       <c r="F427">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.70768749021449817</v>
       </c>
       <c r="G427" s="6"/>
@@ -21369,7 +21366,7 @@
         <v>30540</v>
       </c>
       <c r="F428">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.79701445795709591</v>
       </c>
       <c r="G428" s="6"/>
@@ -21400,7 +21397,7 @@
         <v>26820</v>
       </c>
       <c r="F429">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.7000234907211651</v>
       </c>
       <c r="G429" s="6"/>
@@ -21431,7 +21428,7 @@
         <v>29100</v>
       </c>
       <c r="F430">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.75965228287258202</v>
       </c>
       <c r="G430" s="6"/>
@@ -21462,7 +21459,7 @@
         <v>28950</v>
       </c>
       <c r="F431">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.75587467362924277</v>
       </c>
       <c r="G431" s="6"/>
@@ -21493,7 +21490,7 @@
         <v>28800</v>
       </c>
       <c r="F432">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.75207604324437249</v>
       </c>
       <c r="G432" s="6"/>
@@ -21524,7 +21521,7 @@
         <v>29190</v>
       </c>
       <c r="F433">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.76239977015697236</v>
       </c>
       <c r="G433" s="6"/>
@@ -21555,7 +21552,7 @@
         <v>30840</v>
       </c>
       <c r="F434">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.80560054333629383</v>
       </c>
       <c r="G434" s="6"/>
@@ -21586,7 +21583,7 @@
         <v>29910</v>
       </c>
       <c r="F435">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.78147044991377956</v>
       </c>
       <c r="G435" s="6"/>
@@ -21617,7 +21614,7 @@
         <v>30710</v>
       </c>
       <c r="F436">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.80247720086754293</v>
       </c>
       <c r="G436" s="6"/>
@@ -21648,7 +21645,7 @@
         <v>32640</v>
       </c>
       <c r="F437">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.8529988239905919</v>
       </c>
       <c r="G437" s="6"/>
@@ -21679,7 +21676,7 @@
         <v>29730</v>
       </c>
       <c r="F438">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.77703144193826612</v>
       </c>
       <c r="G438" s="6"/>
@@ -21710,7 +21707,7 @@
         <v>30480</v>
       </c>
       <c r="F439">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.79673776662484319</v>
       </c>
       <c r="G439" s="6"/>
@@ -21741,7 +21738,7 @@
         <v>30660</v>
       </c>
       <c r="F440">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.80156862745098034</v>
       </c>
       <c r="G440" s="6"/>
@@ -21772,7 +21769,7 @@
         <v>31620</v>
       </c>
       <c r="F441">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.82679636021336678</v>
       </c>
       <c r="G441" s="6"/>
@@ -21803,7 +21800,7 @@
         <v>29160</v>
       </c>
       <c r="F442">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.7625921857837753</v>
       </c>
       <c r="G442" s="6"/>
@@ -21834,7 +21831,7 @@
         <v>28080</v>
       </c>
       <c r="F443">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.7344632768361582</v>
       </c>
       <c r="G443" s="6"/>
@@ -21865,7 +21862,7 @@
         <v>32340</v>
       </c>
       <c r="F444">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.84608743426732591</v>
       </c>
       <c r="G444" s="6"/>
@@ -21896,7 +21893,7 @@
         <v>29160</v>
       </c>
       <c r="F445">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.76299126066251499</v>
       </c>
       <c r="G445" s="6"/>
@@ -21927,7 +21924,7 @@
         <v>30330</v>
       </c>
       <c r="F446">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.79368817710786621</v>
       </c>
       <c r="G446" s="6"/>
@@ -21958,7 +21955,7 @@
         <v>31050</v>
       </c>
       <c r="F447">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.81261449882229786</v>
       </c>
       <c r="G447" s="6"/>
@@ -21989,7 +21986,7 @@
         <v>31470</v>
       </c>
       <c r="F448">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.82373573447806514</v>
       </c>
       <c r="G448" s="6"/>
@@ -22020,7 +22017,7 @@
         <v>30480</v>
       </c>
       <c r="F449">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.79794753652023664</v>
       </c>
       <c r="G449" s="6"/>
@@ -22051,7 +22048,7 @@
         <v>30660</v>
       </c>
       <c r="F450">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.80278592375366564</v>
       </c>
       <c r="G450" s="6"/>
@@ -22082,7 +22079,7 @@
         <v>29400</v>
       </c>
       <c r="F451">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.76991567590216314</v>
       </c>
       <c r="G451" s="6"/>
@@ -22113,7 +22110,7 @@
         <v>32730</v>
       </c>
       <c r="F452">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.85725510738606603</v>
       </c>
       <c r="G452" s="6"/>
@@ -22144,7 +22141,7 @@
         <v>30690</v>
       </c>
       <c r="F453">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.80392927308447937</v>
       </c>
       <c r="G453" s="6"/>
@@ -22175,7 +22172,7 @@
         <v>30840</v>
       </c>
       <c r="F454">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.80794320295512301</v>
       </c>
       <c r="G454" s="6"/>
@@ -22206,7 +22203,7 @@
         <v>30780</v>
       </c>
       <c r="F455">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.80647696903002675</v>
       </c>
       <c r="G455" s="6"/>
@@ -22237,7 +22234,7 @@
         <v>29820</v>
       </c>
       <c r="F456">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.78146701957598474</v>
       </c>
       <c r="G456" s="6"/>
@@ -22268,7 +22265,7 @@
         <v>31770</v>
       </c>
       <c r="F457">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.83276539973787678</v>
       </c>
       <c r="G457" s="6"/>
@@ -22299,7 +22296,7 @@
         <v>30600</v>
       </c>
       <c r="F458">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.80220212347620923</v>
       </c>
       <c r="G458" s="6"/>
@@ -22330,7 +22327,7 @@
         <v>31230</v>
       </c>
       <c r="F459">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.81880391180094914</v>
       </c>
       <c r="G459" s="6"/>
@@ -22361,7 +22358,7 @@
         <v>29250</v>
       </c>
       <c r="F460">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.7669918187539333</v>
       </c>
       <c r="G460" s="6"/>
@@ -22392,7 +22389,7 @@
         <v>32490</v>
       </c>
       <c r="F461">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.85206262620964568</v>
       </c>
       <c r="G461" s="6"/>
@@ -22423,7 +22420,7 @@
         <v>27420</v>
       </c>
       <c r="F462">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.71917538752065469</v>
       </c>
       <c r="G462" s="6"/>
@@ -22454,7 +22451,7 @@
         <v>32160</v>
       </c>
       <c r="F463">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.84362949555363187</v>
       </c>
       <c r="G463" s="6"/>
@@ -22485,7 +22482,7 @@
         <v>28980</v>
       </c>
       <c r="F464">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.76033057851239672</v>
       </c>
       <c r="G464" s="6"/>
@@ -22516,7 +22513,7 @@
         <v>29940</v>
       </c>
       <c r="F465">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.78559995801737026</v>
       </c>
       <c r="G465" s="6"/>
@@ -22547,7 +22544,7 @@
         <v>29160</v>
       </c>
       <c r="F466">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.76523382144544161</v>
       </c>
       <c r="G466" s="6"/>
@@ -22578,7 +22575,7 @@
         <v>28650</v>
       </c>
       <c r="F467">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.75198824116118534</v>
       </c>
       <c r="G467" s="6"/>
@@ -22609,7 +22606,7 @@
         <v>28740</v>
       </c>
       <c r="F468">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.75442971518571988</v>
       </c>
       <c r="G468" s="6"/>
@@ -22640,7 +22637,7 @@
         <v>30030</v>
       </c>
       <c r="F469">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.78839590443686003</v>
       </c>
       <c r="G469" s="6"/>
@@ -22671,7 +22668,7 @@
         <v>31230</v>
       </c>
       <c r="F470">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.82002940867555929</v>
       </c>
       <c r="G470" s="6"/>
@@ -22702,7 +22699,7 @@
         <v>27840</v>
       </c>
       <c r="F471">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.7311500380807312</v>
       </c>
       <c r="G471" s="6"/>
@@ -22733,7 +22730,7 @@
         <v>32460</v>
       </c>
       <c r="F472">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.85259508300063036</v>
       </c>
       <c r="G472" s="6"/>
@@ -22764,7 +22761,7 @@
         <v>22800</v>
       </c>
       <c r="F473">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.59895970157095568</v>
       </c>
       <c r="G473" s="6"/>
@@ -22795,7 +22792,7 @@
         <v>28350</v>
       </c>
       <c r="F474">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.74489608239838145</v>
       </c>
       <c r="G474" s="6"/>
@@ -22826,7 +22823,7 @@
         <v>29130</v>
       </c>
       <c r="F475">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.76551126061020158</v>
       </c>
       <c r="G475" s="6"/>
@@ -22857,7 +22854,7 @@
         <v>26880</v>
       </c>
       <c r="F476">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.706513168269989</v>
       </c>
       <c r="G476" s="6"/>
@@ -22888,7 +22885,7 @@
         <v>28140</v>
       </c>
       <c r="F477">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.73974763406940058</v>
       </c>
       <c r="G477" s="6"/>
@@ -22919,7 +22916,7 @@
         <v>28170</v>
       </c>
       <c r="F478">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.74065309985802175</v>
       </c>
       <c r="G478" s="6"/>
@@ -22950,7 +22947,7 @@
         <v>26700</v>
       </c>
       <c r="F479">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.70211423161880715</v>
       </c>
       <c r="G479" s="6"/>
@@ -22981,7 +22978,7 @@
         <v>27150</v>
       </c>
       <c r="F480">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.71409784324039982</v>
       </c>
       <c r="G480" s="6"/>
@@ -23012,7 +23009,7 @@
         <v>28290</v>
       </c>
       <c r="F481">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.74421908294530814</v>
       </c>
       <c r="G481" s="6"/>
@@ -23043,7 +23040,7 @@
         <v>28830</v>
       </c>
       <c r="F482">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.75856443719412725</v>
       </c>
       <c r="G482" s="6"/>
@@ -23074,7 +23071,7 @@
         <v>27300</v>
       </c>
       <c r="F483">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.71845886625611877</v>
       </c>
       <c r="G483" s="6"/>
@@ -23105,7 +23102,7 @@
         <v>26880</v>
       </c>
       <c r="F484">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.70757324488667772</v>
       </c>
       <c r="G484" s="6"/>
@@ -23136,7 +23133,7 @@
         <v>27270</v>
       </c>
       <c r="F485">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.71797167079142754</v>
       </c>
       <c r="G485" s="6"/>
@@ -23167,7 +23164,7 @@
         <v>28920</v>
       </c>
       <c r="F486">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.76151354767359192</v>
       </c>
       <c r="G486" s="6"/>
@@ -23198,7 +23195,7 @@
         <v>27090</v>
       </c>
       <c r="F487">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.71343920360274948</v>
       </c>
       <c r="G487" s="6"/>
@@ -23229,7 +23226,7 @@
         <v>29130</v>
       </c>
       <c r="F488">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.76732608065748231</v>
       </c>
       <c r="G488" s="6"/>
@@ -23260,7 +23257,7 @@
         <v>27540</v>
       </c>
       <c r="F489">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.72551963961115939</v>
       </c>
       <c r="G489" s="6"/>
@@ -23291,7 +23288,7 @@
         <v>25980</v>
       </c>
       <c r="F490">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.68451283132212681</v>
       </c>
       <c r="G490" s="6"/>
@@ -23322,7 +23319,7 @@
         <v>28400</v>
       </c>
       <c r="F491">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.74839253715610832</v>
       </c>
       <c r="G491" s="6"/>
@@ -23353,7 +23350,7 @@
         <v>30350</v>
       </c>
       <c r="F492">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.79992620120713742</v>
       </c>
       <c r="G492" s="6"/>
@@ -23384,7 +23381,7 @@
         <v>28680</v>
       </c>
       <c r="F493">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.7560699127408852</v>
       </c>
       <c r="G493" s="6"/>
@@ -23415,7 +23412,7 @@
         <v>28160</v>
       </c>
       <c r="F494">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.74251812788398153</v>
       </c>
       <c r="G494" s="6"/>
@@ -23446,7 +23443,7 @@
         <v>27960</v>
       </c>
       <c r="F495">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.73734177215189878</v>
       </c>
       <c r="G495" s="6"/>
@@ -23477,7 +23474,7 @@
         <v>26580</v>
       </c>
       <c r="F496">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.70106029435037187</v>
       </c>
       <c r="G496" s="6"/>
@@ -23508,7 +23505,7 @@
         <v>26520</v>
       </c>
       <c r="F497">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.69964384645825084</v>
       </c>
       <c r="G497" s="6"/>
@@ -23539,7 +23536,7 @@
         <v>26280</v>
       </c>
       <c r="F498">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.69342199002612204</v>
       </c>
       <c r="G498" s="6"/>
@@ -23570,7 +23567,7 @@
         <v>26760</v>
       </c>
       <c r="F499">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.70623630941384496</v>
       </c>
       <c r="G499" s="6"/>
@@ -23601,7 +23598,7 @@
         <v>29190</v>
       </c>
       <c r="F500">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.77046930264477642</v>
       </c>
       <c r="G500" s="6"/>
@@ -23632,7 +23629,7 @@
         <v>25980</v>
       </c>
       <c r="F501">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.68597681725767701</v>
       </c>
       <c r="G501" s="6"/>
@@ -23663,7 +23660,7 @@
         <v>26340</v>
       </c>
       <c r="F502">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.69573945429092154</v>
       </c>
       <c r="G502" s="6"/>
@@ -23694,7 +23691,7 @@
         <v>28080</v>
       </c>
       <c r="F503">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.74187582562747689</v>
       </c>
       <c r="G503" s="6"/>
@@ -23725,7 +23722,7 @@
         <v>24000</v>
       </c>
       <c r="F504">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.6342662332514073</v>
       </c>
       <c r="G504" s="6"/>
@@ -23756,7 +23753,7 @@
         <v>27000</v>
       </c>
       <c r="F505">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.7136626754420744</v>
       </c>
       <c r="G505" s="6"/>
@@ -23787,7 +23784,7 @@
         <v>26980</v>
       </c>
       <c r="F506">
-        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[42139]]</f>
+        <f>CicloZ[[#This Row],[Eggs]]/CicloZ[[#This Row],[Chickens]]</f>
         <v>0.71322829649994712</v>
       </c>
       <c r="G506" s="6"/>
@@ -31772,7 +31769,7 @@
       </c>
       <c r="G215" s="6">
         <f ca="1">RANDBETWEEN(158, 170)</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H215" s="6">
         <v>123</v>
@@ -31810,7 +31807,7 @@
       </c>
       <c r="G216" s="6">
         <f t="shared" ref="G216:G234" ca="1" si="0">RANDBETWEEN(158, 170)</f>
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H216" s="6">
         <v>132</v>
@@ -31848,7 +31845,7 @@
       </c>
       <c r="G217" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H217" s="6">
         <v>129.5</v>
@@ -31886,7 +31883,7 @@
       </c>
       <c r="G218" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H218" s="6">
         <v>135.5</v>
@@ -31924,7 +31921,7 @@
       </c>
       <c r="G219" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H219" s="6">
         <v>119</v>
@@ -31962,7 +31959,7 @@
       </c>
       <c r="G220" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H220" s="6">
         <v>111</v>
@@ -32000,7 +31997,7 @@
       </c>
       <c r="G221" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H221" s="6">
         <v>129.5</v>
@@ -32038,7 +32035,7 @@
       </c>
       <c r="G222" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H222" s="6">
         <v>117.5</v>
@@ -32076,7 +32073,7 @@
       </c>
       <c r="G223" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H223" s="6">
         <v>115</v>
@@ -32114,7 +32111,7 @@
       </c>
       <c r="G224" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H224" s="6">
         <v>126.5</v>
@@ -32190,7 +32187,7 @@
       </c>
       <c r="G226" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H226" s="6">
         <v>132.5</v>
@@ -32228,7 +32225,7 @@
       </c>
       <c r="G227" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H227" s="6">
         <v>127.5</v>
@@ -32266,7 +32263,7 @@
       </c>
       <c r="G228" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H228" s="6">
         <v>116</v>
@@ -32304,7 +32301,7 @@
       </c>
       <c r="G229" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H229" s="6">
         <v>108</v>
@@ -32342,7 +32339,7 @@
       </c>
       <c r="G230" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H230" s="6">
         <v>130</v>
@@ -32380,7 +32377,7 @@
       </c>
       <c r="G231" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H231" s="6">
         <v>118.5</v>
@@ -32418,7 +32415,7 @@
       </c>
       <c r="G232" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H232" s="6">
         <v>126</v>
@@ -32456,7 +32453,7 @@
       </c>
       <c r="G233" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H233" s="6">
         <v>126</v>
@@ -32494,7 +32491,7 @@
       </c>
       <c r="G234" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H234" s="6">
         <v>130.5</v>
